--- a/Documents/PartyBall/PartyBall'sStages.xlsx
+++ b/Documents/PartyBall/PartyBall'sStages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsh39\OneDrive\project\Jagu_Agis\Documents\PartyBall\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDD6603-D6E5-4974-A63D-FDB8E76361EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104DFEFE-91E6-42F0-8756-5399527BC2EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6654ADE8-FED1-4A0B-8F79-39BD6602AA37}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>셀 경계</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,6 +61,10 @@
   </si>
   <si>
     <t>Stage1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tutorial</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -393,24 +397,60 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -418,42 +458,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -615,13 +619,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>33129</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>33130</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>216009</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>216010</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -683,13 +687,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>23854</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>36111</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>214354</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>226611</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -751,13 +755,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>33129</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>19879</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>216009</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>202759</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -819,13 +823,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>29484</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>219984</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -842,6 +846,142 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6649941" y="1222180"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>33129</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>33130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>216009</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>216010</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="타원 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF169E27-F9DC-440B-BCF2-459DB73C1B96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4446103" y="1702904"/>
+          <a:ext cx="182880" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>23854</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>36111</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>214354</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>226611</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="사각형: 둥근 모서리 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8A39776-1FCF-4C1B-95F4-689D3FAEC7BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5417489" y="4091276"/>
           <a:ext cx="190500" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1183,235 +1323,324 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F014CC21-94BA-4A4A-B0AC-D9B5269E619A}">
-  <dimension ref="B1:AG10"/>
+  <dimension ref="B1:AG20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="2:33" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:33" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
-      <c r="I2" s="3" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
+      <c r="I2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="23" t="s">
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="20"/>
+    </row>
+    <row r="3" spans="2:33" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="20"/>
+    </row>
+    <row r="4" spans="2:33" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="3"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="4"/>
+      <c r="I4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="20"/>
+    </row>
+    <row r="5" spans="2:33" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="3"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="4"/>
+      <c r="I5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="8"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="20"/>
+    </row>
+    <row r="6" spans="2:33" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="3"/>
+      <c r="D6" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="4"/>
+      <c r="I6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="8"/>
+      <c r="V6" s="2"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="20"/>
+    </row>
+    <row r="7" spans="2:33" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="3"/>
+      <c r="D7" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="4"/>
+      <c r="I7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="8"/>
+      <c r="T7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="20"/>
+    </row>
+    <row r="8" spans="2:33" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="I8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="8"/>
+      <c r="T8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="20"/>
+    </row>
+    <row r="9" spans="2:33" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="1"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="20"/>
+    </row>
+    <row r="10" spans="2:33" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+    </row>
+    <row r="12" spans="2:33" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q12" s="20"/>
+      <c r="R12" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="3"/>
-    </row>
-    <row r="3" spans="2:33" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="14"/>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="13"/>
-      <c r="AD3" s="13"/>
-      <c r="AE3" s="13"/>
-      <c r="AF3" s="13"/>
-      <c r="AG3" s="3"/>
-    </row>
-    <row r="4" spans="2:33" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="4"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="5"/>
-      <c r="I4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="3"/>
-    </row>
-    <row r="5" spans="2:33" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="4"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="5"/>
-      <c r="I5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="X5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="3"/>
-    </row>
-    <row r="6" spans="2:33" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="4"/>
-      <c r="D6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="5"/>
-      <c r="I6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="3"/>
-    </row>
-    <row r="7" spans="2:33" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="4"/>
-      <c r="D7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="5"/>
-      <c r="I7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AB7" s="2"/>
-      <c r="AD7" s="2"/>
-      <c r="AF7" s="12"/>
-      <c r="AG7" s="3"/>
-    </row>
-    <row r="8" spans="2:33" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="20"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22"/>
-      <c r="I8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AF8" s="12"/>
-      <c r="AG8" s="3"/>
-    </row>
-    <row r="9" spans="2:33" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="1"/>
-      <c r="Z9" s="16"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="13"/>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="3"/>
-    </row>
-    <row r="10" spans="2:33" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="3"/>
-      <c r="AF10" s="3"/>
-      <c r="AG10" s="3"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="19"/>
+      <c r="AG12" s="20"/>
+    </row>
+    <row r="13" spans="2:33" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q13" s="20"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="20"/>
+    </row>
+    <row r="14" spans="2:33" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q14" s="20"/>
+      <c r="R14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="20"/>
+    </row>
+    <row r="15" spans="2:33" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q15" s="20"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="X15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="20"/>
+    </row>
+    <row r="16" spans="2:33" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q16" s="20"/>
+      <c r="R16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="20"/>
+    </row>
+    <row r="17" spans="17:33" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q17" s="20"/>
+      <c r="R17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="20"/>
+    </row>
+    <row r="18" spans="17:33" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q18" s="20"/>
+      <c r="R18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="20"/>
+    </row>
+    <row r="19" spans="17:33" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q19" s="20"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="1"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="9"/>
+      <c r="AC19" s="9"/>
+      <c r="AD19" s="9"/>
+      <c r="AE19" s="9"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="20"/>
+    </row>
+    <row r="20" spans="17:33" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="20"/>
+      <c r="Z20" s="20"/>
+      <c r="AA20" s="20"/>
+      <c r="AB20" s="20"/>
+      <c r="AC20" s="20"/>
+      <c r="AD20" s="20"/>
+      <c r="AE20" s="20"/>
+      <c r="AF20" s="20"/>
+      <c r="AG20" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="R2:AF2"/>
-    <mergeCell ref="R10:AF10"/>
-    <mergeCell ref="AG2:AG10"/>
+  <mergeCells count="14">
     <mergeCell ref="Q2:Q10"/>
+    <mergeCell ref="R2:X2"/>
+    <mergeCell ref="Y2:Y10"/>
+    <mergeCell ref="R10:X10"/>
+    <mergeCell ref="R12:AF12"/>
+    <mergeCell ref="R20:AF20"/>
+    <mergeCell ref="AG12:AG20"/>
+    <mergeCell ref="Q12:Q20"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="D6:F6"/>

--- a/Documents/PartyBall/PartyBall'sStages.xlsx
+++ b/Documents/PartyBall/PartyBall'sStages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsh39\OneDrive\project\Jagu_Agis\Documents\PartyBall\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104DFEFE-91E6-42F0-8756-5399527BC2EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DF9833-F2FF-440F-9DD8-8181662519D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6654ADE8-FED1-4A0B-8F79-39BD6602AA37}"/>
   </bookViews>
@@ -34,13 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>셀 경계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>옵스타클</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -65,6 +61,22 @@
   </si>
   <si>
     <t>Tutorial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엑셀에서의 셀 1칸은 유니티엔진에서 1,1,0으로 정의한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장애물</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -124,7 +136,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -156,51 +168,6 @@
       </right>
       <top style="thin">
         <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
       </top>
       <bottom style="thin">
         <color theme="0"/>
@@ -381,13 +348,108 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -403,13 +465,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
@@ -418,13 +480,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
@@ -436,7 +498,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
@@ -445,19 +525,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -483,13 +575,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>220980</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -551,13 +643,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>213360</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -617,15 +709,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>33129</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>33130</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>216009</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>216010</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -685,15 +777,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>23854</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>36111</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>214354</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>226611</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -753,15 +845,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>33129</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>19879</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>216009</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>202759</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -821,15 +913,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>29484</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>219984</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -889,13 +981,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>33129</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>33130</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>216009</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>216010</xdr:rowOff>
@@ -957,13 +1049,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>23854</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>36111</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>214354</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>226611</xdr:rowOff>
@@ -982,6 +1074,550 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5417489" y="4091276"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>26504</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>26504</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>209384</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>209384</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="타원 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{320F703C-628E-4099-A822-F18C54491598}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5420139" y="4081669"/>
+          <a:ext cx="182880" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>26504</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>26504</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>209384</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>209384</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="타원 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF7FB6E-B4DD-484F-8DC2-1BCE43EB9EE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6400800" y="3127513"/>
+          <a:ext cx="182880" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>26503</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>26507</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>217003</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>217007</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="사각형: 둥근 모서리 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A8F5F6B-C9D3-4F00-8FCF-804ED79271E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5174973" y="3127516"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>26504</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>26504</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>217004</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>217004</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="사각형: 둥근 모서리 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4B669C3-BD11-489D-92FC-5616696E938B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7381461" y="4081669"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>33129</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>33130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>216009</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>216010</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="타원 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFA38111-303D-4220-A288-7232D0E0C3BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8262729" y="732377"/>
+          <a:ext cx="182880" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>23854</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>36111</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>214354</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>226611</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="사각형: 둥근 모서리 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F398AD0-3744-4B52-B1DC-47F6E6EC8558}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8495501" y="1667687"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>33129</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19879</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>216009</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>202759</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="타원 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D07AEB20-87C3-4CB7-B208-42B7A7898C50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9472964" y="719126"/>
+          <a:ext cx="182880" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>29484</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>219984</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="사각형: 둥근 모서리 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30B16B81-FF1C-4C38-9ACA-C8748B8B1B67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9712362" y="1194896"/>
           <a:ext cx="190500" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1323,330 +1959,604 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F014CC21-94BA-4A4A-B0AC-D9B5269E619A}">
-  <dimension ref="B1:AG20"/>
+  <dimension ref="B1:AT20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AB5" sqref="AB5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AX16" sqref="AX16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="2:33" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:33" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="21" t="s">
+    <row r="1" spans="2:46" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:46" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="20"/>
+      <c r="L2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23"/>
-      <c r="I2" s="20" t="s">
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="16"/>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="19" t="s">
-        <v>7</v>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="17"/>
+      <c r="AI2" s="17"/>
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="17"/>
+      <c r="AL2" s="17"/>
+      <c r="AM2" s="17"/>
+      <c r="AN2" s="17"/>
+      <c r="AO2" s="17"/>
+      <c r="AP2" s="17"/>
+      <c r="AQ2" s="17"/>
+      <c r="AR2" s="17"/>
+      <c r="AS2" s="17"/>
+      <c r="AT2" s="16"/>
+    </row>
+    <row r="3" spans="2:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="25" t="s">
+        <v>9</v>
       </c>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="20"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="22"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="21"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="16"/>
+      <c r="AD3" s="16"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="21"/>
+      <c r="AM3" s="8"/>
+      <c r="AN3" s="7"/>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6"/>
+      <c r="AQ3" s="6"/>
+      <c r="AR3" s="6"/>
+      <c r="AS3" s="21"/>
+      <c r="AT3" s="16"/>
     </row>
-    <row r="3" spans="2:33" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="20"/>
+    <row r="4" spans="2:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="28"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="22"/>
+      <c r="L4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="16"/>
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AM4" s="5"/>
+      <c r="AS4" s="5"/>
+      <c r="AT4" s="16"/>
     </row>
-    <row r="4" spans="2:33" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="3"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="20" t="s">
+    <row r="5" spans="2:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="3"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="4"/>
-      <c r="I4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="20"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="22"/>
+      <c r="L5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="5"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="16"/>
+      <c r="AD5" s="16"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AK5" s="5"/>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="2"/>
+      <c r="AO5" s="2"/>
+      <c r="AP5" s="2"/>
+      <c r="AQ5" s="2"/>
+      <c r="AS5" s="5"/>
+      <c r="AT5" s="16"/>
     </row>
-    <row r="5" spans="2:33" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="3"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="20" t="s">
+    <row r="6" spans="2:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="3"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="22"/>
+      <c r="L6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="5"/>
+      <c r="Y6" s="2"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="16"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AM6" s="5"/>
+      <c r="AS6" s="5"/>
+      <c r="AT6" s="16"/>
+    </row>
+    <row r="7" spans="2:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="3"/>
+      <c r="D7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="4"/>
-      <c r="I5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="8"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="20"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="22"/>
+      <c r="L7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="5"/>
+      <c r="W7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="16"/>
+      <c r="AD7" s="16"/>
+      <c r="AE7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AO7" s="2"/>
+      <c r="AP7" s="2"/>
+      <c r="AQ7" s="2"/>
+      <c r="AS7" s="5"/>
+      <c r="AT7" s="16"/>
     </row>
-    <row r="6" spans="2:33" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="3"/>
-      <c r="D6" s="20" t="s">
+    <row r="8" spans="2:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="3"/>
+      <c r="D8" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="4"/>
-      <c r="I6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="8"/>
-      <c r="V6" s="2"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="20"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="22"/>
+      <c r="L8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="5"/>
+      <c r="W8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="16"/>
+      <c r="AD8" s="16"/>
+      <c r="AE8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AM8" s="5"/>
+      <c r="AS8" s="5"/>
+      <c r="AT8" s="16"/>
     </row>
-    <row r="7" spans="2:33" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="3"/>
-      <c r="D7" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="4"/>
-      <c r="I7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="8"/>
-      <c r="T7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="20"/>
-    </row>
-    <row r="8" spans="2:33" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18"/>
-      <c r="I8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="8"/>
-      <c r="T8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="20"/>
-    </row>
-    <row r="9" spans="2:33" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:46" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="9"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="22"/>
       <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="1"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="9"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="1"/>
+      <c r="T9" s="16"/>
       <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="20"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="16"/>
+      <c r="AD9" s="16"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="6"/>
+      <c r="AH9" s="6"/>
+      <c r="AI9" s="6"/>
+      <c r="AJ9" s="6"/>
+      <c r="AK9" s="1"/>
+      <c r="AM9" s="9"/>
+      <c r="AN9" s="7"/>
+      <c r="AO9" s="6"/>
+      <c r="AP9" s="6"/>
+      <c r="AQ9" s="6"/>
+      <c r="AR9" s="6"/>
+      <c r="AS9" s="1"/>
+      <c r="AT9" s="16"/>
     </row>
-    <row r="10" spans="2:33" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="20"/>
+    <row r="10" spans="2:46" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="12"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16"/>
+      <c r="AD10" s="16"/>
+      <c r="AE10" s="16"/>
+      <c r="AF10" s="16"/>
+      <c r="AG10" s="16"/>
+      <c r="AH10" s="16"/>
+      <c r="AI10" s="16"/>
+      <c r="AJ10" s="16"/>
+      <c r="AK10" s="16"/>
+      <c r="AL10" s="16"/>
+      <c r="AM10" s="16"/>
+      <c r="AN10" s="16"/>
+      <c r="AO10" s="16"/>
+      <c r="AP10" s="16"/>
+      <c r="AQ10" s="16"/>
+      <c r="AR10" s="16"/>
+      <c r="AS10" s="16"/>
+      <c r="AT10" s="16"/>
     </row>
-    <row r="12" spans="2:33" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="Q12" s="20"/>
-      <c r="R12" s="19" t="s">
-        <v>6</v>
+    <row r="12" spans="2:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L12" s="16"/>
+      <c r="M12" s="17" t="s">
+        <v>7</v>
       </c>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="19"/>
-      <c r="AC12" s="19"/>
-      <c r="AD12" s="19"/>
-      <c r="AE12" s="19"/>
-      <c r="AF12" s="19"/>
-      <c r="AG12" s="20"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="17"/>
+      <c r="AB12" s="16"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF12" s="17"/>
+      <c r="AG12" s="17"/>
+      <c r="AH12" s="17"/>
+      <c r="AI12" s="17"/>
+      <c r="AJ12" s="17"/>
+      <c r="AK12" s="17"/>
+      <c r="AL12" s="17"/>
+      <c r="AM12" s="17"/>
+      <c r="AN12" s="17"/>
+      <c r="AO12" s="17"/>
+      <c r="AP12" s="17"/>
+      <c r="AQ12" s="17"/>
+      <c r="AR12" s="17"/>
+      <c r="AS12" s="17"/>
+      <c r="AT12" s="16"/>
     </row>
-    <row r="13" spans="2:33" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="Q13" s="20"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="10"/>
-      <c r="AB13" s="9"/>
-      <c r="AC13" s="9"/>
-      <c r="AD13" s="9"/>
-      <c r="AE13" s="9"/>
-      <c r="AF13" s="9"/>
-      <c r="AG13" s="20"/>
+    <row r="13" spans="2:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L13" s="16"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="21"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="16"/>
+      <c r="AD13" s="16"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="21"/>
+      <c r="AM13" s="8"/>
+      <c r="AN13" s="7"/>
+      <c r="AO13" s="6"/>
+      <c r="AP13" s="6"/>
+      <c r="AQ13" s="6"/>
+      <c r="AR13" s="6"/>
+      <c r="AS13" s="21"/>
+      <c r="AT13" s="16"/>
     </row>
-    <row r="14" spans="2:33" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="Q14" s="20"/>
-      <c r="R14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Z14" s="8"/>
-      <c r="AF14" s="8"/>
-      <c r="AG14" s="20"/>
+    <row r="14" spans="2:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L14" s="16"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="S14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="16"/>
+      <c r="AD14" s="16"/>
+      <c r="AE14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AM14" s="5"/>
+      <c r="AS14" s="5"/>
+      <c r="AT14" s="16"/>
     </row>
-    <row r="15" spans="2:33" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="Q15" s="20"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
+    <row r="15" spans="2:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L15" s="16"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="S15" s="5"/>
+      <c r="U15" s="5"/>
       <c r="V15" s="2"/>
-      <c r="X15" s="8"/>
-      <c r="Z15" s="8"/>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="2"/>
-      <c r="AC15" s="2"/>
-      <c r="AD15" s="2"/>
-      <c r="AF15" s="8"/>
-      <c r="AG15" s="20"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="16"/>
+      <c r="AD15" s="16"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2"/>
+      <c r="AK15" s="5"/>
+      <c r="AM15" s="5"/>
+      <c r="AN15" s="2"/>
+      <c r="AO15" s="2"/>
+      <c r="AP15" s="2"/>
+      <c r="AQ15" s="2"/>
+      <c r="AS15" s="5"/>
+      <c r="AT15" s="16"/>
     </row>
-    <row r="16" spans="2:33" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="Q16" s="20"/>
-      <c r="R16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Z16" s="8"/>
-      <c r="AF16" s="8"/>
-      <c r="AG16" s="20"/>
+    <row r="16" spans="2:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L16" s="16"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="S16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="16"/>
+      <c r="AD16" s="16"/>
+      <c r="AE16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AM16" s="5"/>
+      <c r="AS16" s="5"/>
+      <c r="AT16" s="16"/>
     </row>
-    <row r="17" spans="17:33" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="Q17" s="20"/>
-      <c r="R17" s="8"/>
-      <c r="X17" s="8"/>
-      <c r="Z17" s="8"/>
-      <c r="AB17" s="2"/>
-      <c r="AC17" s="2"/>
-      <c r="AD17" s="2"/>
-      <c r="AF17" s="8"/>
-      <c r="AG17" s="20"/>
+    <row r="17" spans="12:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L17" s="16"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="S17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="16"/>
+      <c r="AD17" s="16"/>
+      <c r="AE17" s="5"/>
+      <c r="AK17" s="5"/>
+      <c r="AM17" s="5"/>
+      <c r="AO17" s="2"/>
+      <c r="AP17" s="2"/>
+      <c r="AQ17" s="2"/>
+      <c r="AS17" s="5"/>
+      <c r="AT17" s="16"/>
     </row>
-    <row r="18" spans="17:33" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="Q18" s="20"/>
-      <c r="R18" s="8"/>
-      <c r="X18" s="8"/>
-      <c r="Z18" s="8"/>
-      <c r="AF18" s="8"/>
-      <c r="AG18" s="20"/>
+    <row r="18" spans="12:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L18" s="16"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="S18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="16"/>
+      <c r="AD18" s="16"/>
+      <c r="AE18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AM18" s="5"/>
+      <c r="AS18" s="5"/>
+      <c r="AT18" s="16"/>
     </row>
-    <row r="19" spans="17:33" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="Q19" s="20"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="9"/>
+    <row r="19" spans="12:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L19" s="16"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="1"/>
       <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
-      <c r="X19" s="1"/>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="10"/>
-      <c r="AB19" s="9"/>
-      <c r="AC19" s="9"/>
-      <c r="AD19" s="9"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="16"/>
+      <c r="AD19" s="16"/>
       <c r="AE19" s="9"/>
-      <c r="AF19" s="1"/>
-      <c r="AG19" s="20"/>
+      <c r="AF19" s="7"/>
+      <c r="AG19" s="6"/>
+      <c r="AH19" s="6"/>
+      <c r="AI19" s="6"/>
+      <c r="AJ19" s="6"/>
+      <c r="AK19" s="1"/>
+      <c r="AM19" s="9"/>
+      <c r="AN19" s="7"/>
+      <c r="AO19" s="6"/>
+      <c r="AP19" s="6"/>
+      <c r="AQ19" s="6"/>
+      <c r="AR19" s="6"/>
+      <c r="AS19" s="1"/>
+      <c r="AT19" s="16"/>
     </row>
-    <row r="20" spans="17:33" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="20"/>
-      <c r="V20" s="20"/>
-      <c r="W20" s="20"/>
-      <c r="X20" s="20"/>
-      <c r="Y20" s="20"/>
-      <c r="Z20" s="20"/>
-      <c r="AA20" s="20"/>
-      <c r="AB20" s="20"/>
-      <c r="AC20" s="20"/>
-      <c r="AD20" s="20"/>
-      <c r="AE20" s="20"/>
-      <c r="AF20" s="20"/>
-      <c r="AG20" s="20"/>
+    <row r="20" spans="12:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="16"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="16"/>
+      <c r="AA20" s="16"/>
+      <c r="AB20" s="16"/>
+      <c r="AD20" s="16"/>
+      <c r="AE20" s="16"/>
+      <c r="AF20" s="16"/>
+      <c r="AG20" s="16"/>
+      <c r="AH20" s="16"/>
+      <c r="AI20" s="16"/>
+      <c r="AJ20" s="16"/>
+      <c r="AK20" s="16"/>
+      <c r="AL20" s="16"/>
+      <c r="AM20" s="16"/>
+      <c r="AN20" s="16"/>
+      <c r="AO20" s="16"/>
+      <c r="AP20" s="16"/>
+      <c r="AQ20" s="16"/>
+      <c r="AR20" s="16"/>
+      <c r="AS20" s="16"/>
+      <c r="AT20" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="Q2:Q10"/>
-    <mergeCell ref="R2:X2"/>
-    <mergeCell ref="Y2:Y10"/>
-    <mergeCell ref="R10:X10"/>
-    <mergeCell ref="R12:AF12"/>
-    <mergeCell ref="R20:AF20"/>
-    <mergeCell ref="AG12:AG20"/>
-    <mergeCell ref="Q12:Q20"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:O2"/>
+  <mergeCells count="23">
+    <mergeCell ref="AB12:AB20"/>
+    <mergeCell ref="M20:AA20"/>
+    <mergeCell ref="AD12:AD20"/>
+    <mergeCell ref="AT12:AT20"/>
+    <mergeCell ref="AE12:AS12"/>
+    <mergeCell ref="AE20:AS20"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="M12:AA12"/>
+    <mergeCell ref="L12:L20"/>
+    <mergeCell ref="B3:I4"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="AE10:AS10"/>
+    <mergeCell ref="AT2:AT10"/>
+    <mergeCell ref="AD2:AD10"/>
+    <mergeCell ref="T2:T10"/>
+    <mergeCell ref="U2:AA2"/>
+    <mergeCell ref="AB2:AB10"/>
+    <mergeCell ref="U10:AA10"/>
+    <mergeCell ref="AE2:AS2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/PartyBall/PartyBall'sStages.xlsx
+++ b/Documents/PartyBall/PartyBall'sStages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsh39\OneDrive\project\Jagu_Agis\Documents\PartyBall\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DF9833-F2FF-440F-9DD8-8181662519D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15BA074-0272-4DDC-8148-B36F74C9D3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6654ADE8-FED1-4A0B-8F79-39BD6602AA37}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>셀 경계</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,6 +77,14 @@
   </si>
   <si>
     <t>장애물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,7 +457,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -498,6 +506,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -512,18 +532,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -551,6 +559,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1389,16 +1403,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>33129</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>33130</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>24164</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>24166</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>216009</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>216010</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>207044</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>207046</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1413,7 +1427,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8262729" y="732377"/>
+          <a:off x="7527623" y="3520401"/>
           <a:ext cx="182880" cy="182880"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1457,16 +1471,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>23854</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>36111</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>14889</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>18181</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>214354</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>226611</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>205389</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>208681</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1481,7 +1495,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8495501" y="1667687"/>
+          <a:off x="7518348" y="3048252"/>
           <a:ext cx="190500" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1525,15 +1539,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>33129</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>15200</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>19879</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>216009</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>198080</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>202759</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1549,7 +1563,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9472964" y="719126"/>
+          <a:off x="9939129" y="3982279"/>
           <a:ext cx="182880" cy="182880"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1593,16 +1607,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>29484</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>21515</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>20518</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>219984</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>212015</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>211018</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1617,7 +1631,687 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9712362" y="1194896"/>
+          <a:off x="10429539" y="3050589"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>33129</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>24167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>216009</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>207047</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="타원 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41072354-DB3F-47F6-BCD8-EC8C1A784BF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3421788" y="5618143"/>
+          <a:ext cx="182880" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>32819</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>27147</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>223319</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>217647</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="사각형: 둥근 모서리 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF77B6DD-B8FD-4B36-89F1-407E2139A625}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3179431" y="5621123"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>15200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19879</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>198080</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>202759</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="타원 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEF6E884-572D-4AC8-94BC-9910443FDB10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9939129" y="3982279"/>
+          <a:ext cx="182880" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>21515</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>20518</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>212015</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>211018</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="사각형: 둥근 모서리 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4569F1FC-E14C-425F-8E9B-F246D48D4A3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10429539" y="3050589"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>15200</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>19879</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>198080</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>202759</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="타원 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EE0815D-D224-4546-9DA9-C67FDDAC483D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5582282" y="6313103"/>
+          <a:ext cx="182880" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>39444</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>20518</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>229944</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>211018</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="사각형: 둥근 모서리 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13EC8DDA-394F-41FF-BC2F-1B98D826099A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6090620" y="7945318"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>33130</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>24167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>216010</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>207047</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="타원 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AA89067-591F-4591-96F3-77AFDC8BEE65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8504777" y="6317391"/>
+          <a:ext cx="182880" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>23855</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>18182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>214355</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>208682</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="사각형: 둥근 모서리 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAFEFFEF-7408-414D-82E7-636217D9FE97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7527314" y="6311406"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>6235</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28843</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>189115</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>211723</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="타원 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E3A5183-B2C7-4B4F-89C3-6E067E822AFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9446070" y="8186725"/>
+          <a:ext cx="182880" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>21515</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>20518</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>212015</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>211018</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="사각형: 둥근 모서리 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{388969CF-4BE3-485F-A2EF-67890522F5B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10429539" y="8178400"/>
           <a:ext cx="190500" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1959,65 +2653,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F014CC21-94BA-4A4A-B0AC-D9B5269E619A}">
-  <dimension ref="B1:AT20"/>
+  <dimension ref="B1:AT39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AX16" sqref="AX16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AZ30" sqref="AZ30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="2:46" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:46" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="20"/>
-      <c r="L2" s="16" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="24"/>
+      <c r="L2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="17" t="s">
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="16"/>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="17" t="s">
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="17"/>
-      <c r="AJ2" s="17"/>
-      <c r="AK2" s="17"/>
-      <c r="AL2" s="17"/>
-      <c r="AM2" s="17"/>
-      <c r="AN2" s="17"/>
-      <c r="AO2" s="17"/>
-      <c r="AP2" s="17"/>
-      <c r="AQ2" s="17"/>
-      <c r="AR2" s="17"/>
-      <c r="AS2" s="17"/>
-      <c r="AT2" s="16"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="21"/>
+      <c r="AM2" s="21"/>
+      <c r="AN2" s="21"/>
+      <c r="AO2" s="21"/>
+      <c r="AP2" s="21"/>
+      <c r="AQ2" s="21"/>
+      <c r="AR2" s="21"/>
+      <c r="AS2" s="21"/>
+      <c r="AT2" s="20"/>
     </row>
     <row r="3" spans="2:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="25" t="s">
@@ -2030,39 +2724,39 @@
       <c r="G3" s="26"/>
       <c r="H3" s="26"/>
       <c r="I3" s="27"/>
-      <c r="J3" s="22"/>
+      <c r="J3" s="17"/>
       <c r="L3" s="8"/>
       <c r="M3" s="7"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
-      <c r="R3" s="21"/>
-      <c r="T3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="T3" s="20"/>
       <c r="U3" s="8"/>
       <c r="V3" s="7"/>
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="16"/>
-      <c r="AD3" s="16"/>
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="20"/>
+      <c r="AD3" s="20"/>
       <c r="AE3" s="8"/>
       <c r="AF3" s="7"/>
       <c r="AG3" s="6"/>
       <c r="AH3" s="6"/>
       <c r="AI3" s="6"/>
       <c r="AJ3" s="6"/>
-      <c r="AK3" s="21"/>
+      <c r="AK3" s="16"/>
       <c r="AM3" s="8"/>
       <c r="AN3" s="7"/>
       <c r="AO3" s="6"/>
       <c r="AP3" s="6"/>
       <c r="AQ3" s="6"/>
       <c r="AR3" s="6"/>
-      <c r="AS3" s="21"/>
-      <c r="AT3" s="16"/>
+      <c r="AS3" s="16"/>
+      <c r="AT3" s="20"/>
     </row>
     <row r="4" spans="2:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="28"/>
@@ -2073,41 +2767,41 @@
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
       <c r="I4" s="30"/>
-      <c r="J4" s="22"/>
+      <c r="J4" s="17"/>
       <c r="L4" s="5"/>
       <c r="R4" s="5"/>
-      <c r="T4" s="16"/>
+      <c r="T4" s="20"/>
       <c r="U4" s="5"/>
       <c r="AA4" s="5"/>
-      <c r="AB4" s="16"/>
-      <c r="AD4" s="16"/>
+      <c r="AB4" s="20"/>
+      <c r="AD4" s="20"/>
       <c r="AE4" s="5"/>
       <c r="AK4" s="5"/>
       <c r="AM4" s="5"/>
       <c r="AS4" s="5"/>
-      <c r="AT4" s="16"/>
+      <c r="AT4" s="20"/>
     </row>
     <row r="5" spans="2:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
       <c r="H5" s="33"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="22"/>
+      <c r="J5" s="17"/>
       <c r="L5" s="5"/>
       <c r="R5" s="5"/>
-      <c r="T5" s="16"/>
+      <c r="T5" s="20"/>
       <c r="U5" s="5"/>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
       <c r="AA5" s="5"/>
-      <c r="AB5" s="16"/>
-      <c r="AD5" s="16"/>
+      <c r="AB5" s="20"/>
+      <c r="AD5" s="20"/>
       <c r="AE5" s="5"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
@@ -2120,54 +2814,54 @@
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2"/>
       <c r="AS5" s="5"/>
-      <c r="AT5" s="16"/>
+      <c r="AT5" s="20"/>
     </row>
     <row r="6" spans="2:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="3"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
       <c r="H6" s="33"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="22"/>
+      <c r="J6" s="17"/>
       <c r="L6" s="5"/>
       <c r="R6" s="5"/>
-      <c r="T6" s="16"/>
+      <c r="T6" s="20"/>
       <c r="U6" s="5"/>
       <c r="Y6" s="2"/>
       <c r="AA6" s="5"/>
-      <c r="AB6" s="16"/>
-      <c r="AD6" s="16"/>
+      <c r="AB6" s="20"/>
+      <c r="AD6" s="20"/>
       <c r="AE6" s="5"/>
       <c r="AK6" s="5"/>
       <c r="AM6" s="5"/>
       <c r="AS6" s="5"/>
-      <c r="AT6" s="16"/>
+      <c r="AT6" s="20"/>
     </row>
     <row r="7" spans="2:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="3"/>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
       <c r="H7" s="33"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="22"/>
+      <c r="J7" s="17"/>
       <c r="L7" s="5"/>
       <c r="R7" s="5"/>
-      <c r="T7" s="16"/>
+      <c r="T7" s="20"/>
       <c r="U7" s="5"/>
       <c r="W7" s="2"/>
       <c r="Y7" s="2"/>
       <c r="AA7" s="5"/>
-      <c r="AB7" s="16"/>
-      <c r="AD7" s="16"/>
+      <c r="AB7" s="20"/>
+      <c r="AD7" s="20"/>
       <c r="AE7" s="5"/>
       <c r="AK7" s="5"/>
       <c r="AM7" s="5"/>
@@ -2175,7 +2869,7 @@
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2"/>
       <c r="AS7" s="5"/>
-      <c r="AT7" s="16"/>
+      <c r="AT7" s="20"/>
     </row>
     <row r="8" spans="2:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="3"/>
@@ -2187,21 +2881,21 @@
       <c r="G8" s="31"/>
       <c r="H8" s="32"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="22"/>
+      <c r="J8" s="17"/>
       <c r="L8" s="5"/>
       <c r="R8" s="5"/>
-      <c r="T8" s="16"/>
+      <c r="T8" s="20"/>
       <c r="U8" s="5"/>
       <c r="W8" s="2"/>
       <c r="Y8" s="2"/>
       <c r="AA8" s="5"/>
-      <c r="AB8" s="16"/>
-      <c r="AD8" s="16"/>
+      <c r="AB8" s="20"/>
+      <c r="AD8" s="20"/>
       <c r="AE8" s="5"/>
       <c r="AK8" s="5"/>
       <c r="AM8" s="5"/>
       <c r="AS8" s="5"/>
-      <c r="AT8" s="16"/>
+      <c r="AT8" s="20"/>
     </row>
     <row r="9" spans="2:46" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="13"/>
@@ -2209,10 +2903,10 @@
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="22"/>
+      <c r="J9" s="17"/>
       <c r="L9" s="9"/>
       <c r="M9" s="7"/>
       <c r="N9" s="6"/>
@@ -2220,7 +2914,7 @@
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="1"/>
-      <c r="T9" s="16"/>
+      <c r="T9" s="20"/>
       <c r="U9" s="9"/>
       <c r="V9" s="7"/>
       <c r="W9" s="6"/>
@@ -2228,8 +2922,8 @@
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
       <c r="AA9" s="1"/>
-      <c r="AB9" s="16"/>
-      <c r="AD9" s="16"/>
+      <c r="AB9" s="20"/>
+      <c r="AD9" s="20"/>
       <c r="AE9" s="9"/>
       <c r="AF9" s="7"/>
       <c r="AG9" s="6"/>
@@ -2244,7 +2938,7 @@
       <c r="AQ9" s="6"/>
       <c r="AR9" s="6"/>
       <c r="AS9" s="1"/>
-      <c r="AT9" s="16"/>
+      <c r="AT9" s="20"/>
     </row>
     <row r="10" spans="2:46" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="10"/>
@@ -2252,218 +2946,227 @@
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
       <c r="I10" s="12"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="16"/>
-      <c r="AB10" s="16"/>
-      <c r="AD10" s="16"/>
-      <c r="AE10" s="16"/>
-      <c r="AF10" s="16"/>
-      <c r="AG10" s="16"/>
-      <c r="AH10" s="16"/>
-      <c r="AI10" s="16"/>
-      <c r="AJ10" s="16"/>
-      <c r="AK10" s="16"/>
-      <c r="AL10" s="16"/>
-      <c r="AM10" s="16"/>
-      <c r="AN10" s="16"/>
-      <c r="AO10" s="16"/>
-      <c r="AP10" s="16"/>
-      <c r="AQ10" s="16"/>
-      <c r="AR10" s="16"/>
-      <c r="AS10" s="16"/>
-      <c r="AT10" s="16"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="20"/>
+      <c r="AD10" s="20"/>
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="20"/>
+      <c r="AG10" s="20"/>
+      <c r="AH10" s="20"/>
+      <c r="AI10" s="20"/>
+      <c r="AJ10" s="20"/>
+      <c r="AK10" s="20"/>
+      <c r="AL10" s="20"/>
+      <c r="AM10" s="20"/>
+      <c r="AN10" s="20"/>
+      <c r="AO10" s="20"/>
+      <c r="AP10" s="20"/>
+      <c r="AQ10" s="20"/>
+      <c r="AR10" s="20"/>
+      <c r="AS10" s="20"/>
+      <c r="AT10" s="20"/>
     </row>
     <row r="12" spans="2:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L12" s="16"/>
-      <c r="M12" s="17" t="s">
+      <c r="L12" s="20"/>
+      <c r="M12" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="16"/>
-      <c r="AD12" s="16"/>
-      <c r="AE12" s="17" t="s">
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="20"/>
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="AF12" s="17"/>
-      <c r="AG12" s="17"/>
-      <c r="AH12" s="17"/>
-      <c r="AI12" s="17"/>
-      <c r="AJ12" s="17"/>
-      <c r="AK12" s="17"/>
-      <c r="AL12" s="17"/>
-      <c r="AM12" s="17"/>
-      <c r="AN12" s="17"/>
-      <c r="AO12" s="17"/>
-      <c r="AP12" s="17"/>
-      <c r="AQ12" s="17"/>
-      <c r="AR12" s="17"/>
-      <c r="AS12" s="17"/>
-      <c r="AT12" s="16"/>
+      <c r="AF12" s="21"/>
+      <c r="AG12" s="21"/>
+      <c r="AH12" s="21"/>
+      <c r="AI12" s="21"/>
+      <c r="AJ12" s="21"/>
+      <c r="AK12" s="21"/>
+      <c r="AL12" s="21"/>
+      <c r="AM12" s="21"/>
+      <c r="AN12" s="21"/>
+      <c r="AO12" s="21"/>
+      <c r="AP12" s="21"/>
+      <c r="AQ12" s="21"/>
+      <c r="AR12" s="21"/>
+      <c r="AS12" s="21"/>
+      <c r="AT12" s="20"/>
     </row>
     <row r="13" spans="2:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L13" s="16"/>
+      <c r="L13" s="20"/>
       <c r="M13" s="8"/>
       <c r="N13" s="7"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
-      <c r="S13" s="21"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="20"/>
       <c r="U13" s="8"/>
       <c r="V13" s="7"/>
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
-      <c r="AA13" s="21"/>
-      <c r="AB13" s="16"/>
-      <c r="AD13" s="16"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="20"/>
+      <c r="AD13" s="20"/>
       <c r="AE13" s="8"/>
       <c r="AF13" s="7"/>
       <c r="AG13" s="6"/>
       <c r="AH13" s="6"/>
       <c r="AI13" s="6"/>
       <c r="AJ13" s="6"/>
-      <c r="AK13" s="21"/>
+      <c r="AK13" s="16"/>
+      <c r="AL13" s="20"/>
       <c r="AM13" s="8"/>
       <c r="AN13" s="7"/>
       <c r="AO13" s="6"/>
       <c r="AP13" s="6"/>
       <c r="AQ13" s="6"/>
       <c r="AR13" s="6"/>
-      <c r="AS13" s="21"/>
-      <c r="AT13" s="16"/>
+      <c r="AS13" s="16"/>
+      <c r="AT13" s="20"/>
     </row>
     <row r="14" spans="2:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L14" s="16"/>
+      <c r="L14" s="20"/>
       <c r="M14" s="5"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="S14" s="5"/>
+      <c r="T14" s="20"/>
       <c r="U14" s="5"/>
       <c r="AA14" s="5"/>
-      <c r="AB14" s="16"/>
-      <c r="AD14" s="16"/>
+      <c r="AB14" s="20"/>
+      <c r="AD14" s="20"/>
       <c r="AE14" s="5"/>
       <c r="AK14" s="5"/>
+      <c r="AL14" s="20"/>
       <c r="AM14" s="5"/>
       <c r="AS14" s="5"/>
-      <c r="AT14" s="16"/>
+      <c r="AT14" s="20"/>
     </row>
     <row r="15" spans="2:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L15" s="16"/>
+      <c r="L15" s="20"/>
       <c r="M15" s="5"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="S15" s="5"/>
+      <c r="T15" s="20"/>
       <c r="U15" s="5"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
       <c r="AA15" s="5"/>
-      <c r="AB15" s="16"/>
-      <c r="AD15" s="16"/>
+      <c r="AB15" s="20"/>
+      <c r="AD15" s="20"/>
       <c r="AE15" s="5"/>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
       <c r="AK15" s="5"/>
+      <c r="AL15" s="20"/>
       <c r="AM15" s="5"/>
       <c r="AN15" s="2"/>
       <c r="AO15" s="2"/>
-      <c r="AP15" s="2"/>
       <c r="AQ15" s="2"/>
+      <c r="AR15" s="2"/>
       <c r="AS15" s="5"/>
-      <c r="AT15" s="16"/>
+      <c r="AT15" s="20"/>
     </row>
     <row r="16" spans="2:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L16" s="16"/>
+      <c r="L16" s="20"/>
       <c r="M16" s="5"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="S16" s="5"/>
+      <c r="T16" s="20"/>
       <c r="U16" s="5"/>
       <c r="AA16" s="5"/>
-      <c r="AB16" s="16"/>
-      <c r="AD16" s="16"/>
+      <c r="AB16" s="20"/>
+      <c r="AD16" s="20"/>
       <c r="AE16" s="5"/>
       <c r="AK16" s="5"/>
+      <c r="AL16" s="20"/>
       <c r="AM16" s="5"/>
       <c r="AS16" s="5"/>
-      <c r="AT16" s="16"/>
+      <c r="AT16" s="20"/>
     </row>
     <row r="17" spans="12:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L17" s="16"/>
+      <c r="L17" s="20"/>
       <c r="M17" s="5"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="S17" s="5"/>
+      <c r="T17" s="20"/>
       <c r="U17" s="5"/>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
       <c r="AA17" s="5"/>
-      <c r="AB17" s="16"/>
-      <c r="AD17" s="16"/>
+      <c r="AB17" s="20"/>
+      <c r="AD17" s="20"/>
       <c r="AE17" s="5"/>
       <c r="AK17" s="5"/>
+      <c r="AL17" s="20"/>
       <c r="AM17" s="5"/>
-      <c r="AO17" s="2"/>
-      <c r="AP17" s="2"/>
-      <c r="AQ17" s="2"/>
       <c r="AS17" s="5"/>
-      <c r="AT17" s="16"/>
+      <c r="AT17" s="20"/>
     </row>
     <row r="18" spans="12:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L18" s="16"/>
+      <c r="L18" s="20"/>
       <c r="M18" s="5"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="S18" s="5"/>
+      <c r="T18" s="20"/>
       <c r="U18" s="5"/>
       <c r="AA18" s="5"/>
-      <c r="AB18" s="16"/>
-      <c r="AD18" s="16"/>
+      <c r="AB18" s="20"/>
+      <c r="AD18" s="20"/>
       <c r="AE18" s="5"/>
       <c r="AK18" s="5"/>
+      <c r="AL18" s="20"/>
       <c r="AM18" s="5"/>
       <c r="AS18" s="5"/>
-      <c r="AT18" s="16"/>
+      <c r="AT18" s="20"/>
     </row>
     <row r="19" spans="12:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L19" s="16"/>
+      <c r="L19" s="20"/>
       <c r="M19" s="9"/>
       <c r="N19" s="7"/>
       <c r="O19" s="6"/>
@@ -2471,6 +3174,7 @@
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
       <c r="S19" s="1"/>
+      <c r="T19" s="20"/>
       <c r="U19" s="9"/>
       <c r="V19" s="7"/>
       <c r="W19" s="6"/>
@@ -2478,8 +3182,8 @@
       <c r="Y19" s="6"/>
       <c r="Z19" s="6"/>
       <c r="AA19" s="1"/>
-      <c r="AB19" s="16"/>
-      <c r="AD19" s="16"/>
+      <c r="AB19" s="20"/>
+      <c r="AD19" s="20"/>
       <c r="AE19" s="9"/>
       <c r="AF19" s="7"/>
       <c r="AG19" s="6"/>
@@ -2487,6 +3191,7 @@
       <c r="AI19" s="6"/>
       <c r="AJ19" s="6"/>
       <c r="AK19" s="1"/>
+      <c r="AL19" s="20"/>
       <c r="AM19" s="9"/>
       <c r="AN19" s="7"/>
       <c r="AO19" s="6"/>
@@ -2494,52 +3199,582 @@
       <c r="AQ19" s="6"/>
       <c r="AR19" s="6"/>
       <c r="AS19" s="1"/>
-      <c r="AT19" s="16"/>
+      <c r="AT19" s="20"/>
     </row>
     <row r="20" spans="12:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="16"/>
-      <c r="X20" s="16"/>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="16"/>
-      <c r="AA20" s="16"/>
-      <c r="AB20" s="16"/>
-      <c r="AD20" s="16"/>
-      <c r="AE20" s="16"/>
-      <c r="AF20" s="16"/>
-      <c r="AG20" s="16"/>
-      <c r="AH20" s="16"/>
-      <c r="AI20" s="16"/>
-      <c r="AJ20" s="16"/>
-      <c r="AK20" s="16"/>
-      <c r="AL20" s="16"/>
-      <c r="AM20" s="16"/>
-      <c r="AN20" s="16"/>
-      <c r="AO20" s="16"/>
-      <c r="AP20" s="16"/>
-      <c r="AQ20" s="16"/>
-      <c r="AR20" s="16"/>
-      <c r="AS20" s="16"/>
-      <c r="AT20" s="16"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="20"/>
+      <c r="Z20" s="20"/>
+      <c r="AA20" s="20"/>
+      <c r="AB20" s="20"/>
+      <c r="AD20" s="20"/>
+      <c r="AE20" s="20"/>
+      <c r="AF20" s="20"/>
+      <c r="AG20" s="20"/>
+      <c r="AH20" s="20"/>
+      <c r="AI20" s="20"/>
+      <c r="AJ20" s="20"/>
+      <c r="AK20" s="20"/>
+      <c r="AL20" s="20"/>
+      <c r="AM20" s="20"/>
+      <c r="AN20" s="20"/>
+      <c r="AO20" s="20"/>
+      <c r="AP20" s="20"/>
+      <c r="AQ20" s="20"/>
+      <c r="AR20" s="20"/>
+      <c r="AS20" s="20"/>
+      <c r="AT20" s="20"/>
+    </row>
+    <row r="22" spans="12:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L22" s="20"/>
+      <c r="M22" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="21"/>
+      <c r="Y22" s="21"/>
+      <c r="Z22" s="21"/>
+      <c r="AA22" s="21"/>
+      <c r="AB22" s="20"/>
+      <c r="AD22" s="20"/>
+      <c r="AE22" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF22" s="21"/>
+      <c r="AG22" s="21"/>
+      <c r="AH22" s="21"/>
+      <c r="AI22" s="21"/>
+      <c r="AJ22" s="21"/>
+      <c r="AK22" s="21"/>
+      <c r="AL22" s="21"/>
+      <c r="AM22" s="21"/>
+      <c r="AN22" s="21"/>
+      <c r="AO22" s="21"/>
+      <c r="AP22" s="21"/>
+      <c r="AQ22" s="21"/>
+      <c r="AR22" s="21"/>
+      <c r="AS22" s="21"/>
+      <c r="AT22" s="20"/>
+    </row>
+    <row r="23" spans="12:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L23" s="20"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="16"/>
+      <c r="AB23" s="20"/>
+      <c r="AD23" s="20"/>
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="7"/>
+      <c r="AG23" s="6"/>
+      <c r="AH23" s="6"/>
+      <c r="AI23" s="6"/>
+      <c r="AJ23" s="6"/>
+      <c r="AK23" s="16"/>
+      <c r="AL23" s="20"/>
+      <c r="AM23" s="20"/>
+      <c r="AN23" s="20"/>
+      <c r="AO23" s="20"/>
+      <c r="AP23" s="20"/>
+      <c r="AQ23" s="20"/>
+      <c r="AR23" s="20"/>
+      <c r="AS23" s="20"/>
+      <c r="AT23" s="20"/>
+    </row>
+    <row r="24" spans="12:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L24" s="20"/>
+      <c r="M24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="20"/>
+      <c r="AD24" s="20"/>
+      <c r="AE24" s="5"/>
+      <c r="AG24" s="2"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="20"/>
+      <c r="AM24" s="20"/>
+      <c r="AN24" s="20"/>
+      <c r="AO24" s="20"/>
+      <c r="AP24" s="20"/>
+      <c r="AQ24" s="20"/>
+      <c r="AR24" s="20"/>
+      <c r="AS24" s="20"/>
+      <c r="AT24" s="20"/>
+    </row>
+    <row r="25" spans="12:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L25" s="20"/>
+      <c r="M25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="5"/>
+      <c r="X25" s="2"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="20"/>
+      <c r="AD25" s="20"/>
+      <c r="AE25" s="5"/>
+      <c r="AG25" s="2"/>
+      <c r="AI25" s="2"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="20"/>
+      <c r="AM25" s="20"/>
+      <c r="AN25" s="20"/>
+      <c r="AO25" s="20"/>
+      <c r="AP25" s="20"/>
+      <c r="AQ25" s="20"/>
+      <c r="AR25" s="20"/>
+      <c r="AS25" s="20"/>
+      <c r="AT25" s="20"/>
+    </row>
+    <row r="26" spans="12:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L26" s="20"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="5"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="20"/>
+      <c r="AD26" s="20"/>
+      <c r="AE26" s="5"/>
+      <c r="AG26" s="2"/>
+      <c r="AI26" s="2"/>
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="20"/>
+      <c r="AM26" s="20"/>
+      <c r="AN26" s="20"/>
+      <c r="AO26" s="20"/>
+      <c r="AP26" s="20"/>
+      <c r="AQ26" s="20"/>
+      <c r="AR26" s="20"/>
+      <c r="AS26" s="20"/>
+      <c r="AT26" s="20"/>
+    </row>
+    <row r="27" spans="12:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L27" s="20"/>
+      <c r="M27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="2"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="20"/>
+      <c r="AD27" s="20"/>
+      <c r="AE27" s="5"/>
+      <c r="AG27" s="2"/>
+      <c r="AI27" s="2"/>
+      <c r="AK27" s="5"/>
+      <c r="AL27" s="20"/>
+      <c r="AM27" s="20"/>
+      <c r="AN27" s="20"/>
+      <c r="AO27" s="20"/>
+      <c r="AP27" s="20"/>
+      <c r="AQ27" s="20"/>
+      <c r="AR27" s="20"/>
+      <c r="AS27" s="20"/>
+      <c r="AT27" s="20"/>
+    </row>
+    <row r="28" spans="12:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L28" s="20"/>
+      <c r="M28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="20"/>
+      <c r="AD28" s="20"/>
+      <c r="AE28" s="5"/>
+      <c r="AI28" s="2"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="20"/>
+      <c r="AM28" s="20"/>
+      <c r="AN28" s="20"/>
+      <c r="AO28" s="20"/>
+      <c r="AP28" s="20"/>
+      <c r="AQ28" s="20"/>
+      <c r="AR28" s="20"/>
+      <c r="AS28" s="20"/>
+      <c r="AT28" s="20"/>
+    </row>
+    <row r="29" spans="12:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L29" s="20"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="20"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="20"/>
+      <c r="AD29" s="20"/>
+      <c r="AE29" s="9"/>
+      <c r="AF29" s="7"/>
+      <c r="AG29" s="6"/>
+      <c r="AH29" s="6"/>
+      <c r="AI29" s="6"/>
+      <c r="AJ29" s="6"/>
+      <c r="AK29" s="1"/>
+      <c r="AL29" s="20"/>
+      <c r="AM29" s="20"/>
+      <c r="AN29" s="20"/>
+      <c r="AO29" s="20"/>
+      <c r="AP29" s="20"/>
+      <c r="AQ29" s="20"/>
+      <c r="AR29" s="20"/>
+      <c r="AS29" s="20"/>
+      <c r="AT29" s="20"/>
+    </row>
+    <row r="30" spans="12:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="20"/>
+      <c r="W30" s="20"/>
+      <c r="X30" s="20"/>
+      <c r="Y30" s="20"/>
+      <c r="Z30" s="20"/>
+      <c r="AA30" s="20"/>
+      <c r="AB30" s="20"/>
+      <c r="AD30" s="20"/>
+      <c r="AE30" s="20"/>
+      <c r="AF30" s="20"/>
+      <c r="AG30" s="20"/>
+      <c r="AH30" s="20"/>
+      <c r="AI30" s="20"/>
+      <c r="AJ30" s="20"/>
+      <c r="AK30" s="20"/>
+      <c r="AL30" s="20"/>
+      <c r="AM30" s="20"/>
+      <c r="AN30" s="20"/>
+      <c r="AO30" s="20"/>
+      <c r="AP30" s="20"/>
+      <c r="AQ30" s="20"/>
+      <c r="AR30" s="20"/>
+      <c r="AS30" s="20"/>
+      <c r="AT30" s="20"/>
+    </row>
+    <row r="31" spans="12:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="34"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="16"/>
+      <c r="AB31" s="20"/>
+      <c r="AD31" s="20"/>
+      <c r="AE31" s="20"/>
+      <c r="AF31" s="20"/>
+      <c r="AG31" s="20"/>
+      <c r="AH31" s="20"/>
+      <c r="AI31" s="20"/>
+      <c r="AJ31" s="20"/>
+      <c r="AK31" s="20"/>
+      <c r="AL31" s="20"/>
+      <c r="AM31" s="8"/>
+      <c r="AN31" s="7"/>
+      <c r="AO31" s="6"/>
+      <c r="AP31" s="6"/>
+      <c r="AQ31" s="6"/>
+      <c r="AR31" s="6"/>
+      <c r="AS31" s="16"/>
+      <c r="AT31" s="20"/>
+    </row>
+    <row r="32" spans="12:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="34"/>
+      <c r="S32" s="34"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="20"/>
+      <c r="AD32" s="20"/>
+      <c r="AE32" s="20"/>
+      <c r="AF32" s="20"/>
+      <c r="AG32" s="20"/>
+      <c r="AH32" s="20"/>
+      <c r="AI32" s="20"/>
+      <c r="AJ32" s="20"/>
+      <c r="AK32" s="20"/>
+      <c r="AL32" s="20"/>
+      <c r="AM32" s="5"/>
+      <c r="AS32" s="5"/>
+      <c r="AT32" s="20"/>
+    </row>
+    <row r="33" spans="12:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="34"/>
+      <c r="S33" s="34"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="20"/>
+      <c r="AD33" s="20"/>
+      <c r="AE33" s="20"/>
+      <c r="AF33" s="20"/>
+      <c r="AG33" s="20"/>
+      <c r="AH33" s="20"/>
+      <c r="AI33" s="20"/>
+      <c r="AJ33" s="20"/>
+      <c r="AK33" s="20"/>
+      <c r="AL33" s="20"/>
+      <c r="AM33" s="5"/>
+      <c r="AS33" s="5"/>
+      <c r="AT33" s="20"/>
+    </row>
+    <row r="34" spans="12:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="34"/>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="34"/>
+      <c r="S34" s="34"/>
+      <c r="T34" s="20"/>
+      <c r="U34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="20"/>
+      <c r="AD34" s="20"/>
+      <c r="AE34" s="20"/>
+      <c r="AF34" s="20"/>
+      <c r="AG34" s="20"/>
+      <c r="AH34" s="20"/>
+      <c r="AI34" s="20"/>
+      <c r="AJ34" s="20"/>
+      <c r="AK34" s="20"/>
+      <c r="AL34" s="20"/>
+      <c r="AM34" s="5"/>
+      <c r="AS34" s="5"/>
+      <c r="AT34" s="20"/>
+    </row>
+    <row r="35" spans="12:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="34"/>
+      <c r="P35" s="34"/>
+      <c r="Q35" s="34"/>
+      <c r="R35" s="34"/>
+      <c r="S35" s="34"/>
+      <c r="T35" s="20"/>
+      <c r="U35" s="5"/>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="20"/>
+      <c r="AD35" s="20"/>
+      <c r="AE35" s="20"/>
+      <c r="AF35" s="20"/>
+      <c r="AG35" s="20"/>
+      <c r="AH35" s="20"/>
+      <c r="AI35" s="20"/>
+      <c r="AJ35" s="20"/>
+      <c r="AK35" s="20"/>
+      <c r="AL35" s="20"/>
+      <c r="AM35" s="5"/>
+      <c r="AS35" s="5"/>
+      <c r="AT35" s="20"/>
+    </row>
+    <row r="36" spans="12:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L36" s="34"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="34"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="34"/>
+      <c r="Q36" s="34"/>
+      <c r="R36" s="34"/>
+      <c r="S36" s="34"/>
+      <c r="T36" s="20"/>
+      <c r="U36" s="5"/>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="20"/>
+      <c r="AD36" s="20"/>
+      <c r="AE36" s="20"/>
+      <c r="AF36" s="20"/>
+      <c r="AG36" s="20"/>
+      <c r="AH36" s="20"/>
+      <c r="AI36" s="20"/>
+      <c r="AJ36" s="20"/>
+      <c r="AK36" s="20"/>
+      <c r="AL36" s="20"/>
+      <c r="AM36" s="5"/>
+      <c r="AS36" s="5"/>
+      <c r="AT36" s="20"/>
+    </row>
+    <row r="37" spans="12:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="34"/>
+      <c r="R37" s="34"/>
+      <c r="S37" s="34"/>
+      <c r="T37" s="20"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="6"/>
+      <c r="Y37" s="6"/>
+      <c r="Z37" s="6"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="20"/>
+      <c r="AD37" s="20"/>
+      <c r="AE37" s="20"/>
+      <c r="AF37" s="20"/>
+      <c r="AG37" s="20"/>
+      <c r="AH37" s="20"/>
+      <c r="AI37" s="20"/>
+      <c r="AJ37" s="20"/>
+      <c r="AK37" s="20"/>
+      <c r="AL37" s="20"/>
+      <c r="AM37" s="9"/>
+      <c r="AN37" s="7"/>
+      <c r="AO37" s="6"/>
+      <c r="AP37" s="6"/>
+      <c r="AQ37" s="6"/>
+      <c r="AR37" s="6"/>
+      <c r="AS37" s="1"/>
+      <c r="AT37" s="20"/>
+    </row>
+    <row r="38" spans="12:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L38" s="34"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="35"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="35"/>
+      <c r="R38" s="35"/>
+      <c r="S38" s="35"/>
+      <c r="T38" s="21"/>
+      <c r="U38" s="21"/>
+      <c r="V38" s="21"/>
+      <c r="W38" s="21"/>
+      <c r="X38" s="21"/>
+      <c r="Y38" s="21"/>
+      <c r="Z38" s="21"/>
+      <c r="AA38" s="21"/>
+      <c r="AB38" s="20"/>
+      <c r="AD38" s="20"/>
+      <c r="AE38" s="21"/>
+      <c r="AF38" s="21"/>
+      <c r="AG38" s="21"/>
+      <c r="AH38" s="21"/>
+      <c r="AI38" s="21"/>
+      <c r="AJ38" s="21"/>
+      <c r="AK38" s="21"/>
+      <c r="AL38" s="21"/>
+      <c r="AM38" s="21"/>
+      <c r="AN38" s="21"/>
+      <c r="AO38" s="21"/>
+      <c r="AP38" s="21"/>
+      <c r="AQ38" s="21"/>
+      <c r="AR38" s="21"/>
+      <c r="AS38" s="21"/>
+      <c r="AT38" s="20"/>
+    </row>
+    <row r="39" spans="12:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AB39" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="43">
+    <mergeCell ref="AE22:AS22"/>
+    <mergeCell ref="AT22:AT38"/>
+    <mergeCell ref="AE30:AL30"/>
+    <mergeCell ref="AL31:AL37"/>
+    <mergeCell ref="AL23:AL29"/>
+    <mergeCell ref="AM30:AS30"/>
+    <mergeCell ref="AD22:AD38"/>
+    <mergeCell ref="AE38:AS38"/>
+    <mergeCell ref="AE31:AK37"/>
+    <mergeCell ref="AM23:AS29"/>
+    <mergeCell ref="L22:L30"/>
+    <mergeCell ref="M22:AA22"/>
+    <mergeCell ref="AB22:AB38"/>
+    <mergeCell ref="M30:T30"/>
+    <mergeCell ref="T31:T37"/>
+    <mergeCell ref="T38:AA38"/>
+    <mergeCell ref="T23:T29"/>
+    <mergeCell ref="U30:AA30"/>
     <mergeCell ref="AB12:AB20"/>
     <mergeCell ref="M20:AA20"/>
     <mergeCell ref="AD12:AD20"/>
     <mergeCell ref="AT12:AT20"/>
     <mergeCell ref="AE12:AS12"/>
     <mergeCell ref="AE20:AS20"/>
+    <mergeCell ref="T13:T19"/>
+    <mergeCell ref="AL13:AL19"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="L2:R2"/>
     <mergeCell ref="M12:AA12"/>

--- a/Documents/PartyBall/PartyBall'sStages.xlsx
+++ b/Documents/PartyBall/PartyBall'sStages.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsh39\OneDrive\project\Jagu_Agis\Documents\PartyBall\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03ad4a8e8f7310f3/project/Project_Agis/Jagu_Agis/Documents/PartyBall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15BA074-0272-4DDC-8148-B36F74C9D3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="127" documentId="13_ncr:1_{B15BA074-0272-4DDC-8148-B36F74C9D3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1B43533-E246-42B1-894E-CE6F3864B825}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6654ADE8-FED1-4A0B-8F79-39BD6602AA37}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{6654ADE8-FED1-4A0B-8F79-39BD6602AA37}"/>
   </bookViews>
   <sheets>
     <sheet name="DataBase" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>셀 경계</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,12 +87,24 @@
     <t>Stage5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Stage6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>∞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +123,24 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -144,7 +174,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -451,13 +481,115 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -519,9 +651,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -560,10 +692,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -792,15 +987,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>23854</xdr:colOff>
+      <xdr:colOff>35060</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>36111</xdr:rowOff>
+      <xdr:rowOff>13699</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>214354</xdr:colOff>
+      <xdr:colOff>225560</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>226611</xdr:rowOff>
+      <xdr:rowOff>204199</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -815,7 +1010,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5417489" y="1705885"/>
+          <a:off x="8663589" y="1582523"/>
           <a:ext cx="190500" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -930,13 +1125,13 @@
       <xdr:col>40</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>29484</xdr:rowOff>
+      <xdr:rowOff>7072</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>219984</xdr:rowOff>
+      <xdr:rowOff>197572</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -951,7 +1146,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6649941" y="1222180"/>
+          <a:off x="9891656" y="1127660"/>
           <a:ext cx="190500" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1131,15 +1326,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>53</xdr:col>
       <xdr:colOff>26504</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>26504</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>53</xdr:col>
       <xdr:colOff>209384</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>209384</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1199,15 +1394,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>57</xdr:col>
       <xdr:colOff>26504</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>26504</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>57</xdr:col>
       <xdr:colOff>209384</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>209384</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1267,15 +1462,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>52</xdr:col>
       <xdr:colOff>26503</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>26507</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>52</xdr:col>
       <xdr:colOff>217003</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>217007</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1335,15 +1530,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>61</xdr:col>
       <xdr:colOff>26504</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>26504</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>61</xdr:col>
       <xdr:colOff>217004</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>217004</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1403,84 +1598,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>24164</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>24166</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>26094</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>6975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>207044</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>207046</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="타원 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFA38111-303D-4220-A288-7232D0E0C3BC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7527623" y="3520401"/>
-          <a:ext cx="182880" cy="182880"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B0F0"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>14889</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>18181</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>205389</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>208681</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>216594</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>197475</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1495,7 +1622,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7518348" y="3048252"/>
+          <a:off x="4217094" y="3816975"/>
           <a:ext cx="190500" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1539,13 +1666,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>15200</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>19879</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>198080</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>202759</xdr:rowOff>
@@ -1607,13 +1734,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>21515</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>20518</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>212015</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>211018</xdr:rowOff>
@@ -1675,15 +1802,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>33129</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>24167</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>216009</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>207047</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1743,16 +1870,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>32819</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>27147</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>32818</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>15941</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>223319</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>217647</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>223318</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>206441</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1767,7 +1894,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3179431" y="5621123"/>
+          <a:off x="8168289" y="3153588"/>
           <a:ext cx="190500" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1811,15 +1938,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>15200</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>19879</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>198080</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>202759</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1879,15 +2006,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>21515</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>20518</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>212015</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>211018</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1947,15 +2074,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>15200</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>19879</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>198080</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>202759</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2015,15 +2142,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>39444</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>20518</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>229944</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>211018</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2083,15 +2210,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
+      <xdr:col>53</xdr:col>
       <xdr:colOff>33130</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>24167</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>53</xdr:col>
       <xdr:colOff>216010</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>207047</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2151,15 +2278,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
+      <xdr:col>49</xdr:col>
       <xdr:colOff>23855</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>18182</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>49</xdr:col>
       <xdr:colOff>214355</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>208682</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2219,15 +2346,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
+      <xdr:col>57</xdr:col>
       <xdr:colOff>6235</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>28843</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
+      <xdr:col>57</xdr:col>
       <xdr:colOff>189115</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>211723</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2287,15 +2414,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>61</xdr:col>
       <xdr:colOff>21515</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>20518</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>61</xdr:col>
       <xdr:colOff>212015</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>211018</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2312,6 +2439,618 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10429539" y="8178400"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>37612</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19878</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>220492</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>202758</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="타원 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2B20864-C79C-4B99-9632-F28EE507BB67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3735553" y="5174584"/>
+          <a:ext cx="182880" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>21516</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>20519</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>212016</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>211019</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="사각형: 둥근 모서리 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97CBFF07-CF90-4797-863A-14F134BC1F6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3719457" y="5623460"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>26405</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>19879</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>209285</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>202759</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="타원 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83E95F2B-024C-4F28-A6C6-04C70C4F1427}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3970876" y="7863997"/>
+          <a:ext cx="182880" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28235</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>20516</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>218735</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>211016</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="사각형: 둥근 모서리 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08F292CD-815C-446A-815A-03AD16E11C8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3972706" y="7416398"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>22413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>216498</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>205293</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="타원 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFE7BAD2-29C9-4C1E-B22C-C92881EE0AFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3238500" y="2935942"/>
+          <a:ext cx="182880" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>26405</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>42290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>209285</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1052</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="타원 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F297A486-E37C-41B0-AB98-D049E79FA0CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5943111" y="6093466"/>
+          <a:ext cx="182880" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>21516</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>42931</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>212016</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9313</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="사각형: 둥근 모서리 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6CB831D-EBF4-4A7E-9D82-A4BB55085066}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5445163" y="5645872"/>
+          <a:ext cx="190500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>26405</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>19879</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>209285</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>202759</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="타원 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A9EDFD9-E527-4656-AE0B-38FC8A67FFAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3970876" y="7863997"/>
+          <a:ext cx="182880" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>17029</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>222222</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>207529</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>188604</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="사각형: 둥근 모서리 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2E27BF0-A3A5-4D25-959F-340B4F60B6CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5440676" y="7169869"/>
           <a:ext cx="190500" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2653,16 +3392,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F014CC21-94BA-4A4A-B0AC-D9B5269E619A}">
-  <dimension ref="B1:AT39"/>
+  <dimension ref="B1:BL39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AZ30" sqref="AZ30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AG33" sqref="AG33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:46" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:46" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:64" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:64" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="22" t="s">
         <v>3</v>
       </c>
@@ -2673,47 +3412,66 @@
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
       <c r="I2" s="24"/>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="21" t="s">
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="20"/>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="21" t="s">
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="36"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="21"/>
-      <c r="AL2" s="21"/>
-      <c r="AM2" s="21"/>
-      <c r="AN2" s="21"/>
-      <c r="AO2" s="21"/>
-      <c r="AP2" s="21"/>
-      <c r="AQ2" s="21"/>
-      <c r="AR2" s="21"/>
-      <c r="AS2" s="21"/>
-      <c r="AT2" s="20"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="35"/>
+      <c r="AN2" s="35"/>
+      <c r="AO2" s="35"/>
+      <c r="AP2" s="35"/>
+      <c r="AQ2" s="35"/>
+      <c r="AR2" s="35"/>
+      <c r="AS2" s="35"/>
+      <c r="AT2" s="36"/>
+      <c r="AV2" s="34"/>
+      <c r="AW2" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="AX2" s="35"/>
+      <c r="AY2" s="35"/>
+      <c r="AZ2" s="35"/>
+      <c r="BA2" s="35"/>
+      <c r="BB2" s="35"/>
+      <c r="BC2" s="35"/>
+      <c r="BD2" s="35"/>
+      <c r="BE2" s="35"/>
+      <c r="BF2" s="35"/>
+      <c r="BG2" s="35"/>
+      <c r="BH2" s="35"/>
+      <c r="BI2" s="35"/>
+      <c r="BJ2" s="35"/>
+      <c r="BK2" s="35"/>
+      <c r="BL2" s="36"/>
     </row>
-    <row r="3" spans="2:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
         <v>9</v>
       </c>
@@ -2732,7 +3490,7 @@
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="16"/>
-      <c r="T3" s="20"/>
+      <c r="T3" s="37"/>
       <c r="U3" s="8"/>
       <c r="V3" s="7"/>
       <c r="W3" s="6"/>
@@ -2740,8 +3498,8 @@
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
       <c r="AA3" s="16"/>
-      <c r="AB3" s="20"/>
-      <c r="AD3" s="20"/>
+      <c r="AB3" s="39"/>
+      <c r="AD3" s="37"/>
       <c r="AE3" s="8"/>
       <c r="AF3" s="7"/>
       <c r="AG3" s="6"/>
@@ -2749,6 +3507,7 @@
       <c r="AI3" s="6"/>
       <c r="AJ3" s="6"/>
       <c r="AK3" s="16"/>
+      <c r="AL3" s="17"/>
       <c r="AM3" s="8"/>
       <c r="AN3" s="7"/>
       <c r="AO3" s="6"/>
@@ -2756,9 +3515,26 @@
       <c r="AQ3" s="6"/>
       <c r="AR3" s="6"/>
       <c r="AS3" s="16"/>
-      <c r="AT3" s="20"/>
+      <c r="AT3" s="39"/>
+      <c r="AV3" s="37"/>
+      <c r="AW3" s="8"/>
+      <c r="AX3" s="7"/>
+      <c r="AY3" s="6"/>
+      <c r="AZ3" s="6"/>
+      <c r="BA3" s="6"/>
+      <c r="BB3" s="6"/>
+      <c r="BC3" s="16"/>
+      <c r="BD3" s="38"/>
+      <c r="BE3" s="8"/>
+      <c r="BF3" s="7"/>
+      <c r="BG3" s="6"/>
+      <c r="BH3" s="6"/>
+      <c r="BI3" s="6"/>
+      <c r="BJ3" s="6"/>
+      <c r="BK3" s="16"/>
+      <c r="BL3" s="39"/>
     </row>
-    <row r="4" spans="2:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="28"/>
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
@@ -2770,108 +3546,224 @@
       <c r="J4" s="17"/>
       <c r="L4" s="5"/>
       <c r="R4" s="5"/>
-      <c r="T4" s="20"/>
+      <c r="T4" s="37"/>
       <c r="U4" s="5"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
       <c r="AA4" s="5"/>
-      <c r="AB4" s="20"/>
-      <c r="AD4" s="20"/>
+      <c r="AB4" s="39"/>
+      <c r="AD4" s="37"/>
       <c r="AE4" s="5"/>
+      <c r="AF4" s="17"/>
+      <c r="AG4" s="17"/>
+      <c r="AH4" s="17"/>
+      <c r="AI4" s="17"/>
+      <c r="AJ4" s="17"/>
       <c r="AK4" s="5"/>
+      <c r="AL4" s="17"/>
       <c r="AM4" s="5"/>
+      <c r="AN4" s="17"/>
+      <c r="AO4" s="17"/>
+      <c r="AP4" s="17"/>
+      <c r="AQ4" s="17"/>
+      <c r="AR4" s="17"/>
       <c r="AS4" s="5"/>
-      <c r="AT4" s="20"/>
+      <c r="AT4" s="39"/>
+      <c r="AV4" s="37"/>
+      <c r="AW4" s="5"/>
+      <c r="AX4" s="40"/>
+      <c r="AY4" s="40"/>
+      <c r="AZ4" s="40"/>
+      <c r="BA4" s="17"/>
+      <c r="BB4" s="17"/>
+      <c r="BC4" s="5"/>
+      <c r="BD4" s="38"/>
+      <c r="BE4" s="5"/>
+      <c r="BF4" s="17"/>
+      <c r="BG4" s="17"/>
+      <c r="BH4" s="17"/>
+      <c r="BI4" s="17"/>
+      <c r="BJ4" s="17"/>
+      <c r="BK4" s="5"/>
+      <c r="BL4" s="39"/>
     </row>
-    <row r="5" spans="2:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
       <c r="H5" s="33"/>
       <c r="I5" s="4"/>
       <c r="J5" s="17"/>
       <c r="L5" s="5"/>
       <c r="R5" s="5"/>
-      <c r="T5" s="20"/>
+      <c r="T5" s="37"/>
       <c r="U5" s="5"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="40"/>
+      <c r="Y5" s="40"/>
+      <c r="Z5" s="17"/>
       <c r="AA5" s="5"/>
-      <c r="AB5" s="20"/>
-      <c r="AD5" s="20"/>
+      <c r="AB5" s="39"/>
+      <c r="AD5" s="37"/>
       <c r="AE5" s="5"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
+      <c r="AF5" s="40"/>
+      <c r="AG5" s="40"/>
+      <c r="AH5" s="40"/>
+      <c r="AI5" s="40"/>
+      <c r="AJ5" s="17"/>
       <c r="AK5" s="5"/>
+      <c r="AL5" s="17"/>
       <c r="AM5" s="5"/>
-      <c r="AN5" s="2"/>
-      <c r="AO5" s="2"/>
-      <c r="AP5" s="2"/>
-      <c r="AQ5" s="2"/>
+      <c r="AN5" s="40"/>
+      <c r="AO5" s="40"/>
+      <c r="AP5" s="40"/>
+      <c r="AQ5" s="40"/>
+      <c r="AR5" s="17"/>
       <c r="AS5" s="5"/>
-      <c r="AT5" s="20"/>
+      <c r="AT5" s="39"/>
+      <c r="AV5" s="37"/>
+      <c r="AW5" s="5"/>
+      <c r="AX5" s="40"/>
+      <c r="AY5" s="40"/>
+      <c r="AZ5" s="40"/>
+      <c r="BA5" s="17"/>
+      <c r="BB5" s="17"/>
+      <c r="BC5" s="5"/>
+      <c r="BD5" s="38"/>
+      <c r="BE5" s="5"/>
+      <c r="BF5" s="40"/>
+      <c r="BG5" s="40"/>
+      <c r="BH5" s="40"/>
+      <c r="BI5" s="40"/>
+      <c r="BJ5" s="17"/>
+      <c r="BK5" s="5"/>
+      <c r="BL5" s="39"/>
     </row>
-    <row r="6" spans="2:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
       <c r="H6" s="33"/>
       <c r="I6" s="4"/>
       <c r="J6" s="17"/>
       <c r="L6" s="5"/>
       <c r="R6" s="5"/>
-      <c r="T6" s="20"/>
+      <c r="T6" s="37"/>
       <c r="U6" s="5"/>
-      <c r="Y6" s="2"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="17"/>
       <c r="AA6" s="5"/>
-      <c r="AB6" s="20"/>
-      <c r="AD6" s="20"/>
+      <c r="AB6" s="39"/>
+      <c r="AD6" s="37"/>
       <c r="AE6" s="5"/>
+      <c r="AF6" s="17"/>
+      <c r="AG6" s="17"/>
+      <c r="AH6" s="17"/>
+      <c r="AI6" s="17"/>
+      <c r="AJ6" s="17"/>
       <c r="AK6" s="5"/>
+      <c r="AL6" s="17"/>
       <c r="AM6" s="5"/>
+      <c r="AN6" s="17"/>
+      <c r="AO6" s="17"/>
+      <c r="AP6" s="17"/>
+      <c r="AQ6" s="17"/>
+      <c r="AR6" s="17"/>
       <c r="AS6" s="5"/>
-      <c r="AT6" s="20"/>
+      <c r="AT6" s="39"/>
+      <c r="AV6" s="37"/>
+      <c r="AW6" s="5"/>
+      <c r="AX6" s="40"/>
+      <c r="AY6" s="40"/>
+      <c r="AZ6" s="40"/>
+      <c r="BA6" s="17"/>
+      <c r="BB6" s="17"/>
+      <c r="BC6" s="5"/>
+      <c r="BD6" s="38"/>
+      <c r="BE6" s="5"/>
+      <c r="BF6" s="17"/>
+      <c r="BG6" s="17"/>
+      <c r="BH6" s="17"/>
+      <c r="BI6" s="17"/>
+      <c r="BJ6" s="17"/>
+      <c r="BK6" s="5"/>
+      <c r="BL6" s="39"/>
     </row>
-    <row r="7" spans="2:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
       <c r="H7" s="33"/>
       <c r="I7" s="4"/>
       <c r="J7" s="17"/>
       <c r="L7" s="5"/>
       <c r="R7" s="5"/>
-      <c r="T7" s="20"/>
+      <c r="T7" s="37"/>
       <c r="U7" s="5"/>
-      <c r="W7" s="2"/>
-      <c r="Y7" s="2"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="17"/>
       <c r="AA7" s="5"/>
-      <c r="AB7" s="20"/>
-      <c r="AD7" s="20"/>
+      <c r="AB7" s="39"/>
+      <c r="AD7" s="37"/>
       <c r="AE7" s="5"/>
+      <c r="AF7" s="17"/>
+      <c r="AG7" s="17"/>
+      <c r="AH7" s="17"/>
+      <c r="AI7" s="17"/>
+      <c r="AJ7" s="17"/>
       <c r="AK7" s="5"/>
+      <c r="AL7" s="17"/>
       <c r="AM7" s="5"/>
-      <c r="AO7" s="2"/>
-      <c r="AP7" s="2"/>
-      <c r="AQ7" s="2"/>
+      <c r="AN7" s="17"/>
+      <c r="AO7" s="40"/>
+      <c r="AP7" s="40"/>
+      <c r="AQ7" s="40"/>
+      <c r="AR7" s="17"/>
       <c r="AS7" s="5"/>
-      <c r="AT7" s="20"/>
+      <c r="AT7" s="39"/>
+      <c r="AV7" s="37"/>
+      <c r="AW7" s="5"/>
+      <c r="AX7" s="40"/>
+      <c r="AY7" s="40"/>
+      <c r="AZ7" s="40"/>
+      <c r="BA7" s="40"/>
+      <c r="BB7" s="17"/>
+      <c r="BC7" s="5"/>
+      <c r="BD7" s="38"/>
+      <c r="BE7" s="5"/>
+      <c r="BF7" s="40"/>
+      <c r="BG7" s="40"/>
+      <c r="BH7" s="17"/>
+      <c r="BI7" s="40"/>
+      <c r="BJ7" s="40"/>
+      <c r="BK7" s="5"/>
+      <c r="BL7" s="39"/>
     </row>
-    <row r="8" spans="2:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="D8" s="31" t="s">
         <v>2</v>
@@ -2884,20 +3776,51 @@
       <c r="J8" s="17"/>
       <c r="L8" s="5"/>
       <c r="R8" s="5"/>
-      <c r="T8" s="20"/>
+      <c r="T8" s="37"/>
       <c r="U8" s="5"/>
-      <c r="W8" s="2"/>
-      <c r="Y8" s="2"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="40"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="40"/>
+      <c r="Z8" s="17"/>
       <c r="AA8" s="5"/>
-      <c r="AB8" s="20"/>
-      <c r="AD8" s="20"/>
+      <c r="AB8" s="39"/>
+      <c r="AD8" s="37"/>
       <c r="AE8" s="5"/>
+      <c r="AF8" s="17"/>
+      <c r="AG8" s="17"/>
+      <c r="AH8" s="17"/>
+      <c r="AI8" s="17"/>
+      <c r="AJ8" s="17"/>
       <c r="AK8" s="5"/>
+      <c r="AL8" s="17"/>
       <c r="AM8" s="5"/>
+      <c r="AN8" s="17"/>
+      <c r="AO8" s="17"/>
+      <c r="AP8" s="17"/>
+      <c r="AQ8" s="17"/>
+      <c r="AR8" s="17"/>
       <c r="AS8" s="5"/>
-      <c r="AT8" s="20"/>
+      <c r="AT8" s="39"/>
+      <c r="AV8" s="37"/>
+      <c r="AW8" s="5"/>
+      <c r="AX8" s="40"/>
+      <c r="AY8" s="40"/>
+      <c r="AZ8" s="40"/>
+      <c r="BA8" s="40"/>
+      <c r="BB8" s="17"/>
+      <c r="BC8" s="5"/>
+      <c r="BD8" s="38"/>
+      <c r="BE8" s="5"/>
+      <c r="BF8" s="17"/>
+      <c r="BG8" s="17"/>
+      <c r="BH8" s="17"/>
+      <c r="BI8" s="17"/>
+      <c r="BJ8" s="17"/>
+      <c r="BK8" s="5"/>
+      <c r="BL8" s="39"/>
     </row>
-    <row r="9" spans="2:46" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:64" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
@@ -2914,33 +3837,51 @@
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="1"/>
-      <c r="T9" s="20"/>
+      <c r="T9" s="37"/>
       <c r="U9" s="9"/>
       <c r="V9" s="7"/>
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="20"/>
-      <c r="AD9" s="20"/>
+      <c r="AA9" s="41"/>
+      <c r="AB9" s="39"/>
+      <c r="AD9" s="37"/>
       <c r="AE9" s="9"/>
       <c r="AF9" s="7"/>
       <c r="AG9" s="6"/>
       <c r="AH9" s="6"/>
       <c r="AI9" s="6"/>
       <c r="AJ9" s="6"/>
-      <c r="AK9" s="1"/>
+      <c r="AK9" s="41"/>
+      <c r="AL9" s="17"/>
       <c r="AM9" s="9"/>
       <c r="AN9" s="7"/>
       <c r="AO9" s="6"/>
       <c r="AP9" s="6"/>
       <c r="AQ9" s="6"/>
       <c r="AR9" s="6"/>
-      <c r="AS9" s="1"/>
-      <c r="AT9" s="20"/>
+      <c r="AS9" s="41"/>
+      <c r="AT9" s="39"/>
+      <c r="AV9" s="37"/>
+      <c r="AW9" s="9"/>
+      <c r="AX9" s="7"/>
+      <c r="AY9" s="6"/>
+      <c r="AZ9" s="6"/>
+      <c r="BA9" s="6"/>
+      <c r="BB9" s="6"/>
+      <c r="BC9" s="41"/>
+      <c r="BD9" s="38"/>
+      <c r="BE9" s="9"/>
+      <c r="BF9" s="7"/>
+      <c r="BG9" s="6"/>
+      <c r="BH9" s="6"/>
+      <c r="BI9" s="6"/>
+      <c r="BJ9" s="6"/>
+      <c r="BK9" s="41"/>
+      <c r="BL9" s="39"/>
     </row>
-    <row r="10" spans="2:46" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:64" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -2949,75 +3890,118 @@
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
       <c r="I10" s="12"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="20"/>
-      <c r="AB10" s="20"/>
-      <c r="AD10" s="20"/>
-      <c r="AE10" s="20"/>
-      <c r="AF10" s="20"/>
-      <c r="AG10" s="20"/>
-      <c r="AH10" s="20"/>
-      <c r="AI10" s="20"/>
-      <c r="AJ10" s="20"/>
-      <c r="AK10" s="20"/>
-      <c r="AL10" s="20"/>
-      <c r="AM10" s="20"/>
-      <c r="AN10" s="20"/>
-      <c r="AO10" s="20"/>
-      <c r="AP10" s="20"/>
-      <c r="AQ10" s="20"/>
-      <c r="AR10" s="20"/>
-      <c r="AS10" s="20"/>
-      <c r="AT10" s="20"/>
+      <c r="T10" s="44"/>
+      <c r="U10" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="V10" s="47"/>
+      <c r="W10" s="47"/>
+      <c r="X10" s="47"/>
+      <c r="Y10" s="47"/>
+      <c r="Z10" s="47"/>
+      <c r="AA10" s="47"/>
+      <c r="AB10" s="43"/>
+      <c r="AD10" s="44"/>
+      <c r="AE10" s="50">
+        <v>2</v>
+      </c>
+      <c r="AF10" s="50"/>
+      <c r="AG10" s="50"/>
+      <c r="AH10" s="50"/>
+      <c r="AI10" s="50"/>
+      <c r="AJ10" s="50"/>
+      <c r="AK10" s="50"/>
+      <c r="AL10" s="50"/>
+      <c r="AM10" s="50"/>
+      <c r="AN10" s="50"/>
+      <c r="AO10" s="50"/>
+      <c r="AP10" s="50"/>
+      <c r="AQ10" s="50"/>
+      <c r="AR10" s="50"/>
+      <c r="AS10" s="50"/>
+      <c r="AT10" s="43"/>
+      <c r="AV10" s="44"/>
+      <c r="AW10" s="50">
+        <v>5</v>
+      </c>
+      <c r="AX10" s="50"/>
+      <c r="AY10" s="50"/>
+      <c r="AZ10" s="50"/>
+      <c r="BA10" s="50"/>
+      <c r="BB10" s="50"/>
+      <c r="BC10" s="50"/>
+      <c r="BD10" s="50"/>
+      <c r="BE10" s="50"/>
+      <c r="BF10" s="50"/>
+      <c r="BG10" s="50"/>
+      <c r="BH10" s="50"/>
+      <c r="BI10" s="50"/>
+      <c r="BJ10" s="50"/>
+      <c r="BK10" s="50"/>
+      <c r="BL10" s="43"/>
     </row>
-    <row r="12" spans="2:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L12" s="20"/>
-      <c r="M12" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="21"/>
-      <c r="Z12" s="21"/>
-      <c r="AA12" s="21"/>
-      <c r="AB12" s="20"/>
-      <c r="AD12" s="20"/>
-      <c r="AE12" s="21" t="s">
+    <row r="11" spans="2:64" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="2:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L12" s="34"/>
+      <c r="M12" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="AF12" s="21"/>
-      <c r="AG12" s="21"/>
-      <c r="AH12" s="21"/>
-      <c r="AI12" s="21"/>
-      <c r="AJ12" s="21"/>
-      <c r="AK12" s="21"/>
-      <c r="AL12" s="21"/>
-      <c r="AM12" s="21"/>
-      <c r="AN12" s="21"/>
-      <c r="AO12" s="21"/>
-      <c r="AP12" s="21"/>
-      <c r="AQ12" s="21"/>
-      <c r="AR12" s="21"/>
-      <c r="AS12" s="21"/>
-      <c r="AT12" s="20"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="35"/>
+      <c r="AA12" s="35"/>
+      <c r="AB12" s="36"/>
+      <c r="AD12" s="34"/>
+      <c r="AE12" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF12" s="35"/>
+      <c r="AG12" s="35"/>
+      <c r="AH12" s="35"/>
+      <c r="AI12" s="35"/>
+      <c r="AJ12" s="35"/>
+      <c r="AK12" s="35"/>
+      <c r="AL12" s="35"/>
+      <c r="AM12" s="35"/>
+      <c r="AN12" s="35"/>
+      <c r="AO12" s="35"/>
+      <c r="AP12" s="35"/>
+      <c r="AQ12" s="35"/>
+      <c r="AR12" s="35"/>
+      <c r="AS12" s="35"/>
+      <c r="AT12" s="36"/>
+      <c r="AV12" s="34"/>
+      <c r="AW12" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX12" s="35"/>
+      <c r="AY12" s="35"/>
+      <c r="AZ12" s="35"/>
+      <c r="BA12" s="35"/>
+      <c r="BB12" s="35"/>
+      <c r="BC12" s="35"/>
+      <c r="BD12" s="35"/>
+      <c r="BE12" s="35"/>
+      <c r="BF12" s="35"/>
+      <c r="BG12" s="35"/>
+      <c r="BH12" s="35"/>
+      <c r="BI12" s="35"/>
+      <c r="BJ12" s="35"/>
+      <c r="BK12" s="35"/>
+      <c r="BL12" s="36"/>
     </row>
-    <row r="13" spans="2:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L13" s="20"/>
+    <row r="13" spans="2:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L13" s="37"/>
       <c r="M13" s="8"/>
       <c r="N13" s="7"/>
       <c r="O13" s="6"/>
@@ -3025,7 +4009,7 @@
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="16"/>
-      <c r="T13" s="20"/>
+      <c r="T13" s="38"/>
       <c r="U13" s="8"/>
       <c r="V13" s="7"/>
       <c r="W13" s="6"/>
@@ -3033,8 +4017,8 @@
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
       <c r="AA13" s="16"/>
-      <c r="AB13" s="20"/>
-      <c r="AD13" s="20"/>
+      <c r="AB13" s="39"/>
+      <c r="AD13" s="37"/>
       <c r="AE13" s="8"/>
       <c r="AF13" s="7"/>
       <c r="AG13" s="6"/>
@@ -3042,7 +4026,7 @@
       <c r="AI13" s="6"/>
       <c r="AJ13" s="6"/>
       <c r="AK13" s="16"/>
-      <c r="AL13" s="20"/>
+      <c r="AL13" s="38"/>
       <c r="AM13" s="8"/>
       <c r="AN13" s="7"/>
       <c r="AO13" s="6"/>
@@ -3050,243 +4034,502 @@
       <c r="AQ13" s="6"/>
       <c r="AR13" s="6"/>
       <c r="AS13" s="16"/>
-      <c r="AT13" s="20"/>
+      <c r="AT13" s="39"/>
+      <c r="AV13" s="37"/>
+      <c r="AW13" s="8"/>
+      <c r="AX13" s="7"/>
+      <c r="AY13" s="6"/>
+      <c r="AZ13" s="6"/>
+      <c r="BA13" s="6"/>
+      <c r="BB13" s="6"/>
+      <c r="BC13" s="16"/>
+      <c r="BD13" s="38"/>
+      <c r="BE13" s="38"/>
+      <c r="BF13" s="38"/>
+      <c r="BG13" s="38"/>
+      <c r="BH13" s="38"/>
+      <c r="BI13" s="38"/>
+      <c r="BJ13" s="38"/>
+      <c r="BK13" s="38"/>
+      <c r="BL13" s="39"/>
     </row>
-    <row r="14" spans="2:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L14" s="20"/>
+    <row r="14" spans="2:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L14" s="37"/>
       <c r="M14" s="5"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
       <c r="S14" s="5"/>
-      <c r="T14" s="20"/>
+      <c r="T14" s="38"/>
       <c r="U14" s="5"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
       <c r="AA14" s="5"/>
-      <c r="AB14" s="20"/>
-      <c r="AD14" s="20"/>
+      <c r="AB14" s="39"/>
+      <c r="AD14" s="37"/>
       <c r="AE14" s="5"/>
+      <c r="AF14" s="17"/>
+      <c r="AG14" s="17"/>
+      <c r="AH14" s="17"/>
+      <c r="AI14" s="17"/>
+      <c r="AJ14" s="17"/>
       <c r="AK14" s="5"/>
-      <c r="AL14" s="20"/>
+      <c r="AL14" s="38"/>
       <c r="AM14" s="5"/>
+      <c r="AN14" s="17"/>
+      <c r="AO14" s="17"/>
+      <c r="AP14" s="17"/>
+      <c r="AQ14" s="17"/>
+      <c r="AR14" s="17"/>
       <c r="AS14" s="5"/>
-      <c r="AT14" s="20"/>
+      <c r="AT14" s="39"/>
+      <c r="AV14" s="37"/>
+      <c r="AW14" s="5"/>
+      <c r="AX14" s="17"/>
+      <c r="AY14" s="40"/>
+      <c r="AZ14" s="17"/>
+      <c r="BA14" s="17"/>
+      <c r="BB14" s="17"/>
+      <c r="BC14" s="5"/>
+      <c r="BD14" s="38"/>
+      <c r="BE14" s="38"/>
+      <c r="BF14" s="38"/>
+      <c r="BG14" s="38"/>
+      <c r="BH14" s="38"/>
+      <c r="BI14" s="38"/>
+      <c r="BJ14" s="38"/>
+      <c r="BK14" s="38"/>
+      <c r="BL14" s="39"/>
     </row>
-    <row r="15" spans="2:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L15" s="20"/>
+    <row r="15" spans="2:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L15" s="37"/>
       <c r="M15" s="5"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="17"/>
       <c r="S15" s="5"/>
-      <c r="T15" s="20"/>
+      <c r="T15" s="38"/>
       <c r="U15" s="5"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="40"/>
       <c r="AA15" s="5"/>
-      <c r="AB15" s="20"/>
-      <c r="AD15" s="20"/>
+      <c r="AB15" s="39"/>
+      <c r="AD15" s="37"/>
       <c r="AE15" s="5"/>
-      <c r="AF15" s="2"/>
-      <c r="AG15" s="2"/>
-      <c r="AH15" s="2"/>
-      <c r="AI15" s="2"/>
+      <c r="AF15" s="17"/>
+      <c r="AG15" s="17"/>
+      <c r="AH15" s="17"/>
+      <c r="AI15" s="17"/>
+      <c r="AJ15" s="17"/>
       <c r="AK15" s="5"/>
-      <c r="AL15" s="20"/>
+      <c r="AL15" s="38"/>
       <c r="AM15" s="5"/>
-      <c r="AN15" s="2"/>
-      <c r="AO15" s="2"/>
-      <c r="AQ15" s="2"/>
-      <c r="AR15" s="2"/>
+      <c r="AN15" s="17"/>
+      <c r="AO15" s="17"/>
+      <c r="AP15" s="17"/>
+      <c r="AQ15" s="17"/>
+      <c r="AR15" s="17"/>
       <c r="AS15" s="5"/>
-      <c r="AT15" s="20"/>
+      <c r="AT15" s="39"/>
+      <c r="AV15" s="37"/>
+      <c r="AW15" s="5"/>
+      <c r="AX15" s="17"/>
+      <c r="AY15" s="40"/>
+      <c r="AZ15" s="17"/>
+      <c r="BA15" s="40"/>
+      <c r="BB15" s="17"/>
+      <c r="BC15" s="5"/>
+      <c r="BD15" s="38"/>
+      <c r="BE15" s="38"/>
+      <c r="BF15" s="38"/>
+      <c r="BG15" s="38"/>
+      <c r="BH15" s="38"/>
+      <c r="BI15" s="38"/>
+      <c r="BJ15" s="38"/>
+      <c r="BK15" s="38"/>
+      <c r="BL15" s="39"/>
     </row>
-    <row r="16" spans="2:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L16" s="20"/>
+    <row r="16" spans="2:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L16" s="37"/>
       <c r="M16" s="5"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
       <c r="S16" s="5"/>
-      <c r="T16" s="20"/>
+      <c r="T16" s="38"/>
       <c r="U16" s="5"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
       <c r="AA16" s="5"/>
-      <c r="AB16" s="20"/>
-      <c r="AD16" s="20"/>
+      <c r="AB16" s="39"/>
+      <c r="AD16" s="37"/>
       <c r="AE16" s="5"/>
+      <c r="AF16" s="40"/>
+      <c r="AG16" s="40"/>
+      <c r="AH16" s="40"/>
+      <c r="AI16" s="17"/>
+      <c r="AJ16" s="17"/>
       <c r="AK16" s="5"/>
-      <c r="AL16" s="20"/>
+      <c r="AL16" s="38"/>
       <c r="AM16" s="5"/>
+      <c r="AN16" s="17"/>
+      <c r="AO16" s="17"/>
+      <c r="AP16" s="40"/>
+      <c r="AQ16" s="40"/>
+      <c r="AR16" s="40"/>
       <c r="AS16" s="5"/>
-      <c r="AT16" s="20"/>
+      <c r="AT16" s="39"/>
+      <c r="AV16" s="37"/>
+      <c r="AW16" s="5"/>
+      <c r="AX16" s="17"/>
+      <c r="AY16" s="40"/>
+      <c r="AZ16" s="17"/>
+      <c r="BA16" s="40"/>
+      <c r="BB16" s="17"/>
+      <c r="BC16" s="5"/>
+      <c r="BD16" s="38"/>
+      <c r="BE16" s="38"/>
+      <c r="BF16" s="38"/>
+      <c r="BG16" s="38"/>
+      <c r="BH16" s="38"/>
+      <c r="BI16" s="38"/>
+      <c r="BJ16" s="38"/>
+      <c r="BK16" s="38"/>
+      <c r="BL16" s="39"/>
     </row>
-    <row r="17" spans="12:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L17" s="20"/>
+    <row r="17" spans="12:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L17" s="37"/>
       <c r="M17" s="5"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
       <c r="S17" s="5"/>
-      <c r="T17" s="20"/>
+      <c r="T17" s="38"/>
       <c r="U17" s="5"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
       <c r="AA17" s="5"/>
-      <c r="AB17" s="20"/>
-      <c r="AD17" s="20"/>
+      <c r="AB17" s="39"/>
+      <c r="AD17" s="37"/>
       <c r="AE17" s="5"/>
+      <c r="AF17" s="17"/>
+      <c r="AG17" s="17"/>
+      <c r="AH17" s="17"/>
+      <c r="AI17" s="17"/>
+      <c r="AJ17" s="17"/>
       <c r="AK17" s="5"/>
-      <c r="AL17" s="20"/>
+      <c r="AL17" s="38"/>
       <c r="AM17" s="5"/>
+      <c r="AN17" s="40"/>
+      <c r="AO17" s="17"/>
+      <c r="AP17" s="17"/>
+      <c r="AQ17" s="17"/>
+      <c r="AR17" s="17"/>
       <c r="AS17" s="5"/>
-      <c r="AT17" s="20"/>
+      <c r="AT17" s="39"/>
+      <c r="AV17" s="37"/>
+      <c r="AW17" s="5"/>
+      <c r="AX17" s="17"/>
+      <c r="AY17" s="40"/>
+      <c r="AZ17" s="17"/>
+      <c r="BA17" s="40"/>
+      <c r="BB17" s="17"/>
+      <c r="BC17" s="5"/>
+      <c r="BD17" s="38"/>
+      <c r="BE17" s="38"/>
+      <c r="BF17" s="38"/>
+      <c r="BG17" s="38"/>
+      <c r="BH17" s="38"/>
+      <c r="BI17" s="38"/>
+      <c r="BJ17" s="38"/>
+      <c r="BK17" s="38"/>
+      <c r="BL17" s="39"/>
     </row>
-    <row r="18" spans="12:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L18" s="20"/>
+    <row r="18" spans="12:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L18" s="37"/>
       <c r="M18" s="5"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
       <c r="S18" s="5"/>
-      <c r="T18" s="20"/>
+      <c r="T18" s="38"/>
       <c r="U18" s="5"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
       <c r="AA18" s="5"/>
-      <c r="AB18" s="20"/>
-      <c r="AD18" s="20"/>
+      <c r="AB18" s="39"/>
+      <c r="AD18" s="37"/>
       <c r="AE18" s="5"/>
+      <c r="AF18" s="17"/>
+      <c r="AG18" s="17"/>
+      <c r="AH18" s="17"/>
+      <c r="AI18" s="17"/>
+      <c r="AJ18" s="17"/>
       <c r="AK18" s="5"/>
-      <c r="AL18" s="20"/>
+      <c r="AL18" s="38"/>
       <c r="AM18" s="5"/>
+      <c r="AN18" s="17"/>
+      <c r="AO18" s="17"/>
+      <c r="AP18" s="17"/>
+      <c r="AQ18" s="17"/>
+      <c r="AR18" s="17"/>
       <c r="AS18" s="5"/>
-      <c r="AT18" s="20"/>
+      <c r="AT18" s="39"/>
+      <c r="AV18" s="37"/>
+      <c r="AW18" s="5"/>
+      <c r="AX18" s="17"/>
+      <c r="AY18" s="17"/>
+      <c r="AZ18" s="17"/>
+      <c r="BA18" s="40"/>
+      <c r="BB18" s="17"/>
+      <c r="BC18" s="5"/>
+      <c r="BD18" s="38"/>
+      <c r="BE18" s="38"/>
+      <c r="BF18" s="38"/>
+      <c r="BG18" s="38"/>
+      <c r="BH18" s="38"/>
+      <c r="BI18" s="38"/>
+      <c r="BJ18" s="38"/>
+      <c r="BK18" s="38"/>
+      <c r="BL18" s="39"/>
     </row>
-    <row r="19" spans="12:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L19" s="20"/>
+    <row r="19" spans="12:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L19" s="37"/>
       <c r="M19" s="9"/>
       <c r="N19" s="7"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="20"/>
+      <c r="S19" s="41"/>
+      <c r="T19" s="38"/>
       <c r="U19" s="9"/>
       <c r="V19" s="7"/>
       <c r="W19" s="6"/>
       <c r="X19" s="6"/>
       <c r="Y19" s="6"/>
       <c r="Z19" s="6"/>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="20"/>
-      <c r="AD19" s="20"/>
+      <c r="AA19" s="41"/>
+      <c r="AB19" s="39"/>
+      <c r="AD19" s="37"/>
       <c r="AE19" s="9"/>
       <c r="AF19" s="7"/>
       <c r="AG19" s="6"/>
       <c r="AH19" s="6"/>
       <c r="AI19" s="6"/>
       <c r="AJ19" s="6"/>
-      <c r="AK19" s="1"/>
-      <c r="AL19" s="20"/>
+      <c r="AK19" s="41"/>
+      <c r="AL19" s="38"/>
       <c r="AM19" s="9"/>
       <c r="AN19" s="7"/>
       <c r="AO19" s="6"/>
       <c r="AP19" s="6"/>
       <c r="AQ19" s="6"/>
       <c r="AR19" s="6"/>
-      <c r="AS19" s="1"/>
-      <c r="AT19" s="20"/>
+      <c r="AS19" s="41"/>
+      <c r="AT19" s="39"/>
+      <c r="AV19" s="37"/>
+      <c r="AW19" s="9"/>
+      <c r="AX19" s="7"/>
+      <c r="AY19" s="6"/>
+      <c r="AZ19" s="6"/>
+      <c r="BA19" s="6"/>
+      <c r="BB19" s="6"/>
+      <c r="BC19" s="41"/>
+      <c r="BD19" s="38"/>
+      <c r="BE19" s="38"/>
+      <c r="BF19" s="38"/>
+      <c r="BG19" s="38"/>
+      <c r="BH19" s="38"/>
+      <c r="BI19" s="38"/>
+      <c r="BJ19" s="38"/>
+      <c r="BK19" s="38"/>
+      <c r="BL19" s="39"/>
     </row>
-    <row r="20" spans="12:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="20"/>
-      <c r="V20" s="20"/>
-      <c r="W20" s="20"/>
-      <c r="X20" s="20"/>
-      <c r="Y20" s="20"/>
-      <c r="Z20" s="20"/>
-      <c r="AA20" s="20"/>
-      <c r="AB20" s="20"/>
-      <c r="AD20" s="20"/>
-      <c r="AE20" s="20"/>
-      <c r="AF20" s="20"/>
-      <c r="AG20" s="20"/>
-      <c r="AH20" s="20"/>
-      <c r="AI20" s="20"/>
-      <c r="AJ20" s="20"/>
-      <c r="AK20" s="20"/>
-      <c r="AL20" s="20"/>
-      <c r="AM20" s="20"/>
-      <c r="AN20" s="20"/>
-      <c r="AO20" s="20"/>
-      <c r="AP20" s="20"/>
-      <c r="AQ20" s="20"/>
-      <c r="AR20" s="20"/>
-      <c r="AS20" s="20"/>
-      <c r="AT20" s="20"/>
+    <row r="20" spans="12:64" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L20" s="44"/>
+      <c r="M20" s="50">
+        <v>3</v>
+      </c>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="50"/>
+      <c r="T20" s="50"/>
+      <c r="U20" s="50"/>
+      <c r="V20" s="50"/>
+      <c r="W20" s="50"/>
+      <c r="X20" s="50"/>
+      <c r="Y20" s="50"/>
+      <c r="Z20" s="50"/>
+      <c r="AA20" s="50"/>
+      <c r="AB20" s="43"/>
+      <c r="AD20" s="37"/>
+      <c r="AE20" s="38"/>
+      <c r="AF20" s="38"/>
+      <c r="AG20" s="38"/>
+      <c r="AH20" s="38"/>
+      <c r="AI20" s="38"/>
+      <c r="AJ20" s="38"/>
+      <c r="AK20" s="38"/>
+      <c r="AL20" s="38"/>
+      <c r="AM20" s="38"/>
+      <c r="AN20" s="38"/>
+      <c r="AO20" s="38"/>
+      <c r="AP20" s="38"/>
+      <c r="AQ20" s="38"/>
+      <c r="AR20" s="38"/>
+      <c r="AS20" s="38"/>
+      <c r="AT20" s="39"/>
+      <c r="AV20" s="37"/>
+      <c r="AW20" s="38"/>
+      <c r="AX20" s="38"/>
+      <c r="AY20" s="38"/>
+      <c r="AZ20" s="38"/>
+      <c r="BA20" s="38"/>
+      <c r="BB20" s="38"/>
+      <c r="BC20" s="38"/>
+      <c r="BD20" s="38"/>
+      <c r="BE20" s="38"/>
+      <c r="BF20" s="38"/>
+      <c r="BG20" s="38"/>
+      <c r="BH20" s="38"/>
+      <c r="BI20" s="38"/>
+      <c r="BJ20" s="38"/>
+      <c r="BK20" s="38"/>
+      <c r="BL20" s="39"/>
     </row>
-    <row r="22" spans="12:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L22" s="20"/>
-      <c r="M22" s="21" t="s">
-        <v>11</v>
+    <row r="21" spans="12:64" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="V21" s="51"/>
+      <c r="AD21" s="37"/>
+      <c r="AE21" s="42"/>
+      <c r="AF21" s="42"/>
+      <c r="AG21" s="42"/>
+      <c r="AH21" s="42"/>
+      <c r="AI21" s="42"/>
+      <c r="AJ21" s="42"/>
+      <c r="AK21" s="42"/>
+      <c r="AL21" s="38"/>
+      <c r="AM21" s="8"/>
+      <c r="AN21" s="7"/>
+      <c r="AO21" s="6"/>
+      <c r="AP21" s="6"/>
+      <c r="AQ21" s="6"/>
+      <c r="AR21" s="6"/>
+      <c r="AS21" s="16"/>
+      <c r="AT21" s="39"/>
+      <c r="AV21" s="37"/>
+      <c r="AW21" s="38"/>
+      <c r="AX21" s="38"/>
+      <c r="AY21" s="38"/>
+      <c r="AZ21" s="38"/>
+      <c r="BA21" s="38"/>
+      <c r="BB21" s="38"/>
+      <c r="BC21" s="38"/>
+      <c r="BD21" s="38"/>
+      <c r="BE21" s="8"/>
+      <c r="BF21" s="7"/>
+      <c r="BG21" s="6"/>
+      <c r="BH21" s="6"/>
+      <c r="BI21" s="6"/>
+      <c r="BJ21" s="6"/>
+      <c r="BK21" s="16"/>
+      <c r="BL21" s="39"/>
+    </row>
+    <row r="22" spans="12:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L22" s="45" t="s">
+        <v>13</v>
       </c>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="21"/>
-      <c r="W22" s="21"/>
-      <c r="X22" s="21"/>
-      <c r="Y22" s="21"/>
-      <c r="Z22" s="21"/>
-      <c r="AA22" s="21"/>
-      <c r="AB22" s="20"/>
-      <c r="AD22" s="20"/>
-      <c r="AE22" s="21" t="s">
-        <v>12</v>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="54"/>
+      <c r="U22" s="35" t="s">
+        <v>15</v>
       </c>
-      <c r="AF22" s="21"/>
-      <c r="AG22" s="21"/>
-      <c r="AH22" s="21"/>
-      <c r="AI22" s="21"/>
-      <c r="AJ22" s="21"/>
-      <c r="AK22" s="21"/>
-      <c r="AL22" s="21"/>
-      <c r="AM22" s="21"/>
-      <c r="AN22" s="21"/>
-      <c r="AO22" s="21"/>
-      <c r="AP22" s="21"/>
-      <c r="AQ22" s="21"/>
-      <c r="AR22" s="21"/>
-      <c r="AS22" s="21"/>
-      <c r="AT22" s="20"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="35"/>
+      <c r="Y22" s="35"/>
+      <c r="Z22" s="35"/>
+      <c r="AA22" s="35"/>
+      <c r="AB22" s="46"/>
+      <c r="AD22" s="37"/>
+      <c r="AE22" s="42"/>
+      <c r="AF22" s="42"/>
+      <c r="AG22" s="42"/>
+      <c r="AH22" s="42"/>
+      <c r="AI22" s="42"/>
+      <c r="AJ22" s="42"/>
+      <c r="AK22" s="42"/>
+      <c r="AL22" s="38"/>
+      <c r="AM22" s="5"/>
+      <c r="AN22" s="17"/>
+      <c r="AO22" s="17"/>
+      <c r="AP22" s="17"/>
+      <c r="AQ22" s="17"/>
+      <c r="AR22" s="17"/>
+      <c r="AS22" s="5"/>
+      <c r="AT22" s="39"/>
+      <c r="AV22" s="37"/>
+      <c r="AW22" s="38"/>
+      <c r="AX22" s="38"/>
+      <c r="AY22" s="38"/>
+      <c r="AZ22" s="38"/>
+      <c r="BA22" s="38"/>
+      <c r="BB22" s="38"/>
+      <c r="BC22" s="38"/>
+      <c r="BD22" s="38"/>
+      <c r="BE22" s="5"/>
+      <c r="BF22" s="17"/>
+      <c r="BG22" s="17"/>
+      <c r="BH22" s="17"/>
+      <c r="BI22" s="17"/>
+      <c r="BJ22" s="17"/>
+      <c r="BK22" s="5"/>
+      <c r="BL22" s="39"/>
     </row>
-    <row r="23" spans="12:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L23" s="20"/>
+    <row r="23" spans="12:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L23" s="37"/>
       <c r="M23" s="8"/>
       <c r="N23" s="7"/>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="20"/>
+      <c r="S23" s="53"/>
+      <c r="T23" s="55"/>
       <c r="U23" s="8"/>
       <c r="V23" s="7"/>
       <c r="W23" s="6"/>
@@ -3294,228 +4537,357 @@
       <c r="Y23" s="6"/>
       <c r="Z23" s="6"/>
       <c r="AA23" s="16"/>
-      <c r="AB23" s="20"/>
-      <c r="AD23" s="20"/>
-      <c r="AE23" s="8"/>
-      <c r="AF23" s="7"/>
-      <c r="AG23" s="6"/>
-      <c r="AH23" s="6"/>
-      <c r="AI23" s="6"/>
-      <c r="AJ23" s="6"/>
-      <c r="AK23" s="16"/>
-      <c r="AL23" s="20"/>
-      <c r="AM23" s="20"/>
-      <c r="AN23" s="20"/>
-      <c r="AO23" s="20"/>
-      <c r="AP23" s="20"/>
-      <c r="AQ23" s="20"/>
-      <c r="AR23" s="20"/>
-      <c r="AS23" s="20"/>
-      <c r="AT23" s="20"/>
+      <c r="AB23" s="52"/>
+      <c r="AD23" s="37"/>
+      <c r="AE23" s="42"/>
+      <c r="AF23" s="42"/>
+      <c r="AG23" s="42"/>
+      <c r="AH23" s="42"/>
+      <c r="AI23" s="42"/>
+      <c r="AJ23" s="42"/>
+      <c r="AK23" s="42"/>
+      <c r="AL23" s="38"/>
+      <c r="AM23" s="5"/>
+      <c r="AN23" s="17"/>
+      <c r="AO23" s="17"/>
+      <c r="AP23" s="17"/>
+      <c r="AQ23" s="17"/>
+      <c r="AR23" s="17"/>
+      <c r="AS23" s="5"/>
+      <c r="AT23" s="39"/>
+      <c r="AV23" s="37"/>
+      <c r="AW23" s="38"/>
+      <c r="AX23" s="38"/>
+      <c r="AY23" s="38"/>
+      <c r="AZ23" s="38"/>
+      <c r="BA23" s="38"/>
+      <c r="BB23" s="38"/>
+      <c r="BC23" s="38"/>
+      <c r="BD23" s="38"/>
+      <c r="BE23" s="5"/>
+      <c r="BF23" s="17"/>
+      <c r="BG23" s="17"/>
+      <c r="BH23" s="17"/>
+      <c r="BI23" s="17"/>
+      <c r="BJ23" s="17"/>
+      <c r="BK23" s="5"/>
+      <c r="BL23" s="39"/>
     </row>
-    <row r="24" spans="12:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L24" s="20"/>
+    <row r="24" spans="12:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L24" s="37"/>
       <c r="M24" s="5"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
       <c r="S24" s="5"/>
-      <c r="T24" s="20"/>
+      <c r="T24" s="55"/>
       <c r="U24" s="5"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="17"/>
       <c r="AA24" s="5"/>
-      <c r="AB24" s="20"/>
-      <c r="AD24" s="20"/>
-      <c r="AE24" s="5"/>
-      <c r="AG24" s="2"/>
-      <c r="AK24" s="5"/>
-      <c r="AL24" s="20"/>
-      <c r="AM24" s="20"/>
-      <c r="AN24" s="20"/>
-      <c r="AO24" s="20"/>
-      <c r="AP24" s="20"/>
-      <c r="AQ24" s="20"/>
-      <c r="AR24" s="20"/>
-      <c r="AS24" s="20"/>
-      <c r="AT24" s="20"/>
+      <c r="AB24" s="52"/>
+      <c r="AD24" s="37"/>
+      <c r="AE24" s="42"/>
+      <c r="AF24" s="42"/>
+      <c r="AG24" s="42"/>
+      <c r="AH24" s="42"/>
+      <c r="AI24" s="42"/>
+      <c r="AJ24" s="42"/>
+      <c r="AK24" s="42"/>
+      <c r="AL24" s="38"/>
+      <c r="AM24" s="5"/>
+      <c r="AN24" s="17"/>
+      <c r="AO24" s="17"/>
+      <c r="AP24" s="17"/>
+      <c r="AQ24" s="17"/>
+      <c r="AR24" s="17"/>
+      <c r="AS24" s="5"/>
+      <c r="AT24" s="39"/>
+      <c r="AV24" s="37"/>
+      <c r="AW24" s="38"/>
+      <c r="AX24" s="38"/>
+      <c r="AY24" s="38"/>
+      <c r="AZ24" s="38"/>
+      <c r="BA24" s="38"/>
+      <c r="BB24" s="38"/>
+      <c r="BC24" s="38"/>
+      <c r="BD24" s="38"/>
+      <c r="BE24" s="5"/>
+      <c r="BF24" s="17"/>
+      <c r="BG24" s="17"/>
+      <c r="BH24" s="17"/>
+      <c r="BI24" s="17"/>
+      <c r="BJ24" s="17"/>
+      <c r="BK24" s="5"/>
+      <c r="BL24" s="39"/>
     </row>
-    <row r="25" spans="12:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L25" s="20"/>
+    <row r="25" spans="12:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L25" s="37"/>
       <c r="M25" s="5"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
       <c r="S25" s="5"/>
-      <c r="T25" s="20"/>
+      <c r="T25" s="55"/>
       <c r="U25" s="5"/>
-      <c r="X25" s="2"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="17"/>
+      <c r="X25" s="17"/>
+      <c r="Y25" s="17"/>
+      <c r="Z25" s="17"/>
       <c r="AA25" s="5"/>
-      <c r="AB25" s="20"/>
-      <c r="AD25" s="20"/>
-      <c r="AE25" s="5"/>
-      <c r="AG25" s="2"/>
-      <c r="AI25" s="2"/>
-      <c r="AK25" s="5"/>
-      <c r="AL25" s="20"/>
-      <c r="AM25" s="20"/>
-      <c r="AN25" s="20"/>
-      <c r="AO25" s="20"/>
-      <c r="AP25" s="20"/>
-      <c r="AQ25" s="20"/>
-      <c r="AR25" s="20"/>
-      <c r="AS25" s="20"/>
-      <c r="AT25" s="20"/>
+      <c r="AB25" s="52"/>
+      <c r="AD25" s="37"/>
+      <c r="AE25" s="42"/>
+      <c r="AF25" s="42"/>
+      <c r="AG25" s="42"/>
+      <c r="AH25" s="42"/>
+      <c r="AI25" s="42"/>
+      <c r="AJ25" s="42"/>
+      <c r="AK25" s="42"/>
+      <c r="AL25" s="38"/>
+      <c r="AM25" s="5"/>
+      <c r="AN25" s="17"/>
+      <c r="AO25" s="17"/>
+      <c r="AP25" s="17"/>
+      <c r="AQ25" s="17"/>
+      <c r="AR25" s="17"/>
+      <c r="AS25" s="5"/>
+      <c r="AT25" s="39"/>
+      <c r="AV25" s="37"/>
+      <c r="AW25" s="38"/>
+      <c r="AX25" s="38"/>
+      <c r="AY25" s="38"/>
+      <c r="AZ25" s="38"/>
+      <c r="BA25" s="38"/>
+      <c r="BB25" s="38"/>
+      <c r="BC25" s="38"/>
+      <c r="BD25" s="38"/>
+      <c r="BE25" s="5"/>
+      <c r="BF25" s="17"/>
+      <c r="BG25" s="17"/>
+      <c r="BH25" s="17"/>
+      <c r="BI25" s="17"/>
+      <c r="BJ25" s="17"/>
+      <c r="BK25" s="5"/>
+      <c r="BL25" s="39"/>
     </row>
-    <row r="26" spans="12:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L26" s="20"/>
+    <row r="26" spans="12:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L26" s="37"/>
       <c r="M26" s="5"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
       <c r="S26" s="5"/>
-      <c r="T26" s="20"/>
+      <c r="T26" s="55"/>
       <c r="U26" s="5"/>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="2"/>
+      <c r="V26" s="17"/>
+      <c r="W26" s="17"/>
+      <c r="X26" s="17"/>
+      <c r="Y26" s="17"/>
+      <c r="Z26" s="17"/>
       <c r="AA26" s="5"/>
-      <c r="AB26" s="20"/>
-      <c r="AD26" s="20"/>
-      <c r="AE26" s="5"/>
-      <c r="AG26" s="2"/>
-      <c r="AI26" s="2"/>
-      <c r="AK26" s="5"/>
-      <c r="AL26" s="20"/>
-      <c r="AM26" s="20"/>
-      <c r="AN26" s="20"/>
-      <c r="AO26" s="20"/>
-      <c r="AP26" s="20"/>
-      <c r="AQ26" s="20"/>
-      <c r="AR26" s="20"/>
-      <c r="AS26" s="20"/>
-      <c r="AT26" s="20"/>
+      <c r="AB26" s="52"/>
+      <c r="AD26" s="37"/>
+      <c r="AE26" s="42"/>
+      <c r="AF26" s="42"/>
+      <c r="AG26" s="42"/>
+      <c r="AH26" s="42"/>
+      <c r="AI26" s="42"/>
+      <c r="AJ26" s="42"/>
+      <c r="AK26" s="42"/>
+      <c r="AL26" s="38"/>
+      <c r="AM26" s="5"/>
+      <c r="AN26" s="17"/>
+      <c r="AO26" s="17"/>
+      <c r="AP26" s="17"/>
+      <c r="AQ26" s="17"/>
+      <c r="AR26" s="17"/>
+      <c r="AS26" s="5"/>
+      <c r="AT26" s="39"/>
+      <c r="AV26" s="37"/>
+      <c r="AW26" s="38"/>
+      <c r="AX26" s="38"/>
+      <c r="AY26" s="38"/>
+      <c r="AZ26" s="38"/>
+      <c r="BA26" s="38"/>
+      <c r="BB26" s="38"/>
+      <c r="BC26" s="38"/>
+      <c r="BD26" s="38"/>
+      <c r="BE26" s="5"/>
+      <c r="BF26" s="17"/>
+      <c r="BG26" s="17"/>
+      <c r="BH26" s="17"/>
+      <c r="BI26" s="17"/>
+      <c r="BJ26" s="17"/>
+      <c r="BK26" s="5"/>
+      <c r="BL26" s="39"/>
     </row>
-    <row r="27" spans="12:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L27" s="20"/>
+    <row r="27" spans="12:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L27" s="37"/>
       <c r="M27" s="5"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
       <c r="S27" s="5"/>
-      <c r="T27" s="20"/>
+      <c r="T27" s="55"/>
       <c r="U27" s="5"/>
-      <c r="V27" s="2"/>
+      <c r="W27" s="17"/>
+      <c r="X27" s="17"/>
+      <c r="Y27" s="17"/>
+      <c r="Z27" s="17"/>
       <c r="AA27" s="5"/>
-      <c r="AB27" s="20"/>
-      <c r="AD27" s="20"/>
-      <c r="AE27" s="5"/>
-      <c r="AG27" s="2"/>
-      <c r="AI27" s="2"/>
-      <c r="AK27" s="5"/>
-      <c r="AL27" s="20"/>
-      <c r="AM27" s="20"/>
-      <c r="AN27" s="20"/>
-      <c r="AO27" s="20"/>
-      <c r="AP27" s="20"/>
-      <c r="AQ27" s="20"/>
-      <c r="AR27" s="20"/>
-      <c r="AS27" s="20"/>
-      <c r="AT27" s="20"/>
+      <c r="AB27" s="52"/>
+      <c r="AD27" s="37"/>
+      <c r="AE27" s="42"/>
+      <c r="AF27" s="42"/>
+      <c r="AG27" s="42"/>
+      <c r="AH27" s="42"/>
+      <c r="AI27" s="42"/>
+      <c r="AJ27" s="42"/>
+      <c r="AK27" s="42"/>
+      <c r="AL27" s="38"/>
+      <c r="AM27" s="9"/>
+      <c r="AN27" s="7"/>
+      <c r="AO27" s="6"/>
+      <c r="AP27" s="6"/>
+      <c r="AQ27" s="6"/>
+      <c r="AR27" s="6"/>
+      <c r="AS27" s="41"/>
+      <c r="AT27" s="39"/>
+      <c r="AV27" s="37"/>
+      <c r="AW27" s="38"/>
+      <c r="AX27" s="38"/>
+      <c r="AY27" s="38"/>
+      <c r="AZ27" s="38"/>
+      <c r="BA27" s="38"/>
+      <c r="BB27" s="38"/>
+      <c r="BC27" s="38"/>
+      <c r="BD27" s="38"/>
+      <c r="BE27" s="9"/>
+      <c r="BF27" s="7"/>
+      <c r="BG27" s="6"/>
+      <c r="BH27" s="6"/>
+      <c r="BI27" s="6"/>
+      <c r="BJ27" s="6"/>
+      <c r="BK27" s="41"/>
+      <c r="BL27" s="39"/>
     </row>
-    <row r="28" spans="12:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L28" s="20"/>
+    <row r="28" spans="12:64" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L28" s="37"/>
       <c r="M28" s="5"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
       <c r="S28" s="5"/>
-      <c r="T28" s="20"/>
+      <c r="T28" s="55"/>
       <c r="U28" s="5"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="17"/>
+      <c r="X28" s="17"/>
+      <c r="Y28" s="17"/>
+      <c r="Z28" s="17"/>
       <c r="AA28" s="5"/>
-      <c r="AB28" s="20"/>
-      <c r="AD28" s="20"/>
-      <c r="AE28" s="5"/>
-      <c r="AI28" s="2"/>
-      <c r="AK28" s="5"/>
-      <c r="AL28" s="20"/>
-      <c r="AM28" s="20"/>
-      <c r="AN28" s="20"/>
-      <c r="AO28" s="20"/>
-      <c r="AP28" s="20"/>
-      <c r="AQ28" s="20"/>
-      <c r="AR28" s="20"/>
-      <c r="AS28" s="20"/>
-      <c r="AT28" s="20"/>
+      <c r="AB28" s="52"/>
+      <c r="AD28" s="44"/>
+      <c r="AE28" s="50">
+        <v>6</v>
+      </c>
+      <c r="AF28" s="50"/>
+      <c r="AG28" s="50"/>
+      <c r="AH28" s="50"/>
+      <c r="AI28" s="50"/>
+      <c r="AJ28" s="50"/>
+      <c r="AK28" s="50"/>
+      <c r="AL28" s="50"/>
+      <c r="AM28" s="50"/>
+      <c r="AN28" s="50"/>
+      <c r="AO28" s="50"/>
+      <c r="AP28" s="50"/>
+      <c r="AQ28" s="50"/>
+      <c r="AR28" s="50"/>
+      <c r="AS28" s="50"/>
+      <c r="AT28" s="43"/>
+      <c r="AV28" s="44"/>
+      <c r="AW28" s="50">
+        <v>4</v>
+      </c>
+      <c r="AX28" s="50"/>
+      <c r="AY28" s="50"/>
+      <c r="AZ28" s="50"/>
+      <c r="BA28" s="50"/>
+      <c r="BB28" s="50"/>
+      <c r="BC28" s="50"/>
+      <c r="BD28" s="50"/>
+      <c r="BE28" s="50"/>
+      <c r="BF28" s="50"/>
+      <c r="BG28" s="50"/>
+      <c r="BH28" s="50"/>
+      <c r="BI28" s="50"/>
+      <c r="BJ28" s="50"/>
+      <c r="BK28" s="50"/>
+      <c r="BL28" s="43"/>
     </row>
-    <row r="29" spans="12:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L29" s="20"/>
+    <row r="29" spans="12:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L29" s="37"/>
       <c r="M29" s="9"/>
       <c r="N29" s="7"/>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="20"/>
+      <c r="S29" s="41"/>
+      <c r="T29" s="55"/>
       <c r="U29" s="9"/>
       <c r="V29" s="7"/>
       <c r="W29" s="6"/>
       <c r="X29" s="6"/>
       <c r="Y29" s="6"/>
       <c r="Z29" s="6"/>
-      <c r="AA29" s="1"/>
-      <c r="AB29" s="20"/>
-      <c r="AD29" s="20"/>
-      <c r="AE29" s="9"/>
-      <c r="AF29" s="7"/>
-      <c r="AG29" s="6"/>
-      <c r="AH29" s="6"/>
-      <c r="AI29" s="6"/>
-      <c r="AJ29" s="6"/>
-      <c r="AK29" s="1"/>
-      <c r="AL29" s="20"/>
-      <c r="AM29" s="20"/>
-      <c r="AN29" s="20"/>
-      <c r="AO29" s="20"/>
-      <c r="AP29" s="20"/>
-      <c r="AQ29" s="20"/>
-      <c r="AR29" s="20"/>
-      <c r="AS29" s="20"/>
-      <c r="AT29" s="20"/>
+      <c r="AA29" s="41"/>
+      <c r="AB29" s="52"/>
     </row>
-    <row r="30" spans="12:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
-      <c r="T30" s="20"/>
-      <c r="U30" s="20"/>
-      <c r="V30" s="20"/>
-      <c r="W30" s="20"/>
-      <c r="X30" s="20"/>
-      <c r="Y30" s="20"/>
-      <c r="Z30" s="20"/>
-      <c r="AA30" s="20"/>
-      <c r="AB30" s="20"/>
-      <c r="AD30" s="20"/>
-      <c r="AE30" s="20"/>
-      <c r="AF30" s="20"/>
-      <c r="AG30" s="20"/>
-      <c r="AH30" s="20"/>
-      <c r="AI30" s="20"/>
-      <c r="AJ30" s="20"/>
-      <c r="AK30" s="20"/>
-      <c r="AL30" s="20"/>
-      <c r="AM30" s="20"/>
-      <c r="AN30" s="20"/>
-      <c r="AO30" s="20"/>
-      <c r="AP30" s="20"/>
-      <c r="AQ30" s="20"/>
-      <c r="AR30" s="20"/>
-      <c r="AS30" s="20"/>
-      <c r="AT30" s="20"/>
+    <row r="30" spans="12:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L30" s="37"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="38"/>
+      <c r="R30" s="38"/>
+      <c r="S30" s="38"/>
+      <c r="T30" s="55"/>
+      <c r="U30" s="38"/>
+      <c r="V30" s="38"/>
+      <c r="W30" s="38"/>
+      <c r="X30" s="38"/>
+      <c r="Y30" s="38"/>
+      <c r="Z30" s="38"/>
+      <c r="AA30" s="38"/>
+      <c r="AB30" s="52"/>
     </row>
-    <row r="31" spans="12:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="34"/>
-      <c r="R31" s="34"/>
-      <c r="S31" s="34"/>
-      <c r="T31" s="20"/>
+    <row r="31" spans="12:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L31" s="37"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="53"/>
+      <c r="T31" s="55"/>
       <c r="U31" s="8"/>
       <c r="V31" s="7"/>
       <c r="W31" s="6"/>
@@ -3523,267 +4895,160 @@
       <c r="Y31" s="6"/>
       <c r="Z31" s="6"/>
       <c r="AA31" s="16"/>
-      <c r="AB31" s="20"/>
-      <c r="AD31" s="20"/>
-      <c r="AE31" s="20"/>
-      <c r="AF31" s="20"/>
-      <c r="AG31" s="20"/>
-      <c r="AH31" s="20"/>
-      <c r="AI31" s="20"/>
-      <c r="AJ31" s="20"/>
-      <c r="AK31" s="20"/>
-      <c r="AL31" s="20"/>
-      <c r="AM31" s="8"/>
-      <c r="AN31" s="7"/>
-      <c r="AO31" s="6"/>
-      <c r="AP31" s="6"/>
-      <c r="AQ31" s="6"/>
-      <c r="AR31" s="6"/>
-      <c r="AS31" s="16"/>
-      <c r="AT31" s="20"/>
+      <c r="AB31" s="52"/>
     </row>
-    <row r="32" spans="12:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="34"/>
-      <c r="S32" s="34"/>
-      <c r="T32" s="20"/>
+    <row r="32" spans="12:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L32" s="37"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="55"/>
       <c r="U32" s="5"/>
+      <c r="V32" s="17"/>
+      <c r="W32" s="17"/>
+      <c r="X32" s="17"/>
+      <c r="Y32" s="17"/>
+      <c r="Z32" s="17"/>
       <c r="AA32" s="5"/>
-      <c r="AB32" s="20"/>
-      <c r="AD32" s="20"/>
-      <c r="AE32" s="20"/>
-      <c r="AF32" s="20"/>
-      <c r="AG32" s="20"/>
-      <c r="AH32" s="20"/>
-      <c r="AI32" s="20"/>
-      <c r="AJ32" s="20"/>
-      <c r="AK32" s="20"/>
-      <c r="AL32" s="20"/>
-      <c r="AM32" s="5"/>
-      <c r="AS32" s="5"/>
-      <c r="AT32" s="20"/>
+      <c r="AB32" s="52"/>
     </row>
-    <row r="33" spans="12:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="34"/>
-      <c r="P33" s="34"/>
-      <c r="Q33" s="34"/>
-      <c r="R33" s="34"/>
-      <c r="S33" s="34"/>
-      <c r="T33" s="20"/>
+    <row r="33" spans="12:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L33" s="37"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="55"/>
       <c r="U33" s="5"/>
+      <c r="V33" s="17"/>
+      <c r="W33" s="17"/>
+      <c r="X33" s="17"/>
+      <c r="Y33" s="17"/>
+      <c r="Z33" s="17"/>
       <c r="AA33" s="5"/>
-      <c r="AB33" s="20"/>
-      <c r="AD33" s="20"/>
-      <c r="AE33" s="20"/>
-      <c r="AF33" s="20"/>
-      <c r="AG33" s="20"/>
-      <c r="AH33" s="20"/>
-      <c r="AI33" s="20"/>
-      <c r="AJ33" s="20"/>
-      <c r="AK33" s="20"/>
-      <c r="AL33" s="20"/>
-      <c r="AM33" s="5"/>
-      <c r="AS33" s="5"/>
-      <c r="AT33" s="20"/>
+      <c r="AB33" s="52"/>
     </row>
-    <row r="34" spans="12:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L34" s="34"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="34"/>
-      <c r="O34" s="34"/>
-      <c r="P34" s="34"/>
-      <c r="Q34" s="34"/>
-      <c r="R34" s="34"/>
-      <c r="S34" s="34"/>
-      <c r="T34" s="20"/>
+    <row r="34" spans="12:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L34" s="37"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="55"/>
       <c r="U34" s="5"/>
+      <c r="V34" s="17"/>
+      <c r="W34" s="17"/>
+      <c r="X34" s="17"/>
+      <c r="Y34" s="17"/>
+      <c r="Z34" s="17"/>
       <c r="AA34" s="5"/>
-      <c r="AB34" s="20"/>
-      <c r="AD34" s="20"/>
-      <c r="AE34" s="20"/>
-      <c r="AF34" s="20"/>
-      <c r="AG34" s="20"/>
-      <c r="AH34" s="20"/>
-      <c r="AI34" s="20"/>
-      <c r="AJ34" s="20"/>
-      <c r="AK34" s="20"/>
-      <c r="AL34" s="20"/>
-      <c r="AM34" s="5"/>
-      <c r="AS34" s="5"/>
-      <c r="AT34" s="20"/>
+      <c r="AB34" s="52"/>
     </row>
-    <row r="35" spans="12:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L35" s="34"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="34"/>
-      <c r="O35" s="34"/>
-      <c r="P35" s="34"/>
-      <c r="Q35" s="34"/>
-      <c r="R35" s="34"/>
-      <c r="S35" s="34"/>
-      <c r="T35" s="20"/>
+    <row r="35" spans="12:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L35" s="37"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="55"/>
       <c r="U35" s="5"/>
+      <c r="V35" s="17"/>
+      <c r="W35" s="17"/>
+      <c r="X35" s="17"/>
+      <c r="Y35" s="17"/>
+      <c r="Z35" s="17"/>
       <c r="AA35" s="5"/>
-      <c r="AB35" s="20"/>
-      <c r="AD35" s="20"/>
-      <c r="AE35" s="20"/>
-      <c r="AF35" s="20"/>
-      <c r="AG35" s="20"/>
-      <c r="AH35" s="20"/>
-      <c r="AI35" s="20"/>
-      <c r="AJ35" s="20"/>
-      <c r="AK35" s="20"/>
-      <c r="AL35" s="20"/>
-      <c r="AM35" s="5"/>
-      <c r="AS35" s="5"/>
-      <c r="AT35" s="20"/>
+      <c r="AB35" s="52"/>
     </row>
-    <row r="36" spans="12:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L36" s="34"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="34"/>
-      <c r="O36" s="34"/>
-      <c r="P36" s="34"/>
-      <c r="Q36" s="34"/>
-      <c r="R36" s="34"/>
-      <c r="S36" s="34"/>
-      <c r="T36" s="20"/>
+    <row r="36" spans="12:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L36" s="37"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="55"/>
       <c r="U36" s="5"/>
+      <c r="V36" s="17"/>
+      <c r="W36" s="17"/>
+      <c r="X36" s="17"/>
+      <c r="Y36" s="17"/>
+      <c r="Z36" s="17"/>
       <c r="AA36" s="5"/>
-      <c r="AB36" s="20"/>
-      <c r="AD36" s="20"/>
-      <c r="AE36" s="20"/>
-      <c r="AF36" s="20"/>
-      <c r="AG36" s="20"/>
-      <c r="AH36" s="20"/>
-      <c r="AI36" s="20"/>
-      <c r="AJ36" s="20"/>
-      <c r="AK36" s="20"/>
-      <c r="AL36" s="20"/>
-      <c r="AM36" s="5"/>
-      <c r="AS36" s="5"/>
-      <c r="AT36" s="20"/>
+      <c r="AB36" s="52"/>
     </row>
-    <row r="37" spans="12:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="34"/>
-      <c r="P37" s="34"/>
-      <c r="Q37" s="34"/>
-      <c r="R37" s="34"/>
-      <c r="S37" s="34"/>
-      <c r="T37" s="20"/>
+    <row r="37" spans="12:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L37" s="37"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="41"/>
+      <c r="T37" s="55"/>
       <c r="U37" s="9"/>
       <c r="V37" s="7"/>
       <c r="W37" s="6"/>
       <c r="X37" s="6"/>
       <c r="Y37" s="6"/>
       <c r="Z37" s="6"/>
-      <c r="AA37" s="1"/>
-      <c r="AB37" s="20"/>
-      <c r="AD37" s="20"/>
-      <c r="AE37" s="20"/>
-      <c r="AF37" s="20"/>
-      <c r="AG37" s="20"/>
-      <c r="AH37" s="20"/>
-      <c r="AI37" s="20"/>
-      <c r="AJ37" s="20"/>
-      <c r="AK37" s="20"/>
-      <c r="AL37" s="20"/>
-      <c r="AM37" s="9"/>
-      <c r="AN37" s="7"/>
-      <c r="AO37" s="6"/>
-      <c r="AP37" s="6"/>
-      <c r="AQ37" s="6"/>
-      <c r="AR37" s="6"/>
-      <c r="AS37" s="1"/>
-      <c r="AT37" s="20"/>
+      <c r="AA37" s="41"/>
+      <c r="AB37" s="52"/>
     </row>
-    <row r="38" spans="12:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L38" s="34"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="35"/>
-      <c r="O38" s="35"/>
-      <c r="P38" s="35"/>
-      <c r="Q38" s="35"/>
-      <c r="R38" s="35"/>
-      <c r="S38" s="35"/>
-      <c r="T38" s="21"/>
-      <c r="U38" s="21"/>
-      <c r="V38" s="21"/>
-      <c r="W38" s="21"/>
-      <c r="X38" s="21"/>
-      <c r="Y38" s="21"/>
-      <c r="Z38" s="21"/>
-      <c r="AA38" s="21"/>
-      <c r="AB38" s="20"/>
-      <c r="AD38" s="20"/>
-      <c r="AE38" s="21"/>
-      <c r="AF38" s="21"/>
-      <c r="AG38" s="21"/>
-      <c r="AH38" s="21"/>
-      <c r="AI38" s="21"/>
-      <c r="AJ38" s="21"/>
-      <c r="AK38" s="21"/>
-      <c r="AL38" s="21"/>
-      <c r="AM38" s="21"/>
-      <c r="AN38" s="21"/>
-      <c r="AO38" s="21"/>
-      <c r="AP38" s="21"/>
-      <c r="AQ38" s="21"/>
-      <c r="AR38" s="21"/>
-      <c r="AS38" s="21"/>
-      <c r="AT38" s="20"/>
+    <row r="38" spans="12:28" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L38" s="49">
+        <v>3</v>
+      </c>
+      <c r="M38" s="50"/>
+      <c r="N38" s="50"/>
+      <c r="O38" s="50"/>
+      <c r="P38" s="50"/>
+      <c r="Q38" s="50"/>
+      <c r="R38" s="50"/>
+      <c r="S38" s="50"/>
+      <c r="T38" s="56"/>
+      <c r="U38" s="50">
+        <v>3</v>
+      </c>
+      <c r="V38" s="50"/>
+      <c r="W38" s="50"/>
+      <c r="X38" s="50"/>
+      <c r="Y38" s="50"/>
+      <c r="Z38" s="50"/>
+      <c r="AA38" s="50"/>
+      <c r="AB38" s="48"/>
     </row>
-    <row r="39" spans="12:46" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="AB39" s="34"/>
+    <row r="39" spans="12:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB39" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="AE22:AS22"/>
-    <mergeCell ref="AT22:AT38"/>
-    <mergeCell ref="AE30:AL30"/>
-    <mergeCell ref="AL31:AL37"/>
-    <mergeCell ref="AL23:AL29"/>
-    <mergeCell ref="AM30:AS30"/>
-    <mergeCell ref="AD22:AD38"/>
-    <mergeCell ref="AE38:AS38"/>
-    <mergeCell ref="AE31:AK37"/>
-    <mergeCell ref="AM23:AS29"/>
-    <mergeCell ref="L22:L30"/>
-    <mergeCell ref="M22:AA22"/>
+  <mergeCells count="51">
+    <mergeCell ref="U30:AA30"/>
     <mergeCell ref="AB22:AB38"/>
-    <mergeCell ref="M30:T30"/>
-    <mergeCell ref="T31:T37"/>
-    <mergeCell ref="T38:AA38"/>
-    <mergeCell ref="T23:T29"/>
-    <mergeCell ref="U30:AA30"/>
-    <mergeCell ref="AB12:AB20"/>
-    <mergeCell ref="M20:AA20"/>
-    <mergeCell ref="AD12:AD20"/>
-    <mergeCell ref="AT12:AT20"/>
-    <mergeCell ref="AE12:AS12"/>
-    <mergeCell ref="AE20:AS20"/>
-    <mergeCell ref="T13:T19"/>
-    <mergeCell ref="AL13:AL19"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="M12:AA12"/>
-    <mergeCell ref="L12:L20"/>
-    <mergeCell ref="B3:I4"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="U22:AA22"/>
+    <mergeCell ref="U38:AA38"/>
+    <mergeCell ref="M30:S30"/>
+    <mergeCell ref="L23:L37"/>
+    <mergeCell ref="L38:S38"/>
+    <mergeCell ref="L22:S22"/>
+    <mergeCell ref="AE28:AS28"/>
+    <mergeCell ref="AD12:AD28"/>
     <mergeCell ref="AE10:AS10"/>
     <mergeCell ref="AT2:AT10"/>
     <mergeCell ref="AD2:AD10"/>
@@ -3792,6 +5057,39 @@
     <mergeCell ref="AB2:AB10"/>
     <mergeCell ref="U10:AA10"/>
     <mergeCell ref="AE2:AS2"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="AW2:BK2"/>
+    <mergeCell ref="AV2:AV10"/>
+    <mergeCell ref="B3:I4"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="BL2:BL10"/>
+    <mergeCell ref="AW10:BK10"/>
+    <mergeCell ref="L12:L20"/>
+    <mergeCell ref="AB12:AB20"/>
+    <mergeCell ref="M12:AA12"/>
+    <mergeCell ref="M20:AA20"/>
+    <mergeCell ref="BD3:BD9"/>
+    <mergeCell ref="T13:T19"/>
+    <mergeCell ref="AV12:AV28"/>
+    <mergeCell ref="AW28:BK28"/>
+    <mergeCell ref="AW21:BC27"/>
+    <mergeCell ref="BE13:BK19"/>
+    <mergeCell ref="AE12:AS12"/>
+    <mergeCell ref="AT12:AT28"/>
+    <mergeCell ref="AE20:AL20"/>
+    <mergeCell ref="AL21:AL27"/>
+    <mergeCell ref="AL13:AL19"/>
+    <mergeCell ref="AM20:AS20"/>
+    <mergeCell ref="AW12:BK12"/>
+    <mergeCell ref="BL12:BL28"/>
+    <mergeCell ref="AW20:BD20"/>
+    <mergeCell ref="BD21:BD27"/>
+    <mergeCell ref="BD13:BD19"/>
+    <mergeCell ref="BE20:BK20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/PartyBall/PartyBall'sStages.xlsx
+++ b/Documents/PartyBall/PartyBall'sStages.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03ad4a8e8f7310f3/project/Project_Agis/Jagu_Agis/Documents/PartyBall/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="127" documentId="13_ncr:1_{B15BA074-0272-4DDC-8148-B36F74C9D3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1B43533-E246-42B1-894E-CE6F3864B825}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{6654ADE8-FED1-4A0B-8F79-39BD6602AA37}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="DataBase" sheetId="1" r:id="rId1"/>
@@ -103,7 +97,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -653,18 +647,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -691,75 +754,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -798,7 +792,7 @@
         <xdr:cNvPr id="2" name="타원 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A06941AD-939B-4FC4-90C1-8D3063883FFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A06941AD-939B-4FC4-90C1-8D3063883FFB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -866,7 +860,7 @@
         <xdr:cNvPr id="3" name="사각형: 둥근 모서리 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA34080B-E1BC-4FBC-ACBD-A3C9D0F6C44A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FA34080B-E1BC-4FBC-ACBD-A3C9D0F6C44A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -934,7 +928,7 @@
         <xdr:cNvPr id="4" name="타원 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C5C6E29-7E4D-471D-9557-8765E96EF974}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C5C6E29-7E4D-471D-9557-8765E96EF974}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1002,7 +996,7 @@
         <xdr:cNvPr id="6" name="사각형: 둥근 모서리 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F54DAC5C-0A1A-4AA2-B103-CA0EAAE4A741}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F54DAC5C-0A1A-4AA2-B103-CA0EAAE4A741}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1070,7 +1064,7 @@
         <xdr:cNvPr id="7" name="타원 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D43ED5B3-9D7B-495F-AC17-89512A781510}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D43ED5B3-9D7B-495F-AC17-89512A781510}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1138,7 +1132,7 @@
         <xdr:cNvPr id="8" name="사각형: 둥근 모서리 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C92AEC37-3F31-48C6-98BF-23B9149BB8C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C92AEC37-3F31-48C6-98BF-23B9149BB8C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1206,7 +1200,7 @@
         <xdr:cNvPr id="19" name="타원 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF169E27-F9DC-440B-BCF2-459DB73C1B96}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF169E27-F9DC-440B-BCF2-459DB73C1B96}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1274,7 +1268,7 @@
         <xdr:cNvPr id="20" name="사각형: 둥근 모서리 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8A39776-1FCF-4C1B-95F4-689D3FAEC7BC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D8A39776-1FCF-4C1B-95F4-689D3FAEC7BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1342,7 +1336,7 @@
         <xdr:cNvPr id="10" name="타원 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{320F703C-628E-4099-A822-F18C54491598}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{320F703C-628E-4099-A822-F18C54491598}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1410,7 +1404,7 @@
         <xdr:cNvPr id="11" name="타원 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF7FB6E-B4DD-484F-8DC2-1BCE43EB9EE1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ACF7FB6E-B4DD-484F-8DC2-1BCE43EB9EE1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1478,7 +1472,7 @@
         <xdr:cNvPr id="13" name="사각형: 둥근 모서리 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A8F5F6B-C9D3-4F00-8FCF-804ED79271E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8A8F5F6B-C9D3-4F00-8FCF-804ED79271E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1546,7 +1540,7 @@
         <xdr:cNvPr id="14" name="사각형: 둥근 모서리 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4B669C3-BD11-489D-92FC-5616696E938B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B4B669C3-BD11-489D-92FC-5616696E938B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1614,7 +1608,7 @@
         <xdr:cNvPr id="16" name="사각형: 둥근 모서리 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F398AD0-3744-4B52-B1DC-47F6E6EC8558}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5F398AD0-3744-4B52-B1DC-47F6E6EC8558}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1682,7 +1676,7 @@
         <xdr:cNvPr id="17" name="타원 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D07AEB20-87C3-4CB7-B208-42B7A7898C50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D07AEB20-87C3-4CB7-B208-42B7A7898C50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1750,7 +1744,7 @@
         <xdr:cNvPr id="18" name="사각형: 둥근 모서리 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30B16B81-FF1C-4C38-9ACA-C8748B8B1B67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{30B16B81-FF1C-4C38-9ACA-C8748B8B1B67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1818,7 +1812,7 @@
         <xdr:cNvPr id="21" name="타원 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41072354-DB3F-47F6-BCD8-EC8C1A784BF3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{41072354-DB3F-47F6-BCD8-EC8C1A784BF3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1886,7 +1880,7 @@
         <xdr:cNvPr id="22" name="사각형: 둥근 모서리 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF77B6DD-B8FD-4B36-89F1-407E2139A625}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AF77B6DD-B8FD-4B36-89F1-407E2139A625}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1954,7 +1948,7 @@
         <xdr:cNvPr id="23" name="타원 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEF6E884-572D-4AC8-94BC-9910443FDB10}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BEF6E884-572D-4AC8-94BC-9910443FDB10}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2022,7 +2016,7 @@
         <xdr:cNvPr id="24" name="사각형: 둥근 모서리 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4569F1FC-E14C-425F-8E9B-F246D48D4A3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4569F1FC-E14C-425F-8E9B-F246D48D4A3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2090,7 +2084,7 @@
         <xdr:cNvPr id="25" name="타원 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EE0815D-D224-4546-9DA9-C67FDDAC483D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2EE0815D-D224-4546-9DA9-C67FDDAC483D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2158,7 +2152,7 @@
         <xdr:cNvPr id="26" name="사각형: 둥근 모서리 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13EC8DDA-394F-41FF-BC2F-1B98D826099A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{13EC8DDA-394F-41FF-BC2F-1B98D826099A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2226,7 +2220,7 @@
         <xdr:cNvPr id="29" name="타원 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AA89067-591F-4591-96F3-77AFDC8BEE65}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3AA89067-591F-4591-96F3-77AFDC8BEE65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2294,7 +2288,7 @@
         <xdr:cNvPr id="30" name="사각형: 둥근 모서리 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAFEFFEF-7408-414D-82E7-636217D9FE97}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BAFEFFEF-7408-414D-82E7-636217D9FE97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2362,7 +2356,7 @@
         <xdr:cNvPr id="33" name="타원 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E3A5183-B2C7-4B4F-89C3-6E067E822AFA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9E3A5183-B2C7-4B4F-89C3-6E067E822AFA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2430,7 +2424,7 @@
         <xdr:cNvPr id="34" name="사각형: 둥근 모서리 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{388969CF-4BE3-485F-A2EF-67890522F5B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{388969CF-4BE3-485F-A2EF-67890522F5B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2498,7 +2492,7 @@
         <xdr:cNvPr id="36" name="타원 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2B20864-C79C-4B99-9632-F28EE507BB67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C2B20864-C79C-4B99-9632-F28EE507BB67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2566,7 +2560,7 @@
         <xdr:cNvPr id="37" name="사각형: 둥근 모서리 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97CBFF07-CF90-4797-863A-14F134BC1F6B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{97CBFF07-CF90-4797-863A-14F134BC1F6B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2634,7 +2628,7 @@
         <xdr:cNvPr id="38" name="타원 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83E95F2B-024C-4F28-A6C6-04C70C4F1427}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{83E95F2B-024C-4F28-A6C6-04C70C4F1427}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2702,7 +2696,7 @@
         <xdr:cNvPr id="39" name="사각형: 둥근 모서리 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08F292CD-815C-446A-815A-03AD16E11C8F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{08F292CD-815C-446A-815A-03AD16E11C8F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2770,7 +2764,7 @@
         <xdr:cNvPr id="40" name="타원 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFE7BAD2-29C9-4C1E-B22C-C92881EE0AFC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EFE7BAD2-29C9-4C1E-B22C-C92881EE0AFC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2838,7 +2832,7 @@
         <xdr:cNvPr id="45" name="타원 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F297A486-E37C-41B0-AB98-D049E79FA0CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F297A486-E37C-41B0-AB98-D049E79FA0CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2906,7 +2900,7 @@
         <xdr:cNvPr id="46" name="사각형: 둥근 모서리 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6CB831D-EBF4-4A7E-9D82-A4BB55085066}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B6CB831D-EBF4-4A7E-9D82-A4BB55085066}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2974,7 +2968,7 @@
         <xdr:cNvPr id="47" name="타원 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A9EDFD9-E527-4656-AE0B-38FC8A67FFAF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6A9EDFD9-E527-4656-AE0B-38FC8A67FFAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3042,7 +3036,7 @@
         <xdr:cNvPr id="48" name="사각형: 둥근 모서리 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2E27BF0-A3A5-4D25-959F-340B4F60B6CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2E27BF0-A3A5-4D25-959F-340B4F60B6CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3138,7 +3132,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3190,7 +3184,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3384,104 +3378,104 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F014CC21-94BA-4A4A-B0AC-D9B5269E619A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BL39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AG33" sqref="AG33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA13" sqref="U13:AA19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="2:64" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:64" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="22" t="s">
+    <row r="2" spans="2:64" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="24"/>
-      <c r="L2" s="21" t="s">
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="46"/>
+      <c r="L2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="35" t="s">
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="36"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="35" t="s">
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="40"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="35"/>
-      <c r="AR2" s="35"/>
-      <c r="AS2" s="35"/>
-      <c r="AT2" s="36"/>
-      <c r="AV2" s="34"/>
-      <c r="AW2" s="35" t="s">
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="33"/>
+      <c r="AO2" s="33"/>
+      <c r="AP2" s="33"/>
+      <c r="AQ2" s="33"/>
+      <c r="AR2" s="33"/>
+      <c r="AS2" s="33"/>
+      <c r="AT2" s="40"/>
+      <c r="AV2" s="38"/>
+      <c r="AW2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="AX2" s="35"/>
-      <c r="AY2" s="35"/>
-      <c r="AZ2" s="35"/>
-      <c r="BA2" s="35"/>
-      <c r="BB2" s="35"/>
-      <c r="BC2" s="35"/>
-      <c r="BD2" s="35"/>
-      <c r="BE2" s="35"/>
-      <c r="BF2" s="35"/>
-      <c r="BG2" s="35"/>
-      <c r="BH2" s="35"/>
-      <c r="BI2" s="35"/>
-      <c r="BJ2" s="35"/>
-      <c r="BK2" s="35"/>
-      <c r="BL2" s="36"/>
+      <c r="AX2" s="33"/>
+      <c r="AY2" s="33"/>
+      <c r="AZ2" s="33"/>
+      <c r="BA2" s="33"/>
+      <c r="BB2" s="33"/>
+      <c r="BC2" s="33"/>
+      <c r="BD2" s="33"/>
+      <c r="BE2" s="33"/>
+      <c r="BF2" s="33"/>
+      <c r="BG2" s="33"/>
+      <c r="BH2" s="33"/>
+      <c r="BI2" s="33"/>
+      <c r="BJ2" s="33"/>
+      <c r="BK2" s="33"/>
+      <c r="BL2" s="40"/>
     </row>
-    <row r="3" spans="2:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="25" t="s">
+    <row r="3" spans="2:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="27"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="50"/>
       <c r="J3" s="17"/>
       <c r="L3" s="8"/>
       <c r="M3" s="7"/>
@@ -3490,7 +3484,7 @@
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="16"/>
-      <c r="T3" s="37"/>
+      <c r="T3" s="35"/>
       <c r="U3" s="8"/>
       <c r="V3" s="7"/>
       <c r="W3" s="6"/>
@@ -3498,8 +3492,8 @@
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
       <c r="AA3" s="16"/>
-      <c r="AB3" s="39"/>
-      <c r="AD3" s="37"/>
+      <c r="AB3" s="41"/>
+      <c r="AD3" s="35"/>
       <c r="AE3" s="8"/>
       <c r="AF3" s="7"/>
       <c r="AG3" s="6"/>
@@ -3515,8 +3509,8 @@
       <c r="AQ3" s="6"/>
       <c r="AR3" s="6"/>
       <c r="AS3" s="16"/>
-      <c r="AT3" s="39"/>
-      <c r="AV3" s="37"/>
+      <c r="AT3" s="41"/>
+      <c r="AV3" s="35"/>
       <c r="AW3" s="8"/>
       <c r="AX3" s="7"/>
       <c r="AY3" s="6"/>
@@ -3524,7 +3518,7 @@
       <c r="BA3" s="6"/>
       <c r="BB3" s="6"/>
       <c r="BC3" s="16"/>
-      <c r="BD3" s="38"/>
+      <c r="BD3" s="29"/>
       <c r="BE3" s="8"/>
       <c r="BF3" s="7"/>
       <c r="BG3" s="6"/>
@@ -3532,21 +3526,21 @@
       <c r="BI3" s="6"/>
       <c r="BJ3" s="6"/>
       <c r="BK3" s="16"/>
-      <c r="BL3" s="39"/>
+      <c r="BL3" s="41"/>
     </row>
-    <row r="4" spans="2:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="28"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="30"/>
+    <row r="4" spans="2:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="53"/>
       <c r="J4" s="17"/>
       <c r="L4" s="5"/>
       <c r="R4" s="5"/>
-      <c r="T4" s="37"/>
+      <c r="T4" s="35"/>
       <c r="U4" s="5"/>
       <c r="V4" s="17"/>
       <c r="W4" s="17"/>
@@ -3554,8 +3548,8 @@
       <c r="Y4" s="17"/>
       <c r="Z4" s="17"/>
       <c r="AA4" s="5"/>
-      <c r="AB4" s="39"/>
-      <c r="AD4" s="37"/>
+      <c r="AB4" s="41"/>
+      <c r="AD4" s="35"/>
       <c r="AE4" s="5"/>
       <c r="AF4" s="17"/>
       <c r="AG4" s="17"/>
@@ -3571,16 +3565,16 @@
       <c r="AQ4" s="17"/>
       <c r="AR4" s="17"/>
       <c r="AS4" s="5"/>
-      <c r="AT4" s="39"/>
-      <c r="AV4" s="37"/>
+      <c r="AT4" s="41"/>
+      <c r="AV4" s="35"/>
       <c r="AW4" s="5"/>
-      <c r="AX4" s="40"/>
-      <c r="AY4" s="40"/>
-      <c r="AZ4" s="40"/>
+      <c r="AX4" s="21"/>
+      <c r="AY4" s="21"/>
+      <c r="AZ4" s="21"/>
       <c r="BA4" s="17"/>
       <c r="BB4" s="17"/>
       <c r="BC4" s="5"/>
-      <c r="BD4" s="38"/>
+      <c r="BD4" s="29"/>
       <c r="BE4" s="5"/>
       <c r="BF4" s="17"/>
       <c r="BG4" s="17"/>
@@ -3588,90 +3582,90 @@
       <c r="BI4" s="17"/>
       <c r="BJ4" s="17"/>
       <c r="BK4" s="5"/>
-      <c r="BL4" s="39"/>
+      <c r="BL4" s="41"/>
     </row>
-    <row r="5" spans="2:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="33"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="56"/>
       <c r="I5" s="4"/>
       <c r="J5" s="17"/>
       <c r="L5" s="5"/>
       <c r="R5" s="5"/>
-      <c r="T5" s="37"/>
+      <c r="T5" s="35"/>
       <c r="U5" s="5"/>
       <c r="V5" s="17"/>
       <c r="W5" s="17"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="40"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
       <c r="Z5" s="17"/>
       <c r="AA5" s="5"/>
-      <c r="AB5" s="39"/>
-      <c r="AD5" s="37"/>
+      <c r="AB5" s="41"/>
+      <c r="AD5" s="35"/>
       <c r="AE5" s="5"/>
-      <c r="AF5" s="40"/>
-      <c r="AG5" s="40"/>
-      <c r="AH5" s="40"/>
-      <c r="AI5" s="40"/>
+      <c r="AF5" s="21"/>
+      <c r="AG5" s="21"/>
+      <c r="AH5" s="21"/>
+      <c r="AI5" s="21"/>
       <c r="AJ5" s="17"/>
       <c r="AK5" s="5"/>
       <c r="AL5" s="17"/>
       <c r="AM5" s="5"/>
-      <c r="AN5" s="40"/>
-      <c r="AO5" s="40"/>
-      <c r="AP5" s="40"/>
-      <c r="AQ5" s="40"/>
+      <c r="AN5" s="21"/>
+      <c r="AO5" s="21"/>
+      <c r="AP5" s="21"/>
+      <c r="AQ5" s="21"/>
       <c r="AR5" s="17"/>
       <c r="AS5" s="5"/>
-      <c r="AT5" s="39"/>
-      <c r="AV5" s="37"/>
+      <c r="AT5" s="41"/>
+      <c r="AV5" s="35"/>
       <c r="AW5" s="5"/>
-      <c r="AX5" s="40"/>
-      <c r="AY5" s="40"/>
-      <c r="AZ5" s="40"/>
+      <c r="AX5" s="21"/>
+      <c r="AY5" s="21"/>
+      <c r="AZ5" s="21"/>
       <c r="BA5" s="17"/>
       <c r="BB5" s="17"/>
       <c r="BC5" s="5"/>
-      <c r="BD5" s="38"/>
+      <c r="BD5" s="29"/>
       <c r="BE5" s="5"/>
-      <c r="BF5" s="40"/>
-      <c r="BG5" s="40"/>
-      <c r="BH5" s="40"/>
-      <c r="BI5" s="40"/>
+      <c r="BF5" s="21"/>
+      <c r="BG5" s="21"/>
+      <c r="BH5" s="21"/>
+      <c r="BI5" s="21"/>
       <c r="BJ5" s="17"/>
       <c r="BK5" s="5"/>
-      <c r="BL5" s="39"/>
+      <c r="BL5" s="41"/>
     </row>
-    <row r="6" spans="2:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="3"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="33"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="56"/>
       <c r="I6" s="4"/>
       <c r="J6" s="17"/>
       <c r="L6" s="5"/>
       <c r="R6" s="5"/>
-      <c r="T6" s="37"/>
+      <c r="T6" s="35"/>
       <c r="U6" s="5"/>
       <c r="V6" s="17"/>
       <c r="W6" s="17"/>
       <c r="X6" s="17"/>
-      <c r="Y6" s="40"/>
+      <c r="Y6" s="21"/>
       <c r="Z6" s="17"/>
       <c r="AA6" s="5"/>
-      <c r="AB6" s="39"/>
-      <c r="AD6" s="37"/>
+      <c r="AB6" s="41"/>
+      <c r="AD6" s="35"/>
       <c r="AE6" s="5"/>
       <c r="AF6" s="17"/>
       <c r="AG6" s="17"/>
@@ -3687,16 +3681,16 @@
       <c r="AQ6" s="17"/>
       <c r="AR6" s="17"/>
       <c r="AS6" s="5"/>
-      <c r="AT6" s="39"/>
-      <c r="AV6" s="37"/>
+      <c r="AT6" s="41"/>
+      <c r="AV6" s="35"/>
       <c r="AW6" s="5"/>
-      <c r="AX6" s="40"/>
-      <c r="AY6" s="40"/>
-      <c r="AZ6" s="40"/>
+      <c r="AX6" s="21"/>
+      <c r="AY6" s="21"/>
+      <c r="AZ6" s="21"/>
       <c r="BA6" s="17"/>
       <c r="BB6" s="17"/>
       <c r="BC6" s="5"/>
-      <c r="BD6" s="38"/>
+      <c r="BD6" s="29"/>
       <c r="BE6" s="5"/>
       <c r="BF6" s="17"/>
       <c r="BG6" s="17"/>
@@ -3704,31 +3698,31 @@
       <c r="BI6" s="17"/>
       <c r="BJ6" s="17"/>
       <c r="BK6" s="5"/>
-      <c r="BL6" s="39"/>
+      <c r="BL6" s="41"/>
     </row>
-    <row r="7" spans="2:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="3"/>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="33"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="56"/>
       <c r="I7" s="4"/>
       <c r="J7" s="17"/>
       <c r="L7" s="5"/>
       <c r="R7" s="5"/>
-      <c r="T7" s="37"/>
+      <c r="T7" s="35"/>
       <c r="U7" s="5"/>
       <c r="V7" s="17"/>
-      <c r="W7" s="40"/>
+      <c r="W7" s="21"/>
       <c r="X7" s="17"/>
-      <c r="Y7" s="40"/>
+      <c r="Y7" s="21"/>
       <c r="Z7" s="17"/>
       <c r="AA7" s="5"/>
-      <c r="AB7" s="39"/>
-      <c r="AD7" s="37"/>
+      <c r="AB7" s="41"/>
+      <c r="AD7" s="35"/>
       <c r="AE7" s="5"/>
       <c r="AF7" s="17"/>
       <c r="AG7" s="17"/>
@@ -3739,53 +3733,53 @@
       <c r="AL7" s="17"/>
       <c r="AM7" s="5"/>
       <c r="AN7" s="17"/>
-      <c r="AO7" s="40"/>
-      <c r="AP7" s="40"/>
-      <c r="AQ7" s="40"/>
+      <c r="AO7" s="21"/>
+      <c r="AP7" s="21"/>
+      <c r="AQ7" s="21"/>
       <c r="AR7" s="17"/>
       <c r="AS7" s="5"/>
-      <c r="AT7" s="39"/>
-      <c r="AV7" s="37"/>
+      <c r="AT7" s="41"/>
+      <c r="AV7" s="35"/>
       <c r="AW7" s="5"/>
-      <c r="AX7" s="40"/>
-      <c r="AY7" s="40"/>
-      <c r="AZ7" s="40"/>
-      <c r="BA7" s="40"/>
+      <c r="AX7" s="21"/>
+      <c r="AY7" s="21"/>
+      <c r="AZ7" s="21"/>
+      <c r="BA7" s="21"/>
       <c r="BB7" s="17"/>
       <c r="BC7" s="5"/>
-      <c r="BD7" s="38"/>
+      <c r="BD7" s="29"/>
       <c r="BE7" s="5"/>
-      <c r="BF7" s="40"/>
-      <c r="BG7" s="40"/>
+      <c r="BF7" s="21"/>
+      <c r="BG7" s="21"/>
       <c r="BH7" s="17"/>
-      <c r="BI7" s="40"/>
-      <c r="BJ7" s="40"/>
+      <c r="BI7" s="21"/>
+      <c r="BJ7" s="21"/>
       <c r="BK7" s="5"/>
-      <c r="BL7" s="39"/>
+      <c r="BL7" s="41"/>
     </row>
-    <row r="8" spans="2:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="3"/>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="32"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="55"/>
       <c r="I8" s="4"/>
       <c r="J8" s="17"/>
       <c r="L8" s="5"/>
       <c r="R8" s="5"/>
-      <c r="T8" s="37"/>
+      <c r="T8" s="35"/>
       <c r="U8" s="5"/>
       <c r="V8" s="17"/>
-      <c r="W8" s="40"/>
+      <c r="W8" s="21"/>
       <c r="X8" s="17"/>
-      <c r="Y8" s="40"/>
+      <c r="Y8" s="21"/>
       <c r="Z8" s="17"/>
       <c r="AA8" s="5"/>
-      <c r="AB8" s="39"/>
-      <c r="AD8" s="37"/>
+      <c r="AB8" s="41"/>
+      <c r="AD8" s="35"/>
       <c r="AE8" s="5"/>
       <c r="AF8" s="17"/>
       <c r="AG8" s="17"/>
@@ -3801,16 +3795,16 @@
       <c r="AQ8" s="17"/>
       <c r="AR8" s="17"/>
       <c r="AS8" s="5"/>
-      <c r="AT8" s="39"/>
-      <c r="AV8" s="37"/>
+      <c r="AT8" s="41"/>
+      <c r="AV8" s="35"/>
       <c r="AW8" s="5"/>
-      <c r="AX8" s="40"/>
-      <c r="AY8" s="40"/>
-      <c r="AZ8" s="40"/>
-      <c r="BA8" s="40"/>
+      <c r="AX8" s="21"/>
+      <c r="AY8" s="21"/>
+      <c r="AZ8" s="21"/>
+      <c r="BA8" s="21"/>
       <c r="BB8" s="17"/>
       <c r="BC8" s="5"/>
-      <c r="BD8" s="38"/>
+      <c r="BD8" s="29"/>
       <c r="BE8" s="5"/>
       <c r="BF8" s="17"/>
       <c r="BG8" s="17"/>
@@ -3818,9 +3812,9 @@
       <c r="BI8" s="17"/>
       <c r="BJ8" s="17"/>
       <c r="BK8" s="5"/>
-      <c r="BL8" s="39"/>
+      <c r="BL8" s="41"/>
     </row>
-    <row r="9" spans="2:64" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:64" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
@@ -3837,23 +3831,23 @@
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="1"/>
-      <c r="T9" s="37"/>
+      <c r="T9" s="35"/>
       <c r="U9" s="9"/>
       <c r="V9" s="7"/>
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
-      <c r="AA9" s="41"/>
-      <c r="AB9" s="39"/>
-      <c r="AD9" s="37"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="41"/>
+      <c r="AD9" s="35"/>
       <c r="AE9" s="9"/>
       <c r="AF9" s="7"/>
       <c r="AG9" s="6"/>
       <c r="AH9" s="6"/>
       <c r="AI9" s="6"/>
       <c r="AJ9" s="6"/>
-      <c r="AK9" s="41"/>
+      <c r="AK9" s="22"/>
       <c r="AL9" s="17"/>
       <c r="AM9" s="9"/>
       <c r="AN9" s="7"/>
@@ -3861,27 +3855,27 @@
       <c r="AP9" s="6"/>
       <c r="AQ9" s="6"/>
       <c r="AR9" s="6"/>
-      <c r="AS9" s="41"/>
-      <c r="AT9" s="39"/>
-      <c r="AV9" s="37"/>
+      <c r="AS9" s="22"/>
+      <c r="AT9" s="41"/>
+      <c r="AV9" s="35"/>
       <c r="AW9" s="9"/>
       <c r="AX9" s="7"/>
       <c r="AY9" s="6"/>
       <c r="AZ9" s="6"/>
       <c r="BA9" s="6"/>
       <c r="BB9" s="6"/>
-      <c r="BC9" s="41"/>
-      <c r="BD9" s="38"/>
+      <c r="BC9" s="22"/>
+      <c r="BD9" s="29"/>
       <c r="BE9" s="9"/>
       <c r="BF9" s="7"/>
       <c r="BG9" s="6"/>
       <c r="BH9" s="6"/>
       <c r="BI9" s="6"/>
       <c r="BJ9" s="6"/>
-      <c r="BK9" s="41"/>
-      <c r="BL9" s="39"/>
+      <c r="BK9" s="22"/>
+      <c r="BL9" s="41"/>
     </row>
-    <row r="10" spans="2:64" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:64" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -3890,118 +3884,118 @@
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
       <c r="I10" s="12"/>
-      <c r="T10" s="44"/>
-      <c r="U10" s="47" t="s">
+      <c r="T10" s="39"/>
+      <c r="U10" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="V10" s="47"/>
-      <c r="W10" s="47"/>
-      <c r="X10" s="47"/>
-      <c r="Y10" s="47"/>
-      <c r="Z10" s="47"/>
-      <c r="AA10" s="47"/>
-      <c r="AB10" s="43"/>
-      <c r="AD10" s="44"/>
-      <c r="AE10" s="50">
+      <c r="V10" s="43"/>
+      <c r="W10" s="43"/>
+      <c r="X10" s="43"/>
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="43"/>
+      <c r="AA10" s="43"/>
+      <c r="AB10" s="42"/>
+      <c r="AD10" s="39"/>
+      <c r="AE10" s="34">
         <v>2</v>
       </c>
-      <c r="AF10" s="50"/>
-      <c r="AG10" s="50"/>
-      <c r="AH10" s="50"/>
-      <c r="AI10" s="50"/>
-      <c r="AJ10" s="50"/>
-      <c r="AK10" s="50"/>
-      <c r="AL10" s="50"/>
-      <c r="AM10" s="50"/>
-      <c r="AN10" s="50"/>
-      <c r="AO10" s="50"/>
-      <c r="AP10" s="50"/>
-      <c r="AQ10" s="50"/>
-      <c r="AR10" s="50"/>
-      <c r="AS10" s="50"/>
-      <c r="AT10" s="43"/>
-      <c r="AV10" s="44"/>
-      <c r="AW10" s="50">
+      <c r="AF10" s="34"/>
+      <c r="AG10" s="34"/>
+      <c r="AH10" s="34"/>
+      <c r="AI10" s="34"/>
+      <c r="AJ10" s="34"/>
+      <c r="AK10" s="34"/>
+      <c r="AL10" s="34"/>
+      <c r="AM10" s="34"/>
+      <c r="AN10" s="34"/>
+      <c r="AO10" s="34"/>
+      <c r="AP10" s="34"/>
+      <c r="AQ10" s="34"/>
+      <c r="AR10" s="34"/>
+      <c r="AS10" s="34"/>
+      <c r="AT10" s="42"/>
+      <c r="AV10" s="39"/>
+      <c r="AW10" s="34">
         <v>5</v>
       </c>
-      <c r="AX10" s="50"/>
-      <c r="AY10" s="50"/>
-      <c r="AZ10" s="50"/>
-      <c r="BA10" s="50"/>
-      <c r="BB10" s="50"/>
-      <c r="BC10" s="50"/>
-      <c r="BD10" s="50"/>
-      <c r="BE10" s="50"/>
-      <c r="BF10" s="50"/>
-      <c r="BG10" s="50"/>
-      <c r="BH10" s="50"/>
-      <c r="BI10" s="50"/>
-      <c r="BJ10" s="50"/>
-      <c r="BK10" s="50"/>
-      <c r="BL10" s="43"/>
+      <c r="AX10" s="34"/>
+      <c r="AY10" s="34"/>
+      <c r="AZ10" s="34"/>
+      <c r="BA10" s="34"/>
+      <c r="BB10" s="34"/>
+      <c r="BC10" s="34"/>
+      <c r="BD10" s="34"/>
+      <c r="BE10" s="34"/>
+      <c r="BF10" s="34"/>
+      <c r="BG10" s="34"/>
+      <c r="BH10" s="34"/>
+      <c r="BI10" s="34"/>
+      <c r="BJ10" s="34"/>
+      <c r="BK10" s="34"/>
+      <c r="BL10" s="42"/>
     </row>
     <row r="11" spans="2:64" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="2:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L12" s="34"/>
-      <c r="M12" s="35" t="s">
+    <row r="12" spans="2:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L12" s="38"/>
+      <c r="M12" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="35"/>
-      <c r="W12" s="35"/>
-      <c r="X12" s="35"/>
-      <c r="Y12" s="35"/>
-      <c r="Z12" s="35"/>
-      <c r="AA12" s="35"/>
-      <c r="AB12" s="36"/>
-      <c r="AD12" s="34"/>
-      <c r="AE12" s="35" t="s">
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="33"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="33"/>
+      <c r="Z12" s="33"/>
+      <c r="AA12" s="33"/>
+      <c r="AB12" s="40"/>
+      <c r="AD12" s="38"/>
+      <c r="AE12" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="AF12" s="35"/>
-      <c r="AG12" s="35"/>
-      <c r="AH12" s="35"/>
-      <c r="AI12" s="35"/>
-      <c r="AJ12" s="35"/>
-      <c r="AK12" s="35"/>
-      <c r="AL12" s="35"/>
-      <c r="AM12" s="35"/>
-      <c r="AN12" s="35"/>
-      <c r="AO12" s="35"/>
-      <c r="AP12" s="35"/>
-      <c r="AQ12" s="35"/>
-      <c r="AR12" s="35"/>
-      <c r="AS12" s="35"/>
-      <c r="AT12" s="36"/>
-      <c r="AV12" s="34"/>
-      <c r="AW12" s="35" t="s">
+      <c r="AF12" s="33"/>
+      <c r="AG12" s="33"/>
+      <c r="AH12" s="33"/>
+      <c r="AI12" s="33"/>
+      <c r="AJ12" s="33"/>
+      <c r="AK12" s="33"/>
+      <c r="AL12" s="33"/>
+      <c r="AM12" s="33"/>
+      <c r="AN12" s="33"/>
+      <c r="AO12" s="33"/>
+      <c r="AP12" s="33"/>
+      <c r="AQ12" s="33"/>
+      <c r="AR12" s="33"/>
+      <c r="AS12" s="33"/>
+      <c r="AT12" s="40"/>
+      <c r="AV12" s="38"/>
+      <c r="AW12" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="AX12" s="35"/>
-      <c r="AY12" s="35"/>
-      <c r="AZ12" s="35"/>
-      <c r="BA12" s="35"/>
-      <c r="BB12" s="35"/>
-      <c r="BC12" s="35"/>
-      <c r="BD12" s="35"/>
-      <c r="BE12" s="35"/>
-      <c r="BF12" s="35"/>
-      <c r="BG12" s="35"/>
-      <c r="BH12" s="35"/>
-      <c r="BI12" s="35"/>
-      <c r="BJ12" s="35"/>
-      <c r="BK12" s="35"/>
-      <c r="BL12" s="36"/>
+      <c r="AX12" s="33"/>
+      <c r="AY12" s="33"/>
+      <c r="AZ12" s="33"/>
+      <c r="BA12" s="33"/>
+      <c r="BB12" s="33"/>
+      <c r="BC12" s="33"/>
+      <c r="BD12" s="33"/>
+      <c r="BE12" s="33"/>
+      <c r="BF12" s="33"/>
+      <c r="BG12" s="33"/>
+      <c r="BH12" s="33"/>
+      <c r="BI12" s="33"/>
+      <c r="BJ12" s="33"/>
+      <c r="BK12" s="33"/>
+      <c r="BL12" s="40"/>
     </row>
-    <row r="13" spans="2:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L13" s="37"/>
+    <row r="13" spans="2:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L13" s="35"/>
       <c r="M13" s="8"/>
       <c r="N13" s="7"/>
       <c r="O13" s="6"/>
@@ -4009,7 +4003,7 @@
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="16"/>
-      <c r="T13" s="38"/>
+      <c r="T13" s="29"/>
       <c r="U13" s="8"/>
       <c r="V13" s="7"/>
       <c r="W13" s="6"/>
@@ -4017,8 +4011,8 @@
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
       <c r="AA13" s="16"/>
-      <c r="AB13" s="39"/>
-      <c r="AD13" s="37"/>
+      <c r="AB13" s="41"/>
+      <c r="AD13" s="35"/>
       <c r="AE13" s="8"/>
       <c r="AF13" s="7"/>
       <c r="AG13" s="6"/>
@@ -4026,7 +4020,7 @@
       <c r="AI13" s="6"/>
       <c r="AJ13" s="6"/>
       <c r="AK13" s="16"/>
-      <c r="AL13" s="38"/>
+      <c r="AL13" s="29"/>
       <c r="AM13" s="8"/>
       <c r="AN13" s="7"/>
       <c r="AO13" s="6"/>
@@ -4034,8 +4028,8 @@
       <c r="AQ13" s="6"/>
       <c r="AR13" s="6"/>
       <c r="AS13" s="16"/>
-      <c r="AT13" s="39"/>
-      <c r="AV13" s="37"/>
+      <c r="AT13" s="41"/>
+      <c r="AV13" s="35"/>
       <c r="AW13" s="8"/>
       <c r="AX13" s="7"/>
       <c r="AY13" s="6"/>
@@ -4043,18 +4037,18 @@
       <c r="BA13" s="6"/>
       <c r="BB13" s="6"/>
       <c r="BC13" s="16"/>
-      <c r="BD13" s="38"/>
-      <c r="BE13" s="38"/>
-      <c r="BF13" s="38"/>
-      <c r="BG13" s="38"/>
-      <c r="BH13" s="38"/>
-      <c r="BI13" s="38"/>
-      <c r="BJ13" s="38"/>
-      <c r="BK13" s="38"/>
-      <c r="BL13" s="39"/>
+      <c r="BD13" s="29"/>
+      <c r="BE13" s="29"/>
+      <c r="BF13" s="29"/>
+      <c r="BG13" s="29"/>
+      <c r="BH13" s="29"/>
+      <c r="BI13" s="29"/>
+      <c r="BJ13" s="29"/>
+      <c r="BK13" s="29"/>
+      <c r="BL13" s="41"/>
     </row>
-    <row r="14" spans="2:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L14" s="37"/>
+    <row r="14" spans="2:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L14" s="35"/>
       <c r="M14" s="5"/>
       <c r="N14" s="17"/>
       <c r="O14" s="17"/>
@@ -4062,7 +4056,7 @@
       <c r="Q14" s="17"/>
       <c r="R14" s="17"/>
       <c r="S14" s="5"/>
-      <c r="T14" s="38"/>
+      <c r="T14" s="29"/>
       <c r="U14" s="5"/>
       <c r="V14" s="17"/>
       <c r="W14" s="17"/>
@@ -4070,8 +4064,8 @@
       <c r="Y14" s="17"/>
       <c r="Z14" s="17"/>
       <c r="AA14" s="5"/>
-      <c r="AB14" s="39"/>
-      <c r="AD14" s="37"/>
+      <c r="AB14" s="41"/>
+      <c r="AD14" s="35"/>
       <c r="AE14" s="5"/>
       <c r="AF14" s="17"/>
       <c r="AG14" s="17"/>
@@ -4079,7 +4073,7 @@
       <c r="AI14" s="17"/>
       <c r="AJ14" s="17"/>
       <c r="AK14" s="5"/>
-      <c r="AL14" s="38"/>
+      <c r="AL14" s="29"/>
       <c r="AM14" s="5"/>
       <c r="AN14" s="17"/>
       <c r="AO14" s="17"/>
@@ -4087,44 +4081,44 @@
       <c r="AQ14" s="17"/>
       <c r="AR14" s="17"/>
       <c r="AS14" s="5"/>
-      <c r="AT14" s="39"/>
-      <c r="AV14" s="37"/>
+      <c r="AT14" s="41"/>
+      <c r="AV14" s="35"/>
       <c r="AW14" s="5"/>
       <c r="AX14" s="17"/>
-      <c r="AY14" s="40"/>
+      <c r="AY14" s="21"/>
       <c r="AZ14" s="17"/>
       <c r="BA14" s="17"/>
       <c r="BB14" s="17"/>
       <c r="BC14" s="5"/>
-      <c r="BD14" s="38"/>
-      <c r="BE14" s="38"/>
-      <c r="BF14" s="38"/>
-      <c r="BG14" s="38"/>
-      <c r="BH14" s="38"/>
-      <c r="BI14" s="38"/>
-      <c r="BJ14" s="38"/>
-      <c r="BK14" s="38"/>
-      <c r="BL14" s="39"/>
+      <c r="BD14" s="29"/>
+      <c r="BE14" s="29"/>
+      <c r="BF14" s="29"/>
+      <c r="BG14" s="29"/>
+      <c r="BH14" s="29"/>
+      <c r="BI14" s="29"/>
+      <c r="BJ14" s="29"/>
+      <c r="BK14" s="29"/>
+      <c r="BL14" s="41"/>
     </row>
-    <row r="15" spans="2:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L15" s="37"/>
+    <row r="15" spans="2:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L15" s="35"/>
       <c r="M15" s="5"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
       <c r="R15" s="17"/>
       <c r="S15" s="5"/>
-      <c r="T15" s="38"/>
+      <c r="T15" s="29"/>
       <c r="U15" s="5"/>
-      <c r="V15" s="40"/>
-      <c r="W15" s="40"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
       <c r="X15" s="17"/>
-      <c r="Y15" s="40"/>
-      <c r="Z15" s="40"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
       <c r="AA15" s="5"/>
-      <c r="AB15" s="39"/>
-      <c r="AD15" s="37"/>
+      <c r="AB15" s="41"/>
+      <c r="AD15" s="35"/>
       <c r="AE15" s="5"/>
       <c r="AF15" s="17"/>
       <c r="AG15" s="17"/>
@@ -4132,7 +4126,7 @@
       <c r="AI15" s="17"/>
       <c r="AJ15" s="17"/>
       <c r="AK15" s="5"/>
-      <c r="AL15" s="38"/>
+      <c r="AL15" s="29"/>
       <c r="AM15" s="5"/>
       <c r="AN15" s="17"/>
       <c r="AO15" s="17"/>
@@ -4140,27 +4134,27 @@
       <c r="AQ15" s="17"/>
       <c r="AR15" s="17"/>
       <c r="AS15" s="5"/>
-      <c r="AT15" s="39"/>
-      <c r="AV15" s="37"/>
+      <c r="AT15" s="41"/>
+      <c r="AV15" s="35"/>
       <c r="AW15" s="5"/>
       <c r="AX15" s="17"/>
-      <c r="AY15" s="40"/>
+      <c r="AY15" s="21"/>
       <c r="AZ15" s="17"/>
-      <c r="BA15" s="40"/>
+      <c r="BA15" s="21"/>
       <c r="BB15" s="17"/>
       <c r="BC15" s="5"/>
-      <c r="BD15" s="38"/>
-      <c r="BE15" s="38"/>
-      <c r="BF15" s="38"/>
-      <c r="BG15" s="38"/>
-      <c r="BH15" s="38"/>
-      <c r="BI15" s="38"/>
-      <c r="BJ15" s="38"/>
-      <c r="BK15" s="38"/>
-      <c r="BL15" s="39"/>
+      <c r="BD15" s="29"/>
+      <c r="BE15" s="29"/>
+      <c r="BF15" s="29"/>
+      <c r="BG15" s="29"/>
+      <c r="BH15" s="29"/>
+      <c r="BI15" s="29"/>
+      <c r="BJ15" s="29"/>
+      <c r="BK15" s="29"/>
+      <c r="BL15" s="41"/>
     </row>
-    <row r="16" spans="2:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L16" s="37"/>
+    <row r="16" spans="2:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L16" s="35"/>
       <c r="M16" s="5"/>
       <c r="N16" s="17"/>
       <c r="O16" s="17"/>
@@ -4168,7 +4162,7 @@
       <c r="Q16" s="17"/>
       <c r="R16" s="17"/>
       <c r="S16" s="5"/>
-      <c r="T16" s="38"/>
+      <c r="T16" s="29"/>
       <c r="U16" s="5"/>
       <c r="V16" s="17"/>
       <c r="W16" s="17"/>
@@ -4176,44 +4170,44 @@
       <c r="Y16" s="17"/>
       <c r="Z16" s="17"/>
       <c r="AA16" s="5"/>
-      <c r="AB16" s="39"/>
-      <c r="AD16" s="37"/>
+      <c r="AB16" s="41"/>
+      <c r="AD16" s="35"/>
       <c r="AE16" s="5"/>
-      <c r="AF16" s="40"/>
-      <c r="AG16" s="40"/>
-      <c r="AH16" s="40"/>
+      <c r="AF16" s="21"/>
+      <c r="AG16" s="21"/>
+      <c r="AH16" s="21"/>
       <c r="AI16" s="17"/>
       <c r="AJ16" s="17"/>
       <c r="AK16" s="5"/>
-      <c r="AL16" s="38"/>
+      <c r="AL16" s="29"/>
       <c r="AM16" s="5"/>
       <c r="AN16" s="17"/>
       <c r="AO16" s="17"/>
-      <c r="AP16" s="40"/>
-      <c r="AQ16" s="40"/>
-      <c r="AR16" s="40"/>
+      <c r="AP16" s="21"/>
+      <c r="AQ16" s="21"/>
+      <c r="AR16" s="21"/>
       <c r="AS16" s="5"/>
-      <c r="AT16" s="39"/>
-      <c r="AV16" s="37"/>
+      <c r="AT16" s="41"/>
+      <c r="AV16" s="35"/>
       <c r="AW16" s="5"/>
       <c r="AX16" s="17"/>
-      <c r="AY16" s="40"/>
+      <c r="AY16" s="21"/>
       <c r="AZ16" s="17"/>
-      <c r="BA16" s="40"/>
+      <c r="BA16" s="21"/>
       <c r="BB16" s="17"/>
       <c r="BC16" s="5"/>
-      <c r="BD16" s="38"/>
-      <c r="BE16" s="38"/>
-      <c r="BF16" s="38"/>
-      <c r="BG16" s="38"/>
-      <c r="BH16" s="38"/>
-      <c r="BI16" s="38"/>
-      <c r="BJ16" s="38"/>
-      <c r="BK16" s="38"/>
-      <c r="BL16" s="39"/>
+      <c r="BD16" s="29"/>
+      <c r="BE16" s="29"/>
+      <c r="BF16" s="29"/>
+      <c r="BG16" s="29"/>
+      <c r="BH16" s="29"/>
+      <c r="BI16" s="29"/>
+      <c r="BJ16" s="29"/>
+      <c r="BK16" s="29"/>
+      <c r="BL16" s="41"/>
     </row>
-    <row r="17" spans="12:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L17" s="37"/>
+    <row r="17" spans="12:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L17" s="35"/>
       <c r="M17" s="5"/>
       <c r="N17" s="17"/>
       <c r="O17" s="17"/>
@@ -4221,7 +4215,7 @@
       <c r="Q17" s="17"/>
       <c r="R17" s="17"/>
       <c r="S17" s="5"/>
-      <c r="T17" s="38"/>
+      <c r="T17" s="29"/>
       <c r="U17" s="5"/>
       <c r="V17" s="17"/>
       <c r="W17" s="17"/>
@@ -4229,8 +4223,8 @@
       <c r="Y17" s="17"/>
       <c r="Z17" s="17"/>
       <c r="AA17" s="5"/>
-      <c r="AB17" s="39"/>
-      <c r="AD17" s="37"/>
+      <c r="AB17" s="41"/>
+      <c r="AD17" s="35"/>
       <c r="AE17" s="5"/>
       <c r="AF17" s="17"/>
       <c r="AG17" s="17"/>
@@ -4238,35 +4232,35 @@
       <c r="AI17" s="17"/>
       <c r="AJ17" s="17"/>
       <c r="AK17" s="5"/>
-      <c r="AL17" s="38"/>
+      <c r="AL17" s="29"/>
       <c r="AM17" s="5"/>
-      <c r="AN17" s="40"/>
+      <c r="AN17" s="21"/>
       <c r="AO17" s="17"/>
       <c r="AP17" s="17"/>
       <c r="AQ17" s="17"/>
       <c r="AR17" s="17"/>
       <c r="AS17" s="5"/>
-      <c r="AT17" s="39"/>
-      <c r="AV17" s="37"/>
+      <c r="AT17" s="41"/>
+      <c r="AV17" s="35"/>
       <c r="AW17" s="5"/>
       <c r="AX17" s="17"/>
-      <c r="AY17" s="40"/>
+      <c r="AY17" s="21"/>
       <c r="AZ17" s="17"/>
-      <c r="BA17" s="40"/>
+      <c r="BA17" s="21"/>
       <c r="BB17" s="17"/>
       <c r="BC17" s="5"/>
-      <c r="BD17" s="38"/>
-      <c r="BE17" s="38"/>
-      <c r="BF17" s="38"/>
-      <c r="BG17" s="38"/>
-      <c r="BH17" s="38"/>
-      <c r="BI17" s="38"/>
-      <c r="BJ17" s="38"/>
-      <c r="BK17" s="38"/>
-      <c r="BL17" s="39"/>
+      <c r="BD17" s="29"/>
+      <c r="BE17" s="29"/>
+      <c r="BF17" s="29"/>
+      <c r="BG17" s="29"/>
+      <c r="BH17" s="29"/>
+      <c r="BI17" s="29"/>
+      <c r="BJ17" s="29"/>
+      <c r="BK17" s="29"/>
+      <c r="BL17" s="41"/>
     </row>
-    <row r="18" spans="12:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L18" s="37"/>
+    <row r="18" spans="12:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L18" s="35"/>
       <c r="M18" s="5"/>
       <c r="N18" s="17"/>
       <c r="O18" s="17"/>
@@ -4274,7 +4268,7 @@
       <c r="Q18" s="17"/>
       <c r="R18" s="17"/>
       <c r="S18" s="5"/>
-      <c r="T18" s="38"/>
+      <c r="T18" s="29"/>
       <c r="U18" s="5"/>
       <c r="V18" s="17"/>
       <c r="W18" s="17"/>
@@ -4282,8 +4276,8 @@
       <c r="Y18" s="17"/>
       <c r="Z18" s="17"/>
       <c r="AA18" s="5"/>
-      <c r="AB18" s="39"/>
-      <c r="AD18" s="37"/>
+      <c r="AB18" s="41"/>
+      <c r="AD18" s="35"/>
       <c r="AE18" s="5"/>
       <c r="AF18" s="17"/>
       <c r="AG18" s="17"/>
@@ -4291,7 +4285,7 @@
       <c r="AI18" s="17"/>
       <c r="AJ18" s="17"/>
       <c r="AK18" s="5"/>
-      <c r="AL18" s="38"/>
+      <c r="AL18" s="29"/>
       <c r="AM18" s="5"/>
       <c r="AN18" s="17"/>
       <c r="AO18" s="17"/>
@@ -4299,144 +4293,144 @@
       <c r="AQ18" s="17"/>
       <c r="AR18" s="17"/>
       <c r="AS18" s="5"/>
-      <c r="AT18" s="39"/>
-      <c r="AV18" s="37"/>
+      <c r="AT18" s="41"/>
+      <c r="AV18" s="35"/>
       <c r="AW18" s="5"/>
       <c r="AX18" s="17"/>
       <c r="AY18" s="17"/>
       <c r="AZ18" s="17"/>
-      <c r="BA18" s="40"/>
+      <c r="BA18" s="21"/>
       <c r="BB18" s="17"/>
       <c r="BC18" s="5"/>
-      <c r="BD18" s="38"/>
-      <c r="BE18" s="38"/>
-      <c r="BF18" s="38"/>
-      <c r="BG18" s="38"/>
-      <c r="BH18" s="38"/>
-      <c r="BI18" s="38"/>
-      <c r="BJ18" s="38"/>
-      <c r="BK18" s="38"/>
-      <c r="BL18" s="39"/>
+      <c r="BD18" s="29"/>
+      <c r="BE18" s="29"/>
+      <c r="BF18" s="29"/>
+      <c r="BG18" s="29"/>
+      <c r="BH18" s="29"/>
+      <c r="BI18" s="29"/>
+      <c r="BJ18" s="29"/>
+      <c r="BK18" s="29"/>
+      <c r="BL18" s="41"/>
     </row>
-    <row r="19" spans="12:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L19" s="37"/>
+    <row r="19" spans="12:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L19" s="35"/>
       <c r="M19" s="9"/>
       <c r="N19" s="7"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
-      <c r="S19" s="41"/>
-      <c r="T19" s="38"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="29"/>
       <c r="U19" s="9"/>
       <c r="V19" s="7"/>
       <c r="W19" s="6"/>
       <c r="X19" s="6"/>
       <c r="Y19" s="6"/>
       <c r="Z19" s="6"/>
-      <c r="AA19" s="41"/>
-      <c r="AB19" s="39"/>
-      <c r="AD19" s="37"/>
+      <c r="AA19" s="22"/>
+      <c r="AB19" s="41"/>
+      <c r="AD19" s="35"/>
       <c r="AE19" s="9"/>
       <c r="AF19" s="7"/>
       <c r="AG19" s="6"/>
       <c r="AH19" s="6"/>
       <c r="AI19" s="6"/>
       <c r="AJ19" s="6"/>
-      <c r="AK19" s="41"/>
-      <c r="AL19" s="38"/>
+      <c r="AK19" s="22"/>
+      <c r="AL19" s="29"/>
       <c r="AM19" s="9"/>
       <c r="AN19" s="7"/>
       <c r="AO19" s="6"/>
       <c r="AP19" s="6"/>
       <c r="AQ19" s="6"/>
       <c r="AR19" s="6"/>
-      <c r="AS19" s="41"/>
-      <c r="AT19" s="39"/>
-      <c r="AV19" s="37"/>
+      <c r="AS19" s="22"/>
+      <c r="AT19" s="41"/>
+      <c r="AV19" s="35"/>
       <c r="AW19" s="9"/>
       <c r="AX19" s="7"/>
       <c r="AY19" s="6"/>
       <c r="AZ19" s="6"/>
       <c r="BA19" s="6"/>
       <c r="BB19" s="6"/>
-      <c r="BC19" s="41"/>
-      <c r="BD19" s="38"/>
-      <c r="BE19" s="38"/>
-      <c r="BF19" s="38"/>
-      <c r="BG19" s="38"/>
-      <c r="BH19" s="38"/>
-      <c r="BI19" s="38"/>
-      <c r="BJ19" s="38"/>
-      <c r="BK19" s="38"/>
-      <c r="BL19" s="39"/>
+      <c r="BC19" s="22"/>
+      <c r="BD19" s="29"/>
+      <c r="BE19" s="29"/>
+      <c r="BF19" s="29"/>
+      <c r="BG19" s="29"/>
+      <c r="BH19" s="29"/>
+      <c r="BI19" s="29"/>
+      <c r="BJ19" s="29"/>
+      <c r="BK19" s="29"/>
+      <c r="BL19" s="41"/>
     </row>
-    <row r="20" spans="12:64" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L20" s="44"/>
-      <c r="M20" s="50">
+    <row r="20" spans="12:64" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L20" s="39"/>
+      <c r="M20" s="34">
         <v>3</v>
       </c>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="50"/>
-      <c r="R20" s="50"/>
-      <c r="S20" s="50"/>
-      <c r="T20" s="50"/>
-      <c r="U20" s="50"/>
-      <c r="V20" s="50"/>
-      <c r="W20" s="50"/>
-      <c r="X20" s="50"/>
-      <c r="Y20" s="50"/>
-      <c r="Z20" s="50"/>
-      <c r="AA20" s="50"/>
-      <c r="AB20" s="43"/>
-      <c r="AD20" s="37"/>
-      <c r="AE20" s="38"/>
-      <c r="AF20" s="38"/>
-      <c r="AG20" s="38"/>
-      <c r="AH20" s="38"/>
-      <c r="AI20" s="38"/>
-      <c r="AJ20" s="38"/>
-      <c r="AK20" s="38"/>
-      <c r="AL20" s="38"/>
-      <c r="AM20" s="38"/>
-      <c r="AN20" s="38"/>
-      <c r="AO20" s="38"/>
-      <c r="AP20" s="38"/>
-      <c r="AQ20" s="38"/>
-      <c r="AR20" s="38"/>
-      <c r="AS20" s="38"/>
-      <c r="AT20" s="39"/>
-      <c r="AV20" s="37"/>
-      <c r="AW20" s="38"/>
-      <c r="AX20" s="38"/>
-      <c r="AY20" s="38"/>
-      <c r="AZ20" s="38"/>
-      <c r="BA20" s="38"/>
-      <c r="BB20" s="38"/>
-      <c r="BC20" s="38"/>
-      <c r="BD20" s="38"/>
-      <c r="BE20" s="38"/>
-      <c r="BF20" s="38"/>
-      <c r="BG20" s="38"/>
-      <c r="BH20" s="38"/>
-      <c r="BI20" s="38"/>
-      <c r="BJ20" s="38"/>
-      <c r="BK20" s="38"/>
-      <c r="BL20" s="39"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="34"/>
+      <c r="W20" s="34"/>
+      <c r="X20" s="34"/>
+      <c r="Y20" s="34"/>
+      <c r="Z20" s="34"/>
+      <c r="AA20" s="34"/>
+      <c r="AB20" s="42"/>
+      <c r="AD20" s="35"/>
+      <c r="AE20" s="29"/>
+      <c r="AF20" s="29"/>
+      <c r="AG20" s="29"/>
+      <c r="AH20" s="29"/>
+      <c r="AI20" s="29"/>
+      <c r="AJ20" s="29"/>
+      <c r="AK20" s="29"/>
+      <c r="AL20" s="29"/>
+      <c r="AM20" s="29"/>
+      <c r="AN20" s="29"/>
+      <c r="AO20" s="29"/>
+      <c r="AP20" s="29"/>
+      <c r="AQ20" s="29"/>
+      <c r="AR20" s="29"/>
+      <c r="AS20" s="29"/>
+      <c r="AT20" s="41"/>
+      <c r="AV20" s="35"/>
+      <c r="AW20" s="29"/>
+      <c r="AX20" s="29"/>
+      <c r="AY20" s="29"/>
+      <c r="AZ20" s="29"/>
+      <c r="BA20" s="29"/>
+      <c r="BB20" s="29"/>
+      <c r="BC20" s="29"/>
+      <c r="BD20" s="29"/>
+      <c r="BE20" s="29"/>
+      <c r="BF20" s="29"/>
+      <c r="BG20" s="29"/>
+      <c r="BH20" s="29"/>
+      <c r="BI20" s="29"/>
+      <c r="BJ20" s="29"/>
+      <c r="BK20" s="29"/>
+      <c r="BL20" s="41"/>
     </row>
-    <row r="21" spans="12:64" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="V21" s="51"/>
-      <c r="AD21" s="37"/>
-      <c r="AE21" s="42"/>
-      <c r="AF21" s="42"/>
-      <c r="AG21" s="42"/>
-      <c r="AH21" s="42"/>
-      <c r="AI21" s="42"/>
-      <c r="AJ21" s="42"/>
-      <c r="AK21" s="42"/>
-      <c r="AL21" s="38"/>
+    <row r="21" spans="12:64" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="V21" s="24"/>
+      <c r="AD21" s="35"/>
+      <c r="AE21" s="23"/>
+      <c r="AF21" s="23"/>
+      <c r="AG21" s="23"/>
+      <c r="AH21" s="23"/>
+      <c r="AI21" s="23"/>
+      <c r="AJ21" s="23"/>
+      <c r="AK21" s="23"/>
+      <c r="AL21" s="29"/>
       <c r="AM21" s="8"/>
       <c r="AN21" s="7"/>
       <c r="AO21" s="6"/>
@@ -4444,16 +4438,16 @@
       <c r="AQ21" s="6"/>
       <c r="AR21" s="6"/>
       <c r="AS21" s="16"/>
-      <c r="AT21" s="39"/>
-      <c r="AV21" s="37"/>
-      <c r="AW21" s="38"/>
-      <c r="AX21" s="38"/>
-      <c r="AY21" s="38"/>
-      <c r="AZ21" s="38"/>
-      <c r="BA21" s="38"/>
-      <c r="BB21" s="38"/>
-      <c r="BC21" s="38"/>
-      <c r="BD21" s="38"/>
+      <c r="AT21" s="41"/>
+      <c r="AV21" s="35"/>
+      <c r="AW21" s="29"/>
+      <c r="AX21" s="29"/>
+      <c r="AY21" s="29"/>
+      <c r="AZ21" s="29"/>
+      <c r="BA21" s="29"/>
+      <c r="BB21" s="29"/>
+      <c r="BC21" s="29"/>
+      <c r="BD21" s="29"/>
       <c r="BE21" s="8"/>
       <c r="BF21" s="7"/>
       <c r="BG21" s="6"/>
@@ -4461,39 +4455,39 @@
       <c r="BI21" s="6"/>
       <c r="BJ21" s="6"/>
       <c r="BK21" s="16"/>
-      <c r="BL21" s="39"/>
+      <c r="BL21" s="41"/>
     </row>
-    <row r="22" spans="12:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L22" s="45" t="s">
+    <row r="22" spans="12:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L22" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
-      <c r="S22" s="35"/>
-      <c r="T22" s="54"/>
-      <c r="U22" s="35" t="s">
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="V22" s="35"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="35"/>
-      <c r="Y22" s="35"/>
-      <c r="Z22" s="35"/>
-      <c r="AA22" s="35"/>
-      <c r="AB22" s="46"/>
-      <c r="AD22" s="37"/>
-      <c r="AE22" s="42"/>
-      <c r="AF22" s="42"/>
-      <c r="AG22" s="42"/>
-      <c r="AH22" s="42"/>
-      <c r="AI22" s="42"/>
-      <c r="AJ22" s="42"/>
-      <c r="AK22" s="42"/>
-      <c r="AL22" s="38"/>
+      <c r="V22" s="33"/>
+      <c r="W22" s="33"/>
+      <c r="X22" s="33"/>
+      <c r="Y22" s="33"/>
+      <c r="Z22" s="33"/>
+      <c r="AA22" s="33"/>
+      <c r="AB22" s="30"/>
+      <c r="AD22" s="35"/>
+      <c r="AE22" s="23"/>
+      <c r="AF22" s="23"/>
+      <c r="AG22" s="23"/>
+      <c r="AH22" s="23"/>
+      <c r="AI22" s="23"/>
+      <c r="AJ22" s="23"/>
+      <c r="AK22" s="23"/>
+      <c r="AL22" s="29"/>
       <c r="AM22" s="5"/>
       <c r="AN22" s="17"/>
       <c r="AO22" s="17"/>
@@ -4501,16 +4495,16 @@
       <c r="AQ22" s="17"/>
       <c r="AR22" s="17"/>
       <c r="AS22" s="5"/>
-      <c r="AT22" s="39"/>
-      <c r="AV22" s="37"/>
-      <c r="AW22" s="38"/>
-      <c r="AX22" s="38"/>
-      <c r="AY22" s="38"/>
-      <c r="AZ22" s="38"/>
-      <c r="BA22" s="38"/>
-      <c r="BB22" s="38"/>
-      <c r="BC22" s="38"/>
-      <c r="BD22" s="38"/>
+      <c r="AT22" s="41"/>
+      <c r="AV22" s="35"/>
+      <c r="AW22" s="29"/>
+      <c r="AX22" s="29"/>
+      <c r="AY22" s="29"/>
+      <c r="AZ22" s="29"/>
+      <c r="BA22" s="29"/>
+      <c r="BB22" s="29"/>
+      <c r="BC22" s="29"/>
+      <c r="BD22" s="29"/>
       <c r="BE22" s="5"/>
       <c r="BF22" s="17"/>
       <c r="BG22" s="17"/>
@@ -4518,18 +4512,18 @@
       <c r="BI22" s="17"/>
       <c r="BJ22" s="17"/>
       <c r="BK22" s="5"/>
-      <c r="BL22" s="39"/>
+      <c r="BL22" s="41"/>
     </row>
-    <row r="23" spans="12:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L23" s="37"/>
+    <row r="23" spans="12:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L23" s="35"/>
       <c r="M23" s="8"/>
       <c r="N23" s="7"/>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
-      <c r="S23" s="53"/>
-      <c r="T23" s="55"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="27"/>
       <c r="U23" s="8"/>
       <c r="V23" s="7"/>
       <c r="W23" s="6"/>
@@ -4537,16 +4531,16 @@
       <c r="Y23" s="6"/>
       <c r="Z23" s="6"/>
       <c r="AA23" s="16"/>
-      <c r="AB23" s="52"/>
-      <c r="AD23" s="37"/>
-      <c r="AE23" s="42"/>
-      <c r="AF23" s="42"/>
-      <c r="AG23" s="42"/>
-      <c r="AH23" s="42"/>
-      <c r="AI23" s="42"/>
-      <c r="AJ23" s="42"/>
-      <c r="AK23" s="42"/>
-      <c r="AL23" s="38"/>
+      <c r="AB23" s="31"/>
+      <c r="AD23" s="35"/>
+      <c r="AE23" s="23"/>
+      <c r="AF23" s="23"/>
+      <c r="AG23" s="23"/>
+      <c r="AH23" s="23"/>
+      <c r="AI23" s="23"/>
+      <c r="AJ23" s="23"/>
+      <c r="AK23" s="23"/>
+      <c r="AL23" s="29"/>
       <c r="AM23" s="5"/>
       <c r="AN23" s="17"/>
       <c r="AO23" s="17"/>
@@ -4554,16 +4548,16 @@
       <c r="AQ23" s="17"/>
       <c r="AR23" s="17"/>
       <c r="AS23" s="5"/>
-      <c r="AT23" s="39"/>
-      <c r="AV23" s="37"/>
-      <c r="AW23" s="38"/>
-      <c r="AX23" s="38"/>
-      <c r="AY23" s="38"/>
-      <c r="AZ23" s="38"/>
-      <c r="BA23" s="38"/>
-      <c r="BB23" s="38"/>
-      <c r="BC23" s="38"/>
-      <c r="BD23" s="38"/>
+      <c r="AT23" s="41"/>
+      <c r="AV23" s="35"/>
+      <c r="AW23" s="29"/>
+      <c r="AX23" s="29"/>
+      <c r="AY23" s="29"/>
+      <c r="AZ23" s="29"/>
+      <c r="BA23" s="29"/>
+      <c r="BB23" s="29"/>
+      <c r="BC23" s="29"/>
+      <c r="BD23" s="29"/>
       <c r="BE23" s="5"/>
       <c r="BF23" s="17"/>
       <c r="BG23" s="17"/>
@@ -4571,10 +4565,10 @@
       <c r="BI23" s="17"/>
       <c r="BJ23" s="17"/>
       <c r="BK23" s="5"/>
-      <c r="BL23" s="39"/>
+      <c r="BL23" s="41"/>
     </row>
-    <row r="24" spans="12:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L24" s="37"/>
+    <row r="24" spans="12:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L24" s="35"/>
       <c r="M24" s="5"/>
       <c r="N24" s="17"/>
       <c r="O24" s="17"/>
@@ -4582,7 +4576,7 @@
       <c r="Q24" s="17"/>
       <c r="R24" s="17"/>
       <c r="S24" s="5"/>
-      <c r="T24" s="55"/>
+      <c r="T24" s="27"/>
       <c r="U24" s="5"/>
       <c r="V24" s="17"/>
       <c r="W24" s="17"/>
@@ -4590,16 +4584,16 @@
       <c r="Y24" s="17"/>
       <c r="Z24" s="17"/>
       <c r="AA24" s="5"/>
-      <c r="AB24" s="52"/>
-      <c r="AD24" s="37"/>
-      <c r="AE24" s="42"/>
-      <c r="AF24" s="42"/>
-      <c r="AG24" s="42"/>
-      <c r="AH24" s="42"/>
-      <c r="AI24" s="42"/>
-      <c r="AJ24" s="42"/>
-      <c r="AK24" s="42"/>
-      <c r="AL24" s="38"/>
+      <c r="AB24" s="31"/>
+      <c r="AD24" s="35"/>
+      <c r="AE24" s="23"/>
+      <c r="AF24" s="23"/>
+      <c r="AG24" s="23"/>
+      <c r="AH24" s="23"/>
+      <c r="AI24" s="23"/>
+      <c r="AJ24" s="23"/>
+      <c r="AK24" s="23"/>
+      <c r="AL24" s="29"/>
       <c r="AM24" s="5"/>
       <c r="AN24" s="17"/>
       <c r="AO24" s="17"/>
@@ -4607,16 +4601,16 @@
       <c r="AQ24" s="17"/>
       <c r="AR24" s="17"/>
       <c r="AS24" s="5"/>
-      <c r="AT24" s="39"/>
-      <c r="AV24" s="37"/>
-      <c r="AW24" s="38"/>
-      <c r="AX24" s="38"/>
-      <c r="AY24" s="38"/>
-      <c r="AZ24" s="38"/>
-      <c r="BA24" s="38"/>
-      <c r="BB24" s="38"/>
-      <c r="BC24" s="38"/>
-      <c r="BD24" s="38"/>
+      <c r="AT24" s="41"/>
+      <c r="AV24" s="35"/>
+      <c r="AW24" s="29"/>
+      <c r="AX24" s="29"/>
+      <c r="AY24" s="29"/>
+      <c r="AZ24" s="29"/>
+      <c r="BA24" s="29"/>
+      <c r="BB24" s="29"/>
+      <c r="BC24" s="29"/>
+      <c r="BD24" s="29"/>
       <c r="BE24" s="5"/>
       <c r="BF24" s="17"/>
       <c r="BG24" s="17"/>
@@ -4624,18 +4618,18 @@
       <c r="BI24" s="17"/>
       <c r="BJ24" s="17"/>
       <c r="BK24" s="5"/>
-      <c r="BL24" s="39"/>
+      <c r="BL24" s="41"/>
     </row>
-    <row r="25" spans="12:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L25" s="37"/>
+    <row r="25" spans="12:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L25" s="35"/>
       <c r="M25" s="5"/>
       <c r="N25" s="17"/>
       <c r="O25" s="17"/>
-      <c r="P25" s="40"/>
+      <c r="P25" s="21"/>
       <c r="Q25" s="17"/>
       <c r="R25" s="17"/>
       <c r="S25" s="5"/>
-      <c r="T25" s="55"/>
+      <c r="T25" s="27"/>
       <c r="U25" s="5"/>
       <c r="V25" s="17"/>
       <c r="W25" s="17"/>
@@ -4643,16 +4637,16 @@
       <c r="Y25" s="17"/>
       <c r="Z25" s="17"/>
       <c r="AA25" s="5"/>
-      <c r="AB25" s="52"/>
-      <c r="AD25" s="37"/>
-      <c r="AE25" s="42"/>
-      <c r="AF25" s="42"/>
-      <c r="AG25" s="42"/>
-      <c r="AH25" s="42"/>
-      <c r="AI25" s="42"/>
-      <c r="AJ25" s="42"/>
-      <c r="AK25" s="42"/>
-      <c r="AL25" s="38"/>
+      <c r="AB25" s="31"/>
+      <c r="AD25" s="35"/>
+      <c r="AE25" s="23"/>
+      <c r="AF25" s="23"/>
+      <c r="AG25" s="23"/>
+      <c r="AH25" s="23"/>
+      <c r="AI25" s="23"/>
+      <c r="AJ25" s="23"/>
+      <c r="AK25" s="23"/>
+      <c r="AL25" s="29"/>
       <c r="AM25" s="5"/>
       <c r="AN25" s="17"/>
       <c r="AO25" s="17"/>
@@ -4660,16 +4654,16 @@
       <c r="AQ25" s="17"/>
       <c r="AR25" s="17"/>
       <c r="AS25" s="5"/>
-      <c r="AT25" s="39"/>
-      <c r="AV25" s="37"/>
-      <c r="AW25" s="38"/>
-      <c r="AX25" s="38"/>
-      <c r="AY25" s="38"/>
-      <c r="AZ25" s="38"/>
-      <c r="BA25" s="38"/>
-      <c r="BB25" s="38"/>
-      <c r="BC25" s="38"/>
-      <c r="BD25" s="38"/>
+      <c r="AT25" s="41"/>
+      <c r="AV25" s="35"/>
+      <c r="AW25" s="29"/>
+      <c r="AX25" s="29"/>
+      <c r="AY25" s="29"/>
+      <c r="AZ25" s="29"/>
+      <c r="BA25" s="29"/>
+      <c r="BB25" s="29"/>
+      <c r="BC25" s="29"/>
+      <c r="BD25" s="29"/>
       <c r="BE25" s="5"/>
       <c r="BF25" s="17"/>
       <c r="BG25" s="17"/>
@@ -4677,10 +4671,10 @@
       <c r="BI25" s="17"/>
       <c r="BJ25" s="17"/>
       <c r="BK25" s="5"/>
-      <c r="BL25" s="39"/>
+      <c r="BL25" s="41"/>
     </row>
-    <row r="26" spans="12:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L26" s="37"/>
+    <row r="26" spans="12:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L26" s="35"/>
       <c r="M26" s="5"/>
       <c r="N26" s="17"/>
       <c r="O26" s="17"/>
@@ -4688,7 +4682,7 @@
       <c r="Q26" s="17"/>
       <c r="R26" s="17"/>
       <c r="S26" s="5"/>
-      <c r="T26" s="55"/>
+      <c r="T26" s="27"/>
       <c r="U26" s="5"/>
       <c r="V26" s="17"/>
       <c r="W26" s="17"/>
@@ -4696,16 +4690,16 @@
       <c r="Y26" s="17"/>
       <c r="Z26" s="17"/>
       <c r="AA26" s="5"/>
-      <c r="AB26" s="52"/>
-      <c r="AD26" s="37"/>
-      <c r="AE26" s="42"/>
-      <c r="AF26" s="42"/>
-      <c r="AG26" s="42"/>
-      <c r="AH26" s="42"/>
-      <c r="AI26" s="42"/>
-      <c r="AJ26" s="42"/>
-      <c r="AK26" s="42"/>
-      <c r="AL26" s="38"/>
+      <c r="AB26" s="31"/>
+      <c r="AD26" s="35"/>
+      <c r="AE26" s="23"/>
+      <c r="AF26" s="23"/>
+      <c r="AG26" s="23"/>
+      <c r="AH26" s="23"/>
+      <c r="AI26" s="23"/>
+      <c r="AJ26" s="23"/>
+      <c r="AK26" s="23"/>
+      <c r="AL26" s="29"/>
       <c r="AM26" s="5"/>
       <c r="AN26" s="17"/>
       <c r="AO26" s="17"/>
@@ -4713,16 +4707,16 @@
       <c r="AQ26" s="17"/>
       <c r="AR26" s="17"/>
       <c r="AS26" s="5"/>
-      <c r="AT26" s="39"/>
-      <c r="AV26" s="37"/>
-      <c r="AW26" s="38"/>
-      <c r="AX26" s="38"/>
-      <c r="AY26" s="38"/>
-      <c r="AZ26" s="38"/>
-      <c r="BA26" s="38"/>
-      <c r="BB26" s="38"/>
-      <c r="BC26" s="38"/>
-      <c r="BD26" s="38"/>
+      <c r="AT26" s="41"/>
+      <c r="AV26" s="35"/>
+      <c r="AW26" s="29"/>
+      <c r="AX26" s="29"/>
+      <c r="AY26" s="29"/>
+      <c r="AZ26" s="29"/>
+      <c r="BA26" s="29"/>
+      <c r="BB26" s="29"/>
+      <c r="BC26" s="29"/>
+      <c r="BD26" s="29"/>
       <c r="BE26" s="5"/>
       <c r="BF26" s="17"/>
       <c r="BG26" s="17"/>
@@ -4730,61 +4724,61 @@
       <c r="BI26" s="17"/>
       <c r="BJ26" s="17"/>
       <c r="BK26" s="5"/>
-      <c r="BL26" s="39"/>
+      <c r="BL26" s="41"/>
     </row>
-    <row r="27" spans="12:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L27" s="37"/>
+    <row r="27" spans="12:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L27" s="35"/>
       <c r="M27" s="5"/>
       <c r="O27" s="17"/>
       <c r="P27" s="17"/>
       <c r="Q27" s="17"/>
       <c r="R27" s="17"/>
       <c r="S27" s="5"/>
-      <c r="T27" s="55"/>
+      <c r="T27" s="27"/>
       <c r="U27" s="5"/>
       <c r="W27" s="17"/>
       <c r="X27" s="17"/>
       <c r="Y27" s="17"/>
       <c r="Z27" s="17"/>
       <c r="AA27" s="5"/>
-      <c r="AB27" s="52"/>
-      <c r="AD27" s="37"/>
-      <c r="AE27" s="42"/>
-      <c r="AF27" s="42"/>
-      <c r="AG27" s="42"/>
-      <c r="AH27" s="42"/>
-      <c r="AI27" s="42"/>
-      <c r="AJ27" s="42"/>
-      <c r="AK27" s="42"/>
-      <c r="AL27" s="38"/>
+      <c r="AB27" s="31"/>
+      <c r="AD27" s="35"/>
+      <c r="AE27" s="23"/>
+      <c r="AF27" s="23"/>
+      <c r="AG27" s="23"/>
+      <c r="AH27" s="23"/>
+      <c r="AI27" s="23"/>
+      <c r="AJ27" s="23"/>
+      <c r="AK27" s="23"/>
+      <c r="AL27" s="29"/>
       <c r="AM27" s="9"/>
       <c r="AN27" s="7"/>
       <c r="AO27" s="6"/>
       <c r="AP27" s="6"/>
       <c r="AQ27" s="6"/>
       <c r="AR27" s="6"/>
-      <c r="AS27" s="41"/>
-      <c r="AT27" s="39"/>
-      <c r="AV27" s="37"/>
-      <c r="AW27" s="38"/>
-      <c r="AX27" s="38"/>
-      <c r="AY27" s="38"/>
-      <c r="AZ27" s="38"/>
-      <c r="BA27" s="38"/>
-      <c r="BB27" s="38"/>
-      <c r="BC27" s="38"/>
-      <c r="BD27" s="38"/>
+      <c r="AS27" s="22"/>
+      <c r="AT27" s="41"/>
+      <c r="AV27" s="35"/>
+      <c r="AW27" s="29"/>
+      <c r="AX27" s="29"/>
+      <c r="AY27" s="29"/>
+      <c r="AZ27" s="29"/>
+      <c r="BA27" s="29"/>
+      <c r="BB27" s="29"/>
+      <c r="BC27" s="29"/>
+      <c r="BD27" s="29"/>
       <c r="BE27" s="9"/>
       <c r="BF27" s="7"/>
       <c r="BG27" s="6"/>
       <c r="BH27" s="6"/>
       <c r="BI27" s="6"/>
       <c r="BJ27" s="6"/>
-      <c r="BK27" s="41"/>
-      <c r="BL27" s="39"/>
+      <c r="BK27" s="22"/>
+      <c r="BL27" s="41"/>
     </row>
-    <row r="28" spans="12:64" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L28" s="37"/>
+    <row r="28" spans="12:64" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L28" s="35"/>
       <c r="M28" s="5"/>
       <c r="N28" s="17"/>
       <c r="O28" s="17"/>
@@ -4792,7 +4786,7 @@
       <c r="Q28" s="17"/>
       <c r="R28" s="17"/>
       <c r="S28" s="5"/>
-      <c r="T28" s="55"/>
+      <c r="T28" s="27"/>
       <c r="U28" s="5"/>
       <c r="V28" s="17"/>
       <c r="W28" s="17"/>
@@ -4800,94 +4794,94 @@
       <c r="Y28" s="17"/>
       <c r="Z28" s="17"/>
       <c r="AA28" s="5"/>
-      <c r="AB28" s="52"/>
-      <c r="AD28" s="44"/>
-      <c r="AE28" s="50">
+      <c r="AB28" s="31"/>
+      <c r="AD28" s="39"/>
+      <c r="AE28" s="34">
         <v>6</v>
       </c>
-      <c r="AF28" s="50"/>
-      <c r="AG28" s="50"/>
-      <c r="AH28" s="50"/>
-      <c r="AI28" s="50"/>
-      <c r="AJ28" s="50"/>
-      <c r="AK28" s="50"/>
-      <c r="AL28" s="50"/>
-      <c r="AM28" s="50"/>
-      <c r="AN28" s="50"/>
-      <c r="AO28" s="50"/>
-      <c r="AP28" s="50"/>
-      <c r="AQ28" s="50"/>
-      <c r="AR28" s="50"/>
-      <c r="AS28" s="50"/>
-      <c r="AT28" s="43"/>
-      <c r="AV28" s="44"/>
-      <c r="AW28" s="50">
+      <c r="AF28" s="34"/>
+      <c r="AG28" s="34"/>
+      <c r="AH28" s="34"/>
+      <c r="AI28" s="34"/>
+      <c r="AJ28" s="34"/>
+      <c r="AK28" s="34"/>
+      <c r="AL28" s="34"/>
+      <c r="AM28" s="34"/>
+      <c r="AN28" s="34"/>
+      <c r="AO28" s="34"/>
+      <c r="AP28" s="34"/>
+      <c r="AQ28" s="34"/>
+      <c r="AR28" s="34"/>
+      <c r="AS28" s="34"/>
+      <c r="AT28" s="42"/>
+      <c r="AV28" s="39"/>
+      <c r="AW28" s="34">
         <v>4</v>
       </c>
-      <c r="AX28" s="50"/>
-      <c r="AY28" s="50"/>
-      <c r="AZ28" s="50"/>
-      <c r="BA28" s="50"/>
-      <c r="BB28" s="50"/>
-      <c r="BC28" s="50"/>
-      <c r="BD28" s="50"/>
-      <c r="BE28" s="50"/>
-      <c r="BF28" s="50"/>
-      <c r="BG28" s="50"/>
-      <c r="BH28" s="50"/>
-      <c r="BI28" s="50"/>
-      <c r="BJ28" s="50"/>
-      <c r="BK28" s="50"/>
-      <c r="BL28" s="43"/>
+      <c r="AX28" s="34"/>
+      <c r="AY28" s="34"/>
+      <c r="AZ28" s="34"/>
+      <c r="BA28" s="34"/>
+      <c r="BB28" s="34"/>
+      <c r="BC28" s="34"/>
+      <c r="BD28" s="34"/>
+      <c r="BE28" s="34"/>
+      <c r="BF28" s="34"/>
+      <c r="BG28" s="34"/>
+      <c r="BH28" s="34"/>
+      <c r="BI28" s="34"/>
+      <c r="BJ28" s="34"/>
+      <c r="BK28" s="34"/>
+      <c r="BL28" s="42"/>
     </row>
-    <row r="29" spans="12:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L29" s="37"/>
+    <row r="29" spans="12:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L29" s="35"/>
       <c r="M29" s="9"/>
       <c r="N29" s="7"/>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
-      <c r="S29" s="41"/>
-      <c r="T29" s="55"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="27"/>
       <c r="U29" s="9"/>
       <c r="V29" s="7"/>
       <c r="W29" s="6"/>
       <c r="X29" s="6"/>
       <c r="Y29" s="6"/>
       <c r="Z29" s="6"/>
-      <c r="AA29" s="41"/>
-      <c r="AB29" s="52"/>
+      <c r="AA29" s="22"/>
+      <c r="AB29" s="31"/>
     </row>
-    <row r="30" spans="12:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L30" s="37"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
-      <c r="O30" s="38"/>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="38"/>
-      <c r="R30" s="38"/>
-      <c r="S30" s="38"/>
-      <c r="T30" s="55"/>
-      <c r="U30" s="38"/>
-      <c r="V30" s="38"/>
-      <c r="W30" s="38"/>
-      <c r="X30" s="38"/>
-      <c r="Y30" s="38"/>
-      <c r="Z30" s="38"/>
-      <c r="AA30" s="38"/>
-      <c r="AB30" s="52"/>
+    <row r="30" spans="12:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L30" s="35"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="27"/>
+      <c r="U30" s="29"/>
+      <c r="V30" s="29"/>
+      <c r="W30" s="29"/>
+      <c r="X30" s="29"/>
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="29"/>
+      <c r="AA30" s="29"/>
+      <c r="AB30" s="31"/>
     </row>
-    <row r="31" spans="12:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L31" s="37"/>
+    <row r="31" spans="12:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L31" s="35"/>
       <c r="M31" s="8"/>
       <c r="N31" s="7"/>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
-      <c r="S31" s="53"/>
-      <c r="T31" s="55"/>
+      <c r="S31" s="25"/>
+      <c r="T31" s="27"/>
       <c r="U31" s="8"/>
       <c r="V31" s="7"/>
       <c r="W31" s="6"/>
@@ -4895,10 +4889,10 @@
       <c r="Y31" s="6"/>
       <c r="Z31" s="6"/>
       <c r="AA31" s="16"/>
-      <c r="AB31" s="52"/>
+      <c r="AB31" s="31"/>
     </row>
-    <row r="32" spans="12:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L32" s="37"/>
+    <row r="32" spans="12:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L32" s="35"/>
       <c r="M32" s="5"/>
       <c r="N32" s="17"/>
       <c r="O32" s="17"/>
@@ -4906,7 +4900,7 @@
       <c r="Q32" s="17"/>
       <c r="R32" s="17"/>
       <c r="S32" s="5"/>
-      <c r="T32" s="55"/>
+      <c r="T32" s="27"/>
       <c r="U32" s="5"/>
       <c r="V32" s="17"/>
       <c r="W32" s="17"/>
@@ -4914,10 +4908,10 @@
       <c r="Y32" s="17"/>
       <c r="Z32" s="17"/>
       <c r="AA32" s="5"/>
-      <c r="AB32" s="52"/>
+      <c r="AB32" s="31"/>
     </row>
-    <row r="33" spans="12:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L33" s="37"/>
+    <row r="33" spans="12:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L33" s="35"/>
       <c r="M33" s="5"/>
       <c r="N33" s="17"/>
       <c r="O33" s="17"/>
@@ -4925,7 +4919,7 @@
       <c r="Q33" s="17"/>
       <c r="R33" s="17"/>
       <c r="S33" s="5"/>
-      <c r="T33" s="55"/>
+      <c r="T33" s="27"/>
       <c r="U33" s="5"/>
       <c r="V33" s="17"/>
       <c r="W33" s="17"/>
@@ -4933,10 +4927,10 @@
       <c r="Y33" s="17"/>
       <c r="Z33" s="17"/>
       <c r="AA33" s="5"/>
-      <c r="AB33" s="52"/>
+      <c r="AB33" s="31"/>
     </row>
-    <row r="34" spans="12:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L34" s="37"/>
+    <row r="34" spans="12:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L34" s="35"/>
       <c r="M34" s="5"/>
       <c r="N34" s="17"/>
       <c r="O34" s="17"/>
@@ -4944,7 +4938,7 @@
       <c r="Q34" s="17"/>
       <c r="R34" s="17"/>
       <c r="S34" s="5"/>
-      <c r="T34" s="55"/>
+      <c r="T34" s="27"/>
       <c r="U34" s="5"/>
       <c r="V34" s="17"/>
       <c r="W34" s="17"/>
@@ -4952,10 +4946,10 @@
       <c r="Y34" s="17"/>
       <c r="Z34" s="17"/>
       <c r="AA34" s="5"/>
-      <c r="AB34" s="52"/>
+      <c r="AB34" s="31"/>
     </row>
-    <row r="35" spans="12:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L35" s="37"/>
+    <row r="35" spans="12:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L35" s="35"/>
       <c r="M35" s="5"/>
       <c r="N35" s="17"/>
       <c r="O35" s="17"/>
@@ -4963,7 +4957,7 @@
       <c r="Q35" s="17"/>
       <c r="R35" s="17"/>
       <c r="S35" s="5"/>
-      <c r="T35" s="55"/>
+      <c r="T35" s="27"/>
       <c r="U35" s="5"/>
       <c r="V35" s="17"/>
       <c r="W35" s="17"/>
@@ -4971,10 +4965,10 @@
       <c r="Y35" s="17"/>
       <c r="Z35" s="17"/>
       <c r="AA35" s="5"/>
-      <c r="AB35" s="52"/>
+      <c r="AB35" s="31"/>
     </row>
-    <row r="36" spans="12:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L36" s="37"/>
+    <row r="36" spans="12:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L36" s="35"/>
       <c r="M36" s="5"/>
       <c r="N36" s="17"/>
       <c r="O36" s="17"/>
@@ -4982,7 +4976,7 @@
       <c r="Q36" s="17"/>
       <c r="R36" s="17"/>
       <c r="S36" s="5"/>
-      <c r="T36" s="55"/>
+      <c r="T36" s="27"/>
       <c r="U36" s="5"/>
       <c r="V36" s="17"/>
       <c r="W36" s="17"/>
@@ -4990,82 +4984,61 @@
       <c r="Y36" s="17"/>
       <c r="Z36" s="17"/>
       <c r="AA36" s="5"/>
-      <c r="AB36" s="52"/>
+      <c r="AB36" s="31"/>
     </row>
-    <row r="37" spans="12:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L37" s="37"/>
+    <row r="37" spans="12:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L37" s="35"/>
       <c r="M37" s="9"/>
       <c r="N37" s="7"/>
       <c r="O37" s="6"/>
       <c r="P37" s="6"/>
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
-      <c r="S37" s="41"/>
-      <c r="T37" s="55"/>
+      <c r="S37" s="22"/>
+      <c r="T37" s="27"/>
       <c r="U37" s="9"/>
       <c r="V37" s="7"/>
       <c r="W37" s="6"/>
       <c r="X37" s="6"/>
       <c r="Y37" s="6"/>
       <c r="Z37" s="6"/>
-      <c r="AA37" s="41"/>
-      <c r="AB37" s="52"/>
+      <c r="AA37" s="22"/>
+      <c r="AB37" s="31"/>
     </row>
-    <row r="38" spans="12:28" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L38" s="49">
+    <row r="38" spans="12:28" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L38" s="36">
         <v>3</v>
       </c>
-      <c r="M38" s="50"/>
-      <c r="N38" s="50"/>
-      <c r="O38" s="50"/>
-      <c r="P38" s="50"/>
-      <c r="Q38" s="50"/>
-      <c r="R38" s="50"/>
-      <c r="S38" s="50"/>
-      <c r="T38" s="56"/>
-      <c r="U38" s="50">
+      <c r="M38" s="34"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="34"/>
+      <c r="P38" s="34"/>
+      <c r="Q38" s="34"/>
+      <c r="R38" s="34"/>
+      <c r="S38" s="34"/>
+      <c r="T38" s="28"/>
+      <c r="U38" s="34">
         <v>3</v>
       </c>
-      <c r="V38" s="50"/>
-      <c r="W38" s="50"/>
-      <c r="X38" s="50"/>
-      <c r="Y38" s="50"/>
-      <c r="Z38" s="50"/>
-      <c r="AA38" s="50"/>
-      <c r="AB38" s="48"/>
+      <c r="V38" s="34"/>
+      <c r="W38" s="34"/>
+      <c r="X38" s="34"/>
+      <c r="Y38" s="34"/>
+      <c r="Z38" s="34"/>
+      <c r="AA38" s="34"/>
+      <c r="AB38" s="32"/>
     </row>
-    <row r="39" spans="12:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="12:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AB39" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="U30:AA30"/>
-    <mergeCell ref="AB22:AB38"/>
-    <mergeCell ref="U22:AA22"/>
-    <mergeCell ref="U38:AA38"/>
-    <mergeCell ref="M30:S30"/>
-    <mergeCell ref="L23:L37"/>
-    <mergeCell ref="L38:S38"/>
-    <mergeCell ref="L22:S22"/>
-    <mergeCell ref="AE28:AS28"/>
-    <mergeCell ref="AD12:AD28"/>
-    <mergeCell ref="AE10:AS10"/>
-    <mergeCell ref="AT2:AT10"/>
-    <mergeCell ref="AD2:AD10"/>
-    <mergeCell ref="T2:T10"/>
-    <mergeCell ref="U2:AA2"/>
-    <mergeCell ref="AB2:AB10"/>
-    <mergeCell ref="U10:AA10"/>
-    <mergeCell ref="AE2:AS2"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="AW2:BK2"/>
-    <mergeCell ref="AV2:AV10"/>
-    <mergeCell ref="B3:I4"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="AW12:BK12"/>
+    <mergeCell ref="BL12:BL28"/>
+    <mergeCell ref="AW20:BD20"/>
+    <mergeCell ref="BD21:BD27"/>
+    <mergeCell ref="BD13:BD19"/>
+    <mergeCell ref="BE20:BK20"/>
     <mergeCell ref="BL2:BL10"/>
     <mergeCell ref="AW10:BK10"/>
     <mergeCell ref="L12:L20"/>
@@ -5082,14 +5055,35 @@
     <mergeCell ref="AT12:AT28"/>
     <mergeCell ref="AE20:AL20"/>
     <mergeCell ref="AL21:AL27"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="AW2:BK2"/>
+    <mergeCell ref="AV2:AV10"/>
+    <mergeCell ref="B3:I4"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="AE10:AS10"/>
+    <mergeCell ref="AT2:AT10"/>
+    <mergeCell ref="AD2:AD10"/>
+    <mergeCell ref="T2:T10"/>
+    <mergeCell ref="U2:AA2"/>
+    <mergeCell ref="AB2:AB10"/>
+    <mergeCell ref="U10:AA10"/>
+    <mergeCell ref="AE2:AS2"/>
+    <mergeCell ref="L23:L37"/>
+    <mergeCell ref="L38:S38"/>
+    <mergeCell ref="L22:S22"/>
+    <mergeCell ref="AE28:AS28"/>
+    <mergeCell ref="AD12:AD28"/>
     <mergeCell ref="AL13:AL19"/>
     <mergeCell ref="AM20:AS20"/>
-    <mergeCell ref="AW12:BK12"/>
-    <mergeCell ref="BL12:BL28"/>
-    <mergeCell ref="AW20:BD20"/>
-    <mergeCell ref="BD21:BD27"/>
-    <mergeCell ref="BD13:BD19"/>
-    <mergeCell ref="BE20:BK20"/>
+    <mergeCell ref="U30:AA30"/>
+    <mergeCell ref="AB22:AB38"/>
+    <mergeCell ref="U22:AA22"/>
+    <mergeCell ref="U38:AA38"/>
+    <mergeCell ref="M30:S30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/PartyBall/PartyBall'sStages.xlsx
+++ b/Documents/PartyBall/PartyBall'sStages.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsh39\OneDrive\project\Jagu_Agis\Documents\PartyBall\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BED43A-0500-4ADD-B916-BBA233C8241A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataBase" sheetId="1" r:id="rId1"/>
@@ -97,7 +103,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -671,9 +677,81 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -681,78 +759,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -792,7 +798,7 @@
         <xdr:cNvPr id="2" name="타원 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A06941AD-939B-4FC4-90C1-8D3063883FFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A06941AD-939B-4FC4-90C1-8D3063883FFB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -860,7 +866,7 @@
         <xdr:cNvPr id="3" name="사각형: 둥근 모서리 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FA34080B-E1BC-4FBC-ACBD-A3C9D0F6C44A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA34080B-E1BC-4FBC-ACBD-A3C9D0F6C44A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -928,7 +934,7 @@
         <xdr:cNvPr id="4" name="타원 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C5C6E29-7E4D-471D-9557-8765E96EF974}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C5C6E29-7E4D-471D-9557-8765E96EF974}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -996,7 +1002,7 @@
         <xdr:cNvPr id="6" name="사각형: 둥근 모서리 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F54DAC5C-0A1A-4AA2-B103-CA0EAAE4A741}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F54DAC5C-0A1A-4AA2-B103-CA0EAAE4A741}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1064,7 +1070,7 @@
         <xdr:cNvPr id="7" name="타원 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D43ED5B3-9D7B-495F-AC17-89512A781510}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D43ED5B3-9D7B-495F-AC17-89512A781510}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1132,7 +1138,7 @@
         <xdr:cNvPr id="8" name="사각형: 둥근 모서리 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C92AEC37-3F31-48C6-98BF-23B9149BB8C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C92AEC37-3F31-48C6-98BF-23B9149BB8C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1200,7 +1206,7 @@
         <xdr:cNvPr id="19" name="타원 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF169E27-F9DC-440B-BCF2-459DB73C1B96}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF169E27-F9DC-440B-BCF2-459DB73C1B96}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1268,7 +1274,7 @@
         <xdr:cNvPr id="20" name="사각형: 둥근 모서리 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D8A39776-1FCF-4C1B-95F4-689D3FAEC7BC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8A39776-1FCF-4C1B-95F4-689D3FAEC7BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1336,7 +1342,7 @@
         <xdr:cNvPr id="10" name="타원 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{320F703C-628E-4099-A822-F18C54491598}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{320F703C-628E-4099-A822-F18C54491598}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1404,7 +1410,7 @@
         <xdr:cNvPr id="11" name="타원 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ACF7FB6E-B4DD-484F-8DC2-1BCE43EB9EE1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF7FB6E-B4DD-484F-8DC2-1BCE43EB9EE1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1472,7 +1478,7 @@
         <xdr:cNvPr id="13" name="사각형: 둥근 모서리 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8A8F5F6B-C9D3-4F00-8FCF-804ED79271E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A8F5F6B-C9D3-4F00-8FCF-804ED79271E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1540,7 +1546,7 @@
         <xdr:cNvPr id="14" name="사각형: 둥근 모서리 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B4B669C3-BD11-489D-92FC-5616696E938B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4B669C3-BD11-489D-92FC-5616696E938B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1608,7 +1614,7 @@
         <xdr:cNvPr id="16" name="사각형: 둥근 모서리 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5F398AD0-3744-4B52-B1DC-47F6E6EC8558}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F398AD0-3744-4B52-B1DC-47F6E6EC8558}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1676,7 +1682,7 @@
         <xdr:cNvPr id="17" name="타원 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D07AEB20-87C3-4CB7-B208-42B7A7898C50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D07AEB20-87C3-4CB7-B208-42B7A7898C50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1744,7 +1750,7 @@
         <xdr:cNvPr id="18" name="사각형: 둥근 모서리 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{30B16B81-FF1C-4C38-9ACA-C8748B8B1B67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30B16B81-FF1C-4C38-9ACA-C8748B8B1B67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1812,7 +1818,7 @@
         <xdr:cNvPr id="21" name="타원 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{41072354-DB3F-47F6-BCD8-EC8C1A784BF3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41072354-DB3F-47F6-BCD8-EC8C1A784BF3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1880,7 +1886,7 @@
         <xdr:cNvPr id="22" name="사각형: 둥근 모서리 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AF77B6DD-B8FD-4B36-89F1-407E2139A625}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF77B6DD-B8FD-4B36-89F1-407E2139A625}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1948,7 +1954,7 @@
         <xdr:cNvPr id="23" name="타원 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BEF6E884-572D-4AC8-94BC-9910443FDB10}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEF6E884-572D-4AC8-94BC-9910443FDB10}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2016,7 +2022,7 @@
         <xdr:cNvPr id="24" name="사각형: 둥근 모서리 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4569F1FC-E14C-425F-8E9B-F246D48D4A3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4569F1FC-E14C-425F-8E9B-F246D48D4A3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2084,7 +2090,7 @@
         <xdr:cNvPr id="25" name="타원 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2EE0815D-D224-4546-9DA9-C67FDDAC483D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EE0815D-D224-4546-9DA9-C67FDDAC483D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2152,7 +2158,7 @@
         <xdr:cNvPr id="26" name="사각형: 둥근 모서리 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{13EC8DDA-394F-41FF-BC2F-1B98D826099A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13EC8DDA-394F-41FF-BC2F-1B98D826099A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2220,7 +2226,7 @@
         <xdr:cNvPr id="29" name="타원 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3AA89067-591F-4591-96F3-77AFDC8BEE65}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AA89067-591F-4591-96F3-77AFDC8BEE65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2288,7 +2294,7 @@
         <xdr:cNvPr id="30" name="사각형: 둥근 모서리 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BAFEFFEF-7408-414D-82E7-636217D9FE97}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAFEFFEF-7408-414D-82E7-636217D9FE97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2356,7 +2362,7 @@
         <xdr:cNvPr id="33" name="타원 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9E3A5183-B2C7-4B4F-89C3-6E067E822AFA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E3A5183-B2C7-4B4F-89C3-6E067E822AFA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2424,7 +2430,7 @@
         <xdr:cNvPr id="34" name="사각형: 둥근 모서리 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{388969CF-4BE3-485F-A2EF-67890522F5B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{388969CF-4BE3-485F-A2EF-67890522F5B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2492,7 +2498,7 @@
         <xdr:cNvPr id="36" name="타원 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C2B20864-C79C-4B99-9632-F28EE507BB67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2B20864-C79C-4B99-9632-F28EE507BB67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2560,7 +2566,7 @@
         <xdr:cNvPr id="37" name="사각형: 둥근 모서리 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{97CBFF07-CF90-4797-863A-14F134BC1F6B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97CBFF07-CF90-4797-863A-14F134BC1F6B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2628,7 +2634,7 @@
         <xdr:cNvPr id="38" name="타원 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{83E95F2B-024C-4F28-A6C6-04C70C4F1427}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83E95F2B-024C-4F28-A6C6-04C70C4F1427}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2696,7 +2702,7 @@
         <xdr:cNvPr id="39" name="사각형: 둥근 모서리 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{08F292CD-815C-446A-815A-03AD16E11C8F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08F292CD-815C-446A-815A-03AD16E11C8F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2764,7 +2770,7 @@
         <xdr:cNvPr id="40" name="타원 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EFE7BAD2-29C9-4C1E-B22C-C92881EE0AFC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFE7BAD2-29C9-4C1E-B22C-C92881EE0AFC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2832,7 +2838,7 @@
         <xdr:cNvPr id="45" name="타원 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F297A486-E37C-41B0-AB98-D049E79FA0CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F297A486-E37C-41B0-AB98-D049E79FA0CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2887,20 +2893,20 @@
       <xdr:col>22</xdr:col>
       <xdr:colOff>21516</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>42931</xdr:rowOff>
+      <xdr:rowOff>25002</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>212016</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>9313</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>224466</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="46" name="사각형: 둥근 모서리 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B6CB831D-EBF4-4A7E-9D82-A4BB55085066}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6CB831D-EBF4-4A7E-9D82-A4BB55085066}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2908,8 +2914,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5445163" y="5645872"/>
-          <a:ext cx="190500" cy="190500"/>
+          <a:off x="5346551" y="5852061"/>
+          <a:ext cx="190500" cy="199464"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2968,7 +2974,7 @@
         <xdr:cNvPr id="47" name="타원 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6A9EDFD9-E527-4656-AE0B-38FC8A67FFAF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A9EDFD9-E527-4656-AE0B-38FC8A67FFAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3036,7 +3042,7 @@
         <xdr:cNvPr id="48" name="사각형: 둥근 모서리 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2E27BF0-A3A5-4D25-959F-340B4F60B6CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2E27BF0-A3A5-4D25-959F-340B4F60B6CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3084,6 +3090,189 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="그림 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{158C02A5-0F6E-40B9-9512-A6CF3B6CEEE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9022080" y="8976360"/>
+          <a:ext cx="6355080" cy="4960620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>170329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>218290</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>216049</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="그림 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AA77170-259A-4C3D-A40B-5784DE794F6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="860611" y="10425953"/>
+          <a:ext cx="7587279" cy="2842708"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>179295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>60512</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="그림 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55C16105-B536-467E-BEBD-D5F9C62018BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="394447" y="13698071"/>
+          <a:ext cx="8993841" cy="3377453"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3378,104 +3567,104 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BL39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA13" sqref="U13:AA19"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AJ65" sqref="AJ65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="2:64" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:64" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="46"/>
-      <c r="L2" s="47" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="40"/>
+      <c r="L2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="33" t="s">
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="40"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="33" t="s">
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="30"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="33"/>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33"/>
-      <c r="AN2" s="33"/>
-      <c r="AO2" s="33"/>
-      <c r="AP2" s="33"/>
-      <c r="AQ2" s="33"/>
-      <c r="AR2" s="33"/>
-      <c r="AS2" s="33"/>
-      <c r="AT2" s="40"/>
-      <c r="AV2" s="38"/>
-      <c r="AW2" s="33" t="s">
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29"/>
+      <c r="AH2" s="29"/>
+      <c r="AI2" s="29"/>
+      <c r="AJ2" s="29"/>
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="29"/>
+      <c r="AN2" s="29"/>
+      <c r="AO2" s="29"/>
+      <c r="AP2" s="29"/>
+      <c r="AQ2" s="29"/>
+      <c r="AR2" s="29"/>
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="30"/>
+      <c r="AV2" s="35"/>
+      <c r="AW2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="AX2" s="33"/>
-      <c r="AY2" s="33"/>
-      <c r="AZ2" s="33"/>
-      <c r="BA2" s="33"/>
-      <c r="BB2" s="33"/>
-      <c r="BC2" s="33"/>
-      <c r="BD2" s="33"/>
-      <c r="BE2" s="33"/>
-      <c r="BF2" s="33"/>
-      <c r="BG2" s="33"/>
-      <c r="BH2" s="33"/>
-      <c r="BI2" s="33"/>
-      <c r="BJ2" s="33"/>
-      <c r="BK2" s="33"/>
-      <c r="BL2" s="40"/>
+      <c r="AX2" s="29"/>
+      <c r="AY2" s="29"/>
+      <c r="AZ2" s="29"/>
+      <c r="BA2" s="29"/>
+      <c r="BB2" s="29"/>
+      <c r="BC2" s="29"/>
+      <c r="BD2" s="29"/>
+      <c r="BE2" s="29"/>
+      <c r="BF2" s="29"/>
+      <c r="BG2" s="29"/>
+      <c r="BH2" s="29"/>
+      <c r="BI2" s="29"/>
+      <c r="BJ2" s="29"/>
+      <c r="BK2" s="29"/>
+      <c r="BL2" s="30"/>
     </row>
     <row r="3" spans="2:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="50"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="17"/>
       <c r="L3" s="8"/>
       <c r="M3" s="7"/>
@@ -3484,7 +3673,7 @@
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="16"/>
-      <c r="T3" s="35"/>
+      <c r="T3" s="36"/>
       <c r="U3" s="8"/>
       <c r="V3" s="7"/>
       <c r="W3" s="6"/>
@@ -3492,8 +3681,8 @@
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
       <c r="AA3" s="16"/>
-      <c r="AB3" s="41"/>
-      <c r="AD3" s="35"/>
+      <c r="AB3" s="31"/>
+      <c r="AD3" s="36"/>
       <c r="AE3" s="8"/>
       <c r="AF3" s="7"/>
       <c r="AG3" s="6"/>
@@ -3509,8 +3698,8 @@
       <c r="AQ3" s="6"/>
       <c r="AR3" s="6"/>
       <c r="AS3" s="16"/>
-      <c r="AT3" s="41"/>
-      <c r="AV3" s="35"/>
+      <c r="AT3" s="31"/>
+      <c r="AV3" s="36"/>
       <c r="AW3" s="8"/>
       <c r="AX3" s="7"/>
       <c r="AY3" s="6"/>
@@ -3518,7 +3707,7 @@
       <c r="BA3" s="6"/>
       <c r="BB3" s="6"/>
       <c r="BC3" s="16"/>
-      <c r="BD3" s="29"/>
+      <c r="BD3" s="33"/>
       <c r="BE3" s="8"/>
       <c r="BF3" s="7"/>
       <c r="BG3" s="6"/>
@@ -3526,21 +3715,21 @@
       <c r="BI3" s="6"/>
       <c r="BJ3" s="6"/>
       <c r="BK3" s="16"/>
-      <c r="BL3" s="41"/>
+      <c r="BL3" s="31"/>
     </row>
     <row r="4" spans="2:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="53"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="47"/>
       <c r="J4" s="17"/>
       <c r="L4" s="5"/>
       <c r="R4" s="5"/>
-      <c r="T4" s="35"/>
+      <c r="T4" s="36"/>
       <c r="U4" s="5"/>
       <c r="V4" s="17"/>
       <c r="W4" s="17"/>
@@ -3548,8 +3737,8 @@
       <c r="Y4" s="17"/>
       <c r="Z4" s="17"/>
       <c r="AA4" s="5"/>
-      <c r="AB4" s="41"/>
-      <c r="AD4" s="35"/>
+      <c r="AB4" s="31"/>
+      <c r="AD4" s="36"/>
       <c r="AE4" s="5"/>
       <c r="AF4" s="17"/>
       <c r="AG4" s="17"/>
@@ -3565,8 +3754,8 @@
       <c r="AQ4" s="17"/>
       <c r="AR4" s="17"/>
       <c r="AS4" s="5"/>
-      <c r="AT4" s="41"/>
-      <c r="AV4" s="35"/>
+      <c r="AT4" s="31"/>
+      <c r="AV4" s="36"/>
       <c r="AW4" s="5"/>
       <c r="AX4" s="21"/>
       <c r="AY4" s="21"/>
@@ -3574,7 +3763,7 @@
       <c r="BA4" s="17"/>
       <c r="BB4" s="17"/>
       <c r="BC4" s="5"/>
-      <c r="BD4" s="29"/>
+      <c r="BD4" s="33"/>
       <c r="BE4" s="5"/>
       <c r="BF4" s="17"/>
       <c r="BG4" s="17"/>
@@ -3582,23 +3771,23 @@
       <c r="BI4" s="17"/>
       <c r="BJ4" s="17"/>
       <c r="BK4" s="5"/>
-      <c r="BL4" s="41"/>
+      <c r="BL4" s="31"/>
     </row>
     <row r="5" spans="2:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="56"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="50"/>
       <c r="I5" s="4"/>
       <c r="J5" s="17"/>
       <c r="L5" s="5"/>
       <c r="R5" s="5"/>
-      <c r="T5" s="35"/>
+      <c r="T5" s="36"/>
       <c r="U5" s="5"/>
       <c r="V5" s="17"/>
       <c r="W5" s="17"/>
@@ -3606,8 +3795,8 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="17"/>
       <c r="AA5" s="5"/>
-      <c r="AB5" s="41"/>
-      <c r="AD5" s="35"/>
+      <c r="AB5" s="31"/>
+      <c r="AD5" s="36"/>
       <c r="AE5" s="5"/>
       <c r="AF5" s="21"/>
       <c r="AG5" s="21"/>
@@ -3623,8 +3812,8 @@
       <c r="AQ5" s="21"/>
       <c r="AR5" s="17"/>
       <c r="AS5" s="5"/>
-      <c r="AT5" s="41"/>
-      <c r="AV5" s="35"/>
+      <c r="AT5" s="31"/>
+      <c r="AV5" s="36"/>
       <c r="AW5" s="5"/>
       <c r="AX5" s="21"/>
       <c r="AY5" s="21"/>
@@ -3632,7 +3821,7 @@
       <c r="BA5" s="17"/>
       <c r="BB5" s="17"/>
       <c r="BC5" s="5"/>
-      <c r="BD5" s="29"/>
+      <c r="BD5" s="33"/>
       <c r="BE5" s="5"/>
       <c r="BF5" s="21"/>
       <c r="BG5" s="21"/>
@@ -3640,23 +3829,23 @@
       <c r="BI5" s="21"/>
       <c r="BJ5" s="17"/>
       <c r="BK5" s="5"/>
-      <c r="BL5" s="41"/>
+      <c r="BL5" s="31"/>
     </row>
     <row r="6" spans="2:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="3"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="56"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="50"/>
       <c r="I6" s="4"/>
       <c r="J6" s="17"/>
       <c r="L6" s="5"/>
       <c r="R6" s="5"/>
-      <c r="T6" s="35"/>
+      <c r="T6" s="36"/>
       <c r="U6" s="5"/>
       <c r="V6" s="17"/>
       <c r="W6" s="17"/>
@@ -3664,8 +3853,8 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="17"/>
       <c r="AA6" s="5"/>
-      <c r="AB6" s="41"/>
-      <c r="AD6" s="35"/>
+      <c r="AB6" s="31"/>
+      <c r="AD6" s="36"/>
       <c r="AE6" s="5"/>
       <c r="AF6" s="17"/>
       <c r="AG6" s="17"/>
@@ -3681,8 +3870,8 @@
       <c r="AQ6" s="17"/>
       <c r="AR6" s="17"/>
       <c r="AS6" s="5"/>
-      <c r="AT6" s="41"/>
-      <c r="AV6" s="35"/>
+      <c r="AT6" s="31"/>
+      <c r="AV6" s="36"/>
       <c r="AW6" s="5"/>
       <c r="AX6" s="21"/>
       <c r="AY6" s="21"/>
@@ -3690,7 +3879,7 @@
       <c r="BA6" s="17"/>
       <c r="BB6" s="17"/>
       <c r="BC6" s="5"/>
-      <c r="BD6" s="29"/>
+      <c r="BD6" s="33"/>
       <c r="BE6" s="5"/>
       <c r="BF6" s="17"/>
       <c r="BG6" s="17"/>
@@ -3698,22 +3887,22 @@
       <c r="BI6" s="17"/>
       <c r="BJ6" s="17"/>
       <c r="BK6" s="5"/>
-      <c r="BL6" s="41"/>
+      <c r="BL6" s="31"/>
     </row>
     <row r="7" spans="2:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="3"/>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="56"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="50"/>
       <c r="I7" s="4"/>
       <c r="J7" s="17"/>
       <c r="L7" s="5"/>
       <c r="R7" s="5"/>
-      <c r="T7" s="35"/>
+      <c r="T7" s="36"/>
       <c r="U7" s="5"/>
       <c r="V7" s="17"/>
       <c r="W7" s="21"/>
@@ -3721,8 +3910,8 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="17"/>
       <c r="AA7" s="5"/>
-      <c r="AB7" s="41"/>
-      <c r="AD7" s="35"/>
+      <c r="AB7" s="31"/>
+      <c r="AD7" s="36"/>
       <c r="AE7" s="5"/>
       <c r="AF7" s="17"/>
       <c r="AG7" s="17"/>
@@ -3738,8 +3927,8 @@
       <c r="AQ7" s="21"/>
       <c r="AR7" s="17"/>
       <c r="AS7" s="5"/>
-      <c r="AT7" s="41"/>
-      <c r="AV7" s="35"/>
+      <c r="AT7" s="31"/>
+      <c r="AV7" s="36"/>
       <c r="AW7" s="5"/>
       <c r="AX7" s="21"/>
       <c r="AY7" s="21"/>
@@ -3747,7 +3936,7 @@
       <c r="BA7" s="21"/>
       <c r="BB7" s="17"/>
       <c r="BC7" s="5"/>
-      <c r="BD7" s="29"/>
+      <c r="BD7" s="33"/>
       <c r="BE7" s="5"/>
       <c r="BF7" s="21"/>
       <c r="BG7" s="21"/>
@@ -3755,22 +3944,22 @@
       <c r="BI7" s="21"/>
       <c r="BJ7" s="21"/>
       <c r="BK7" s="5"/>
-      <c r="BL7" s="41"/>
+      <c r="BL7" s="31"/>
     </row>
     <row r="8" spans="2:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="3"/>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="55"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="49"/>
       <c r="I8" s="4"/>
       <c r="J8" s="17"/>
       <c r="L8" s="5"/>
       <c r="R8" s="5"/>
-      <c r="T8" s="35"/>
+      <c r="T8" s="36"/>
       <c r="U8" s="5"/>
       <c r="V8" s="17"/>
       <c r="W8" s="21"/>
@@ -3778,8 +3967,8 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="17"/>
       <c r="AA8" s="5"/>
-      <c r="AB8" s="41"/>
-      <c r="AD8" s="35"/>
+      <c r="AB8" s="31"/>
+      <c r="AD8" s="36"/>
       <c r="AE8" s="5"/>
       <c r="AF8" s="17"/>
       <c r="AG8" s="17"/>
@@ -3795,8 +3984,8 @@
       <c r="AQ8" s="17"/>
       <c r="AR8" s="17"/>
       <c r="AS8" s="5"/>
-      <c r="AT8" s="41"/>
-      <c r="AV8" s="35"/>
+      <c r="AT8" s="31"/>
+      <c r="AV8" s="36"/>
       <c r="AW8" s="5"/>
       <c r="AX8" s="21"/>
       <c r="AY8" s="21"/>
@@ -3804,7 +3993,7 @@
       <c r="BA8" s="21"/>
       <c r="BB8" s="17"/>
       <c r="BC8" s="5"/>
-      <c r="BD8" s="29"/>
+      <c r="BD8" s="33"/>
       <c r="BE8" s="5"/>
       <c r="BF8" s="17"/>
       <c r="BG8" s="17"/>
@@ -3812,7 +4001,7 @@
       <c r="BI8" s="17"/>
       <c r="BJ8" s="17"/>
       <c r="BK8" s="5"/>
-      <c r="BL8" s="41"/>
+      <c r="BL8" s="31"/>
     </row>
     <row r="9" spans="2:64" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="13"/>
@@ -3831,7 +4020,7 @@
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="1"/>
-      <c r="T9" s="35"/>
+      <c r="T9" s="36"/>
       <c r="U9" s="9"/>
       <c r="V9" s="7"/>
       <c r="W9" s="6"/>
@@ -3839,8 +4028,8 @@
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
       <c r="AA9" s="22"/>
-      <c r="AB9" s="41"/>
-      <c r="AD9" s="35"/>
+      <c r="AB9" s="31"/>
+      <c r="AD9" s="36"/>
       <c r="AE9" s="9"/>
       <c r="AF9" s="7"/>
       <c r="AG9" s="6"/>
@@ -3856,8 +4045,8 @@
       <c r="AQ9" s="6"/>
       <c r="AR9" s="6"/>
       <c r="AS9" s="22"/>
-      <c r="AT9" s="41"/>
-      <c r="AV9" s="35"/>
+      <c r="AT9" s="31"/>
+      <c r="AV9" s="36"/>
       <c r="AW9" s="9"/>
       <c r="AX9" s="7"/>
       <c r="AY9" s="6"/>
@@ -3865,7 +4054,7 @@
       <c r="BA9" s="6"/>
       <c r="BB9" s="6"/>
       <c r="BC9" s="22"/>
-      <c r="BD9" s="29"/>
+      <c r="BD9" s="33"/>
       <c r="BE9" s="9"/>
       <c r="BF9" s="7"/>
       <c r="BG9" s="6"/>
@@ -3873,7 +4062,7 @@
       <c r="BI9" s="6"/>
       <c r="BJ9" s="6"/>
       <c r="BK9" s="22"/>
-      <c r="BL9" s="41"/>
+      <c r="BL9" s="31"/>
     </row>
     <row r="10" spans="2:64" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="10"/>
@@ -3884,18 +4073,18 @@
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
       <c r="I10" s="12"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="43" t="s">
+      <c r="T10" s="37"/>
+      <c r="U10" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="V10" s="43"/>
-      <c r="W10" s="43"/>
-      <c r="X10" s="43"/>
-      <c r="Y10" s="43"/>
-      <c r="Z10" s="43"/>
-      <c r="AA10" s="43"/>
-      <c r="AB10" s="42"/>
-      <c r="AD10" s="39"/>
+      <c r="V10" s="51"/>
+      <c r="W10" s="51"/>
+      <c r="X10" s="51"/>
+      <c r="Y10" s="51"/>
+      <c r="Z10" s="51"/>
+      <c r="AA10" s="51"/>
+      <c r="AB10" s="32"/>
+      <c r="AD10" s="37"/>
       <c r="AE10" s="34">
         <v>2</v>
       </c>
@@ -3913,8 +4102,8 @@
       <c r="AQ10" s="34"/>
       <c r="AR10" s="34"/>
       <c r="AS10" s="34"/>
-      <c r="AT10" s="42"/>
-      <c r="AV10" s="39"/>
+      <c r="AT10" s="32"/>
+      <c r="AV10" s="37"/>
       <c r="AW10" s="34">
         <v>5</v>
       </c>
@@ -3932,70 +4121,70 @@
       <c r="BI10" s="34"/>
       <c r="BJ10" s="34"/>
       <c r="BK10" s="34"/>
-      <c r="BL10" s="42"/>
+      <c r="BL10" s="32"/>
     </row>
     <row r="11" spans="2:64" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="2:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L12" s="38"/>
-      <c r="M12" s="33" t="s">
+      <c r="L12" s="35"/>
+      <c r="M12" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="33"/>
-      <c r="U12" s="33"/>
-      <c r="V12" s="33"/>
-      <c r="W12" s="33"/>
-      <c r="X12" s="33"/>
-      <c r="Y12" s="33"/>
-      <c r="Z12" s="33"/>
-      <c r="AA12" s="33"/>
-      <c r="AB12" s="40"/>
-      <c r="AD12" s="38"/>
-      <c r="AE12" s="33" t="s">
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29"/>
+      <c r="AA12" s="29"/>
+      <c r="AB12" s="30"/>
+      <c r="AD12" s="35"/>
+      <c r="AE12" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="AF12" s="33"/>
-      <c r="AG12" s="33"/>
-      <c r="AH12" s="33"/>
-      <c r="AI12" s="33"/>
-      <c r="AJ12" s="33"/>
-      <c r="AK12" s="33"/>
-      <c r="AL12" s="33"/>
-      <c r="AM12" s="33"/>
-      <c r="AN12" s="33"/>
-      <c r="AO12" s="33"/>
-      <c r="AP12" s="33"/>
-      <c r="AQ12" s="33"/>
-      <c r="AR12" s="33"/>
-      <c r="AS12" s="33"/>
-      <c r="AT12" s="40"/>
-      <c r="AV12" s="38"/>
-      <c r="AW12" s="33" t="s">
+      <c r="AF12" s="29"/>
+      <c r="AG12" s="29"/>
+      <c r="AH12" s="29"/>
+      <c r="AI12" s="29"/>
+      <c r="AJ12" s="29"/>
+      <c r="AK12" s="29"/>
+      <c r="AL12" s="29"/>
+      <c r="AM12" s="29"/>
+      <c r="AN12" s="29"/>
+      <c r="AO12" s="29"/>
+      <c r="AP12" s="29"/>
+      <c r="AQ12" s="29"/>
+      <c r="AR12" s="29"/>
+      <c r="AS12" s="29"/>
+      <c r="AT12" s="30"/>
+      <c r="AV12" s="35"/>
+      <c r="AW12" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AX12" s="33"/>
-      <c r="AY12" s="33"/>
-      <c r="AZ12" s="33"/>
-      <c r="BA12" s="33"/>
-      <c r="BB12" s="33"/>
-      <c r="BC12" s="33"/>
-      <c r="BD12" s="33"/>
-      <c r="BE12" s="33"/>
-      <c r="BF12" s="33"/>
-      <c r="BG12" s="33"/>
-      <c r="BH12" s="33"/>
-      <c r="BI12" s="33"/>
-      <c r="BJ12" s="33"/>
-      <c r="BK12" s="33"/>
-      <c r="BL12" s="40"/>
+      <c r="AX12" s="29"/>
+      <c r="AY12" s="29"/>
+      <c r="AZ12" s="29"/>
+      <c r="BA12" s="29"/>
+      <c r="BB12" s="29"/>
+      <c r="BC12" s="29"/>
+      <c r="BD12" s="29"/>
+      <c r="BE12" s="29"/>
+      <c r="BF12" s="29"/>
+      <c r="BG12" s="29"/>
+      <c r="BH12" s="29"/>
+      <c r="BI12" s="29"/>
+      <c r="BJ12" s="29"/>
+      <c r="BK12" s="29"/>
+      <c r="BL12" s="30"/>
     </row>
     <row r="13" spans="2:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L13" s="35"/>
+      <c r="L13" s="36"/>
       <c r="M13" s="8"/>
       <c r="N13" s="7"/>
       <c r="O13" s="6"/>
@@ -4003,7 +4192,7 @@
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="16"/>
-      <c r="T13" s="29"/>
+      <c r="T13" s="33"/>
       <c r="U13" s="8"/>
       <c r="V13" s="7"/>
       <c r="W13" s="6"/>
@@ -4011,8 +4200,8 @@
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
       <c r="AA13" s="16"/>
-      <c r="AB13" s="41"/>
-      <c r="AD13" s="35"/>
+      <c r="AB13" s="31"/>
+      <c r="AD13" s="36"/>
       <c r="AE13" s="8"/>
       <c r="AF13" s="7"/>
       <c r="AG13" s="6"/>
@@ -4020,7 +4209,7 @@
       <c r="AI13" s="6"/>
       <c r="AJ13" s="6"/>
       <c r="AK13" s="16"/>
-      <c r="AL13" s="29"/>
+      <c r="AL13" s="33"/>
       <c r="AM13" s="8"/>
       <c r="AN13" s="7"/>
       <c r="AO13" s="6"/>
@@ -4028,8 +4217,8 @@
       <c r="AQ13" s="6"/>
       <c r="AR13" s="6"/>
       <c r="AS13" s="16"/>
-      <c r="AT13" s="41"/>
-      <c r="AV13" s="35"/>
+      <c r="AT13" s="31"/>
+      <c r="AV13" s="36"/>
       <c r="AW13" s="8"/>
       <c r="AX13" s="7"/>
       <c r="AY13" s="6"/>
@@ -4037,18 +4226,18 @@
       <c r="BA13" s="6"/>
       <c r="BB13" s="6"/>
       <c r="BC13" s="16"/>
-      <c r="BD13" s="29"/>
-      <c r="BE13" s="29"/>
-      <c r="BF13" s="29"/>
-      <c r="BG13" s="29"/>
-      <c r="BH13" s="29"/>
-      <c r="BI13" s="29"/>
-      <c r="BJ13" s="29"/>
-      <c r="BK13" s="29"/>
-      <c r="BL13" s="41"/>
+      <c r="BD13" s="33"/>
+      <c r="BE13" s="33"/>
+      <c r="BF13" s="33"/>
+      <c r="BG13" s="33"/>
+      <c r="BH13" s="33"/>
+      <c r="BI13" s="33"/>
+      <c r="BJ13" s="33"/>
+      <c r="BK13" s="33"/>
+      <c r="BL13" s="31"/>
     </row>
     <row r="14" spans="2:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L14" s="35"/>
+      <c r="L14" s="36"/>
       <c r="M14" s="5"/>
       <c r="N14" s="17"/>
       <c r="O14" s="17"/>
@@ -4056,7 +4245,7 @@
       <c r="Q14" s="17"/>
       <c r="R14" s="17"/>
       <c r="S14" s="5"/>
-      <c r="T14" s="29"/>
+      <c r="T14" s="33"/>
       <c r="U14" s="5"/>
       <c r="V14" s="17"/>
       <c r="W14" s="17"/>
@@ -4064,8 +4253,8 @@
       <c r="Y14" s="17"/>
       <c r="Z14" s="17"/>
       <c r="AA14" s="5"/>
-      <c r="AB14" s="41"/>
-      <c r="AD14" s="35"/>
+      <c r="AB14" s="31"/>
+      <c r="AD14" s="36"/>
       <c r="AE14" s="5"/>
       <c r="AF14" s="17"/>
       <c r="AG14" s="17"/>
@@ -4073,7 +4262,7 @@
       <c r="AI14" s="17"/>
       <c r="AJ14" s="17"/>
       <c r="AK14" s="5"/>
-      <c r="AL14" s="29"/>
+      <c r="AL14" s="33"/>
       <c r="AM14" s="5"/>
       <c r="AN14" s="17"/>
       <c r="AO14" s="17"/>
@@ -4081,8 +4270,8 @@
       <c r="AQ14" s="17"/>
       <c r="AR14" s="17"/>
       <c r="AS14" s="5"/>
-      <c r="AT14" s="41"/>
-      <c r="AV14" s="35"/>
+      <c r="AT14" s="31"/>
+      <c r="AV14" s="36"/>
       <c r="AW14" s="5"/>
       <c r="AX14" s="17"/>
       <c r="AY14" s="21"/>
@@ -4090,18 +4279,18 @@
       <c r="BA14" s="17"/>
       <c r="BB14" s="17"/>
       <c r="BC14" s="5"/>
-      <c r="BD14" s="29"/>
-      <c r="BE14" s="29"/>
-      <c r="BF14" s="29"/>
-      <c r="BG14" s="29"/>
-      <c r="BH14" s="29"/>
-      <c r="BI14" s="29"/>
-      <c r="BJ14" s="29"/>
-      <c r="BK14" s="29"/>
-      <c r="BL14" s="41"/>
+      <c r="BD14" s="33"/>
+      <c r="BE14" s="33"/>
+      <c r="BF14" s="33"/>
+      <c r="BG14" s="33"/>
+      <c r="BH14" s="33"/>
+      <c r="BI14" s="33"/>
+      <c r="BJ14" s="33"/>
+      <c r="BK14" s="33"/>
+      <c r="BL14" s="31"/>
     </row>
     <row r="15" spans="2:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L15" s="35"/>
+      <c r="L15" s="36"/>
       <c r="M15" s="5"/>
       <c r="N15" s="21"/>
       <c r="O15" s="21"/>
@@ -4109,7 +4298,7 @@
       <c r="Q15" s="21"/>
       <c r="R15" s="17"/>
       <c r="S15" s="5"/>
-      <c r="T15" s="29"/>
+      <c r="T15" s="33"/>
       <c r="U15" s="5"/>
       <c r="V15" s="21"/>
       <c r="W15" s="21"/>
@@ -4117,8 +4306,8 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="21"/>
       <c r="AA15" s="5"/>
-      <c r="AB15" s="41"/>
-      <c r="AD15" s="35"/>
+      <c r="AB15" s="31"/>
+      <c r="AD15" s="36"/>
       <c r="AE15" s="5"/>
       <c r="AF15" s="17"/>
       <c r="AG15" s="17"/>
@@ -4126,7 +4315,7 @@
       <c r="AI15" s="17"/>
       <c r="AJ15" s="17"/>
       <c r="AK15" s="5"/>
-      <c r="AL15" s="29"/>
+      <c r="AL15" s="33"/>
       <c r="AM15" s="5"/>
       <c r="AN15" s="17"/>
       <c r="AO15" s="17"/>
@@ -4134,8 +4323,8 @@
       <c r="AQ15" s="17"/>
       <c r="AR15" s="17"/>
       <c r="AS15" s="5"/>
-      <c r="AT15" s="41"/>
-      <c r="AV15" s="35"/>
+      <c r="AT15" s="31"/>
+      <c r="AV15" s="36"/>
       <c r="AW15" s="5"/>
       <c r="AX15" s="17"/>
       <c r="AY15" s="21"/>
@@ -4143,18 +4332,18 @@
       <c r="BA15" s="21"/>
       <c r="BB15" s="17"/>
       <c r="BC15" s="5"/>
-      <c r="BD15" s="29"/>
-      <c r="BE15" s="29"/>
-      <c r="BF15" s="29"/>
-      <c r="BG15" s="29"/>
-      <c r="BH15" s="29"/>
-      <c r="BI15" s="29"/>
-      <c r="BJ15" s="29"/>
-      <c r="BK15" s="29"/>
-      <c r="BL15" s="41"/>
+      <c r="BD15" s="33"/>
+      <c r="BE15" s="33"/>
+      <c r="BF15" s="33"/>
+      <c r="BG15" s="33"/>
+      <c r="BH15" s="33"/>
+      <c r="BI15" s="33"/>
+      <c r="BJ15" s="33"/>
+      <c r="BK15" s="33"/>
+      <c r="BL15" s="31"/>
     </row>
     <row r="16" spans="2:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L16" s="35"/>
+      <c r="L16" s="36"/>
       <c r="M16" s="5"/>
       <c r="N16" s="17"/>
       <c r="O16" s="17"/>
@@ -4162,7 +4351,7 @@
       <c r="Q16" s="17"/>
       <c r="R16" s="17"/>
       <c r="S16" s="5"/>
-      <c r="T16" s="29"/>
+      <c r="T16" s="33"/>
       <c r="U16" s="5"/>
       <c r="V16" s="17"/>
       <c r="W16" s="17"/>
@@ -4170,8 +4359,8 @@
       <c r="Y16" s="17"/>
       <c r="Z16" s="17"/>
       <c r="AA16" s="5"/>
-      <c r="AB16" s="41"/>
-      <c r="AD16" s="35"/>
+      <c r="AB16" s="31"/>
+      <c r="AD16" s="36"/>
       <c r="AE16" s="5"/>
       <c r="AF16" s="21"/>
       <c r="AG16" s="21"/>
@@ -4179,7 +4368,7 @@
       <c r="AI16" s="17"/>
       <c r="AJ16" s="17"/>
       <c r="AK16" s="5"/>
-      <c r="AL16" s="29"/>
+      <c r="AL16" s="33"/>
       <c r="AM16" s="5"/>
       <c r="AN16" s="17"/>
       <c r="AO16" s="17"/>
@@ -4187,8 +4376,8 @@
       <c r="AQ16" s="21"/>
       <c r="AR16" s="21"/>
       <c r="AS16" s="5"/>
-      <c r="AT16" s="41"/>
-      <c r="AV16" s="35"/>
+      <c r="AT16" s="31"/>
+      <c r="AV16" s="36"/>
       <c r="AW16" s="5"/>
       <c r="AX16" s="17"/>
       <c r="AY16" s="21"/>
@@ -4196,18 +4385,18 @@
       <c r="BA16" s="21"/>
       <c r="BB16" s="17"/>
       <c r="BC16" s="5"/>
-      <c r="BD16" s="29"/>
-      <c r="BE16" s="29"/>
-      <c r="BF16" s="29"/>
-      <c r="BG16" s="29"/>
-      <c r="BH16" s="29"/>
-      <c r="BI16" s="29"/>
-      <c r="BJ16" s="29"/>
-      <c r="BK16" s="29"/>
-      <c r="BL16" s="41"/>
+      <c r="BD16" s="33"/>
+      <c r="BE16" s="33"/>
+      <c r="BF16" s="33"/>
+      <c r="BG16" s="33"/>
+      <c r="BH16" s="33"/>
+      <c r="BI16" s="33"/>
+      <c r="BJ16" s="33"/>
+      <c r="BK16" s="33"/>
+      <c r="BL16" s="31"/>
     </row>
     <row r="17" spans="12:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L17" s="35"/>
+      <c r="L17" s="36"/>
       <c r="M17" s="5"/>
       <c r="N17" s="17"/>
       <c r="O17" s="17"/>
@@ -4215,7 +4404,7 @@
       <c r="Q17" s="17"/>
       <c r="R17" s="17"/>
       <c r="S17" s="5"/>
-      <c r="T17" s="29"/>
+      <c r="T17" s="33"/>
       <c r="U17" s="5"/>
       <c r="V17" s="17"/>
       <c r="W17" s="17"/>
@@ -4223,8 +4412,8 @@
       <c r="Y17" s="17"/>
       <c r="Z17" s="17"/>
       <c r="AA17" s="5"/>
-      <c r="AB17" s="41"/>
-      <c r="AD17" s="35"/>
+      <c r="AB17" s="31"/>
+      <c r="AD17" s="36"/>
       <c r="AE17" s="5"/>
       <c r="AF17" s="17"/>
       <c r="AG17" s="17"/>
@@ -4232,7 +4421,7 @@
       <c r="AI17" s="17"/>
       <c r="AJ17" s="17"/>
       <c r="AK17" s="5"/>
-      <c r="AL17" s="29"/>
+      <c r="AL17" s="33"/>
       <c r="AM17" s="5"/>
       <c r="AN17" s="21"/>
       <c r="AO17" s="17"/>
@@ -4240,8 +4429,8 @@
       <c r="AQ17" s="17"/>
       <c r="AR17" s="17"/>
       <c r="AS17" s="5"/>
-      <c r="AT17" s="41"/>
-      <c r="AV17" s="35"/>
+      <c r="AT17" s="31"/>
+      <c r="AV17" s="36"/>
       <c r="AW17" s="5"/>
       <c r="AX17" s="17"/>
       <c r="AY17" s="21"/>
@@ -4249,18 +4438,18 @@
       <c r="BA17" s="21"/>
       <c r="BB17" s="17"/>
       <c r="BC17" s="5"/>
-      <c r="BD17" s="29"/>
-      <c r="BE17" s="29"/>
-      <c r="BF17" s="29"/>
-      <c r="BG17" s="29"/>
-      <c r="BH17" s="29"/>
-      <c r="BI17" s="29"/>
-      <c r="BJ17" s="29"/>
-      <c r="BK17" s="29"/>
-      <c r="BL17" s="41"/>
+      <c r="BD17" s="33"/>
+      <c r="BE17" s="33"/>
+      <c r="BF17" s="33"/>
+      <c r="BG17" s="33"/>
+      <c r="BH17" s="33"/>
+      <c r="BI17" s="33"/>
+      <c r="BJ17" s="33"/>
+      <c r="BK17" s="33"/>
+      <c r="BL17" s="31"/>
     </row>
     <row r="18" spans="12:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L18" s="35"/>
+      <c r="L18" s="36"/>
       <c r="M18" s="5"/>
       <c r="N18" s="17"/>
       <c r="O18" s="17"/>
@@ -4268,7 +4457,7 @@
       <c r="Q18" s="17"/>
       <c r="R18" s="17"/>
       <c r="S18" s="5"/>
-      <c r="T18" s="29"/>
+      <c r="T18" s="33"/>
       <c r="U18" s="5"/>
       <c r="V18" s="17"/>
       <c r="W18" s="17"/>
@@ -4276,8 +4465,8 @@
       <c r="Y18" s="17"/>
       <c r="Z18" s="17"/>
       <c r="AA18" s="5"/>
-      <c r="AB18" s="41"/>
-      <c r="AD18" s="35"/>
+      <c r="AB18" s="31"/>
+      <c r="AD18" s="36"/>
       <c r="AE18" s="5"/>
       <c r="AF18" s="17"/>
       <c r="AG18" s="17"/>
@@ -4285,7 +4474,7 @@
       <c r="AI18" s="17"/>
       <c r="AJ18" s="17"/>
       <c r="AK18" s="5"/>
-      <c r="AL18" s="29"/>
+      <c r="AL18" s="33"/>
       <c r="AM18" s="5"/>
       <c r="AN18" s="17"/>
       <c r="AO18" s="17"/>
@@ -4293,8 +4482,8 @@
       <c r="AQ18" s="17"/>
       <c r="AR18" s="17"/>
       <c r="AS18" s="5"/>
-      <c r="AT18" s="41"/>
-      <c r="AV18" s="35"/>
+      <c r="AT18" s="31"/>
+      <c r="AV18" s="36"/>
       <c r="AW18" s="5"/>
       <c r="AX18" s="17"/>
       <c r="AY18" s="17"/>
@@ -4302,18 +4491,18 @@
       <c r="BA18" s="21"/>
       <c r="BB18" s="17"/>
       <c r="BC18" s="5"/>
-      <c r="BD18" s="29"/>
-      <c r="BE18" s="29"/>
-      <c r="BF18" s="29"/>
-      <c r="BG18" s="29"/>
-      <c r="BH18" s="29"/>
-      <c r="BI18" s="29"/>
-      <c r="BJ18" s="29"/>
-      <c r="BK18" s="29"/>
-      <c r="BL18" s="41"/>
+      <c r="BD18" s="33"/>
+      <c r="BE18" s="33"/>
+      <c r="BF18" s="33"/>
+      <c r="BG18" s="33"/>
+      <c r="BH18" s="33"/>
+      <c r="BI18" s="33"/>
+      <c r="BJ18" s="33"/>
+      <c r="BK18" s="33"/>
+      <c r="BL18" s="31"/>
     </row>
     <row r="19" spans="12:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L19" s="35"/>
+      <c r="L19" s="36"/>
       <c r="M19" s="9"/>
       <c r="N19" s="7"/>
       <c r="O19" s="6"/>
@@ -4321,7 +4510,7 @@
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
       <c r="S19" s="22"/>
-      <c r="T19" s="29"/>
+      <c r="T19" s="33"/>
       <c r="U19" s="9"/>
       <c r="V19" s="7"/>
       <c r="W19" s="6"/>
@@ -4329,8 +4518,8 @@
       <c r="Y19" s="6"/>
       <c r="Z19" s="6"/>
       <c r="AA19" s="22"/>
-      <c r="AB19" s="41"/>
-      <c r="AD19" s="35"/>
+      <c r="AB19" s="31"/>
+      <c r="AD19" s="36"/>
       <c r="AE19" s="9"/>
       <c r="AF19" s="7"/>
       <c r="AG19" s="6"/>
@@ -4338,7 +4527,7 @@
       <c r="AI19" s="6"/>
       <c r="AJ19" s="6"/>
       <c r="AK19" s="22"/>
-      <c r="AL19" s="29"/>
+      <c r="AL19" s="33"/>
       <c r="AM19" s="9"/>
       <c r="AN19" s="7"/>
       <c r="AO19" s="6"/>
@@ -4346,8 +4535,8 @@
       <c r="AQ19" s="6"/>
       <c r="AR19" s="6"/>
       <c r="AS19" s="22"/>
-      <c r="AT19" s="41"/>
-      <c r="AV19" s="35"/>
+      <c r="AT19" s="31"/>
+      <c r="AV19" s="36"/>
       <c r="AW19" s="9"/>
       <c r="AX19" s="7"/>
       <c r="AY19" s="6"/>
@@ -4355,18 +4544,18 @@
       <c r="BA19" s="6"/>
       <c r="BB19" s="6"/>
       <c r="BC19" s="22"/>
-      <c r="BD19" s="29"/>
-      <c r="BE19" s="29"/>
-      <c r="BF19" s="29"/>
-      <c r="BG19" s="29"/>
-      <c r="BH19" s="29"/>
-      <c r="BI19" s="29"/>
-      <c r="BJ19" s="29"/>
-      <c r="BK19" s="29"/>
-      <c r="BL19" s="41"/>
+      <c r="BD19" s="33"/>
+      <c r="BE19" s="33"/>
+      <c r="BF19" s="33"/>
+      <c r="BG19" s="33"/>
+      <c r="BH19" s="33"/>
+      <c r="BI19" s="33"/>
+      <c r="BJ19" s="33"/>
+      <c r="BK19" s="33"/>
+      <c r="BL19" s="31"/>
     </row>
     <row r="20" spans="12:64" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L20" s="39"/>
+      <c r="L20" s="37"/>
       <c r="M20" s="34">
         <v>3</v>
       </c>
@@ -4384,45 +4573,45 @@
       <c r="Y20" s="34"/>
       <c r="Z20" s="34"/>
       <c r="AA20" s="34"/>
-      <c r="AB20" s="42"/>
-      <c r="AD20" s="35"/>
-      <c r="AE20" s="29"/>
-      <c r="AF20" s="29"/>
-      <c r="AG20" s="29"/>
-      <c r="AH20" s="29"/>
-      <c r="AI20" s="29"/>
-      <c r="AJ20" s="29"/>
-      <c r="AK20" s="29"/>
-      <c r="AL20" s="29"/>
-      <c r="AM20" s="29"/>
-      <c r="AN20" s="29"/>
-      <c r="AO20" s="29"/>
-      <c r="AP20" s="29"/>
-      <c r="AQ20" s="29"/>
-      <c r="AR20" s="29"/>
-      <c r="AS20" s="29"/>
-      <c r="AT20" s="41"/>
-      <c r="AV20" s="35"/>
-      <c r="AW20" s="29"/>
-      <c r="AX20" s="29"/>
-      <c r="AY20" s="29"/>
-      <c r="AZ20" s="29"/>
-      <c r="BA20" s="29"/>
-      <c r="BB20" s="29"/>
-      <c r="BC20" s="29"/>
-      <c r="BD20" s="29"/>
-      <c r="BE20" s="29"/>
-      <c r="BF20" s="29"/>
-      <c r="BG20" s="29"/>
-      <c r="BH20" s="29"/>
-      <c r="BI20" s="29"/>
-      <c r="BJ20" s="29"/>
-      <c r="BK20" s="29"/>
-      <c r="BL20" s="41"/>
+      <c r="AB20" s="32"/>
+      <c r="AD20" s="36"/>
+      <c r="AE20" s="33"/>
+      <c r="AF20" s="33"/>
+      <c r="AG20" s="33"/>
+      <c r="AH20" s="33"/>
+      <c r="AI20" s="33"/>
+      <c r="AJ20" s="33"/>
+      <c r="AK20" s="33"/>
+      <c r="AL20" s="33"/>
+      <c r="AM20" s="33"/>
+      <c r="AN20" s="33"/>
+      <c r="AO20" s="33"/>
+      <c r="AP20" s="33"/>
+      <c r="AQ20" s="33"/>
+      <c r="AR20" s="33"/>
+      <c r="AS20" s="33"/>
+      <c r="AT20" s="31"/>
+      <c r="AV20" s="36"/>
+      <c r="AW20" s="33"/>
+      <c r="AX20" s="33"/>
+      <c r="AY20" s="33"/>
+      <c r="AZ20" s="33"/>
+      <c r="BA20" s="33"/>
+      <c r="BB20" s="33"/>
+      <c r="BC20" s="33"/>
+      <c r="BD20" s="33"/>
+      <c r="BE20" s="33"/>
+      <c r="BF20" s="33"/>
+      <c r="BG20" s="33"/>
+      <c r="BH20" s="33"/>
+      <c r="BI20" s="33"/>
+      <c r="BJ20" s="33"/>
+      <c r="BK20" s="33"/>
+      <c r="BL20" s="31"/>
     </row>
     <row r="21" spans="12:64" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="V21" s="24"/>
-      <c r="AD21" s="35"/>
+      <c r="AD21" s="36"/>
       <c r="AE21" s="23"/>
       <c r="AF21" s="23"/>
       <c r="AG21" s="23"/>
@@ -4430,7 +4619,7 @@
       <c r="AI21" s="23"/>
       <c r="AJ21" s="23"/>
       <c r="AK21" s="23"/>
-      <c r="AL21" s="29"/>
+      <c r="AL21" s="33"/>
       <c r="AM21" s="8"/>
       <c r="AN21" s="7"/>
       <c r="AO21" s="6"/>
@@ -4438,16 +4627,16 @@
       <c r="AQ21" s="6"/>
       <c r="AR21" s="6"/>
       <c r="AS21" s="16"/>
-      <c r="AT21" s="41"/>
-      <c r="AV21" s="35"/>
-      <c r="AW21" s="29"/>
-      <c r="AX21" s="29"/>
-      <c r="AY21" s="29"/>
-      <c r="AZ21" s="29"/>
-      <c r="BA21" s="29"/>
-      <c r="BB21" s="29"/>
-      <c r="BC21" s="29"/>
-      <c r="BD21" s="29"/>
+      <c r="AT21" s="31"/>
+      <c r="AV21" s="36"/>
+      <c r="AW21" s="33"/>
+      <c r="AX21" s="33"/>
+      <c r="AY21" s="33"/>
+      <c r="AZ21" s="33"/>
+      <c r="BA21" s="33"/>
+      <c r="BB21" s="33"/>
+      <c r="BC21" s="33"/>
+      <c r="BD21" s="33"/>
       <c r="BE21" s="8"/>
       <c r="BF21" s="7"/>
       <c r="BG21" s="6"/>
@@ -4455,31 +4644,31 @@
       <c r="BI21" s="6"/>
       <c r="BJ21" s="6"/>
       <c r="BK21" s="16"/>
-      <c r="BL21" s="41"/>
+      <c r="BL21" s="31"/>
     </row>
     <row r="22" spans="12:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L22" s="37" t="s">
+      <c r="L22" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="33"/>
-      <c r="S22" s="33"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
       <c r="T22" s="26"/>
-      <c r="U22" s="33" t="s">
+      <c r="U22" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="V22" s="33"/>
-      <c r="W22" s="33"/>
-      <c r="X22" s="33"/>
-      <c r="Y22" s="33"/>
-      <c r="Z22" s="33"/>
-      <c r="AA22" s="33"/>
-      <c r="AB22" s="30"/>
-      <c r="AD22" s="35"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="29"/>
+      <c r="AB22" s="54"/>
+      <c r="AD22" s="36"/>
       <c r="AE22" s="23"/>
       <c r="AF22" s="23"/>
       <c r="AG22" s="23"/>
@@ -4487,7 +4676,7 @@
       <c r="AI22" s="23"/>
       <c r="AJ22" s="23"/>
       <c r="AK22" s="23"/>
-      <c r="AL22" s="29"/>
+      <c r="AL22" s="33"/>
       <c r="AM22" s="5"/>
       <c r="AN22" s="17"/>
       <c r="AO22" s="17"/>
@@ -4495,16 +4684,16 @@
       <c r="AQ22" s="17"/>
       <c r="AR22" s="17"/>
       <c r="AS22" s="5"/>
-      <c r="AT22" s="41"/>
-      <c r="AV22" s="35"/>
-      <c r="AW22" s="29"/>
-      <c r="AX22" s="29"/>
-      <c r="AY22" s="29"/>
-      <c r="AZ22" s="29"/>
-      <c r="BA22" s="29"/>
-      <c r="BB22" s="29"/>
-      <c r="BC22" s="29"/>
-      <c r="BD22" s="29"/>
+      <c r="AT22" s="31"/>
+      <c r="AV22" s="36"/>
+      <c r="AW22" s="33"/>
+      <c r="AX22" s="33"/>
+      <c r="AY22" s="33"/>
+      <c r="AZ22" s="33"/>
+      <c r="BA22" s="33"/>
+      <c r="BB22" s="33"/>
+      <c r="BC22" s="33"/>
+      <c r="BD22" s="33"/>
       <c r="BE22" s="5"/>
       <c r="BF22" s="17"/>
       <c r="BG22" s="17"/>
@@ -4512,10 +4701,10 @@
       <c r="BI22" s="17"/>
       <c r="BJ22" s="17"/>
       <c r="BK22" s="5"/>
-      <c r="BL22" s="41"/>
+      <c r="BL22" s="31"/>
     </row>
     <row r="23" spans="12:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L23" s="35"/>
+      <c r="L23" s="36"/>
       <c r="M23" s="8"/>
       <c r="N23" s="7"/>
       <c r="O23" s="6"/>
@@ -4531,8 +4720,8 @@
       <c r="Y23" s="6"/>
       <c r="Z23" s="6"/>
       <c r="AA23" s="16"/>
-      <c r="AB23" s="31"/>
-      <c r="AD23" s="35"/>
+      <c r="AB23" s="55"/>
+      <c r="AD23" s="36"/>
       <c r="AE23" s="23"/>
       <c r="AF23" s="23"/>
       <c r="AG23" s="23"/>
@@ -4540,7 +4729,7 @@
       <c r="AI23" s="23"/>
       <c r="AJ23" s="23"/>
       <c r="AK23" s="23"/>
-      <c r="AL23" s="29"/>
+      <c r="AL23" s="33"/>
       <c r="AM23" s="5"/>
       <c r="AN23" s="17"/>
       <c r="AO23" s="17"/>
@@ -4548,16 +4737,16 @@
       <c r="AQ23" s="17"/>
       <c r="AR23" s="17"/>
       <c r="AS23" s="5"/>
-      <c r="AT23" s="41"/>
-      <c r="AV23" s="35"/>
-      <c r="AW23" s="29"/>
-      <c r="AX23" s="29"/>
-      <c r="AY23" s="29"/>
-      <c r="AZ23" s="29"/>
-      <c r="BA23" s="29"/>
-      <c r="BB23" s="29"/>
-      <c r="BC23" s="29"/>
-      <c r="BD23" s="29"/>
+      <c r="AT23" s="31"/>
+      <c r="AV23" s="36"/>
+      <c r="AW23" s="33"/>
+      <c r="AX23" s="33"/>
+      <c r="AY23" s="33"/>
+      <c r="AZ23" s="33"/>
+      <c r="BA23" s="33"/>
+      <c r="BB23" s="33"/>
+      <c r="BC23" s="33"/>
+      <c r="BD23" s="33"/>
       <c r="BE23" s="5"/>
       <c r="BF23" s="17"/>
       <c r="BG23" s="17"/>
@@ -4565,10 +4754,10 @@
       <c r="BI23" s="17"/>
       <c r="BJ23" s="17"/>
       <c r="BK23" s="5"/>
-      <c r="BL23" s="41"/>
+      <c r="BL23" s="31"/>
     </row>
     <row r="24" spans="12:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L24" s="35"/>
+      <c r="L24" s="36"/>
       <c r="M24" s="5"/>
       <c r="N24" s="17"/>
       <c r="O24" s="17"/>
@@ -4584,8 +4773,8 @@
       <c r="Y24" s="17"/>
       <c r="Z24" s="17"/>
       <c r="AA24" s="5"/>
-      <c r="AB24" s="31"/>
-      <c r="AD24" s="35"/>
+      <c r="AB24" s="55"/>
+      <c r="AD24" s="36"/>
       <c r="AE24" s="23"/>
       <c r="AF24" s="23"/>
       <c r="AG24" s="23"/>
@@ -4593,7 +4782,7 @@
       <c r="AI24" s="23"/>
       <c r="AJ24" s="23"/>
       <c r="AK24" s="23"/>
-      <c r="AL24" s="29"/>
+      <c r="AL24" s="33"/>
       <c r="AM24" s="5"/>
       <c r="AN24" s="17"/>
       <c r="AO24" s="17"/>
@@ -4601,16 +4790,16 @@
       <c r="AQ24" s="17"/>
       <c r="AR24" s="17"/>
       <c r="AS24" s="5"/>
-      <c r="AT24" s="41"/>
-      <c r="AV24" s="35"/>
-      <c r="AW24" s="29"/>
-      <c r="AX24" s="29"/>
-      <c r="AY24" s="29"/>
-      <c r="AZ24" s="29"/>
-      <c r="BA24" s="29"/>
-      <c r="BB24" s="29"/>
-      <c r="BC24" s="29"/>
-      <c r="BD24" s="29"/>
+      <c r="AT24" s="31"/>
+      <c r="AV24" s="36"/>
+      <c r="AW24" s="33"/>
+      <c r="AX24" s="33"/>
+      <c r="AY24" s="33"/>
+      <c r="AZ24" s="33"/>
+      <c r="BA24" s="33"/>
+      <c r="BB24" s="33"/>
+      <c r="BC24" s="33"/>
+      <c r="BD24" s="33"/>
       <c r="BE24" s="5"/>
       <c r="BF24" s="17"/>
       <c r="BG24" s="17"/>
@@ -4618,10 +4807,10 @@
       <c r="BI24" s="17"/>
       <c r="BJ24" s="17"/>
       <c r="BK24" s="5"/>
-      <c r="BL24" s="41"/>
+      <c r="BL24" s="31"/>
     </row>
     <row r="25" spans="12:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L25" s="35"/>
+      <c r="L25" s="36"/>
       <c r="M25" s="5"/>
       <c r="N25" s="17"/>
       <c r="O25" s="17"/>
@@ -4637,8 +4826,8 @@
       <c r="Y25" s="17"/>
       <c r="Z25" s="17"/>
       <c r="AA25" s="5"/>
-      <c r="AB25" s="31"/>
-      <c r="AD25" s="35"/>
+      <c r="AB25" s="55"/>
+      <c r="AD25" s="36"/>
       <c r="AE25" s="23"/>
       <c r="AF25" s="23"/>
       <c r="AG25" s="23"/>
@@ -4646,7 +4835,7 @@
       <c r="AI25" s="23"/>
       <c r="AJ25" s="23"/>
       <c r="AK25" s="23"/>
-      <c r="AL25" s="29"/>
+      <c r="AL25" s="33"/>
       <c r="AM25" s="5"/>
       <c r="AN25" s="17"/>
       <c r="AO25" s="17"/>
@@ -4654,16 +4843,16 @@
       <c r="AQ25" s="17"/>
       <c r="AR25" s="17"/>
       <c r="AS25" s="5"/>
-      <c r="AT25" s="41"/>
-      <c r="AV25" s="35"/>
-      <c r="AW25" s="29"/>
-      <c r="AX25" s="29"/>
-      <c r="AY25" s="29"/>
-      <c r="AZ25" s="29"/>
-      <c r="BA25" s="29"/>
-      <c r="BB25" s="29"/>
-      <c r="BC25" s="29"/>
-      <c r="BD25" s="29"/>
+      <c r="AT25" s="31"/>
+      <c r="AV25" s="36"/>
+      <c r="AW25" s="33"/>
+      <c r="AX25" s="33"/>
+      <c r="AY25" s="33"/>
+      <c r="AZ25" s="33"/>
+      <c r="BA25" s="33"/>
+      <c r="BB25" s="33"/>
+      <c r="BC25" s="33"/>
+      <c r="BD25" s="33"/>
       <c r="BE25" s="5"/>
       <c r="BF25" s="17"/>
       <c r="BG25" s="17"/>
@@ -4671,10 +4860,10 @@
       <c r="BI25" s="17"/>
       <c r="BJ25" s="17"/>
       <c r="BK25" s="5"/>
-      <c r="BL25" s="41"/>
+      <c r="BL25" s="31"/>
     </row>
     <row r="26" spans="12:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L26" s="35"/>
+      <c r="L26" s="36"/>
       <c r="M26" s="5"/>
       <c r="N26" s="17"/>
       <c r="O26" s="17"/>
@@ -4690,8 +4879,8 @@
       <c r="Y26" s="17"/>
       <c r="Z26" s="17"/>
       <c r="AA26" s="5"/>
-      <c r="AB26" s="31"/>
-      <c r="AD26" s="35"/>
+      <c r="AB26" s="55"/>
+      <c r="AD26" s="36"/>
       <c r="AE26" s="23"/>
       <c r="AF26" s="23"/>
       <c r="AG26" s="23"/>
@@ -4699,7 +4888,7 @@
       <c r="AI26" s="23"/>
       <c r="AJ26" s="23"/>
       <c r="AK26" s="23"/>
-      <c r="AL26" s="29"/>
+      <c r="AL26" s="33"/>
       <c r="AM26" s="5"/>
       <c r="AN26" s="17"/>
       <c r="AO26" s="17"/>
@@ -4707,16 +4896,16 @@
       <c r="AQ26" s="17"/>
       <c r="AR26" s="17"/>
       <c r="AS26" s="5"/>
-      <c r="AT26" s="41"/>
-      <c r="AV26" s="35"/>
-      <c r="AW26" s="29"/>
-      <c r="AX26" s="29"/>
-      <c r="AY26" s="29"/>
-      <c r="AZ26" s="29"/>
-      <c r="BA26" s="29"/>
-      <c r="BB26" s="29"/>
-      <c r="BC26" s="29"/>
-      <c r="BD26" s="29"/>
+      <c r="AT26" s="31"/>
+      <c r="AV26" s="36"/>
+      <c r="AW26" s="33"/>
+      <c r="AX26" s="33"/>
+      <c r="AY26" s="33"/>
+      <c r="AZ26" s="33"/>
+      <c r="BA26" s="33"/>
+      <c r="BB26" s="33"/>
+      <c r="BC26" s="33"/>
+      <c r="BD26" s="33"/>
       <c r="BE26" s="5"/>
       <c r="BF26" s="17"/>
       <c r="BG26" s="17"/>
@@ -4724,10 +4913,10 @@
       <c r="BI26" s="17"/>
       <c r="BJ26" s="17"/>
       <c r="BK26" s="5"/>
-      <c r="BL26" s="41"/>
+      <c r="BL26" s="31"/>
     </row>
     <row r="27" spans="12:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L27" s="35"/>
+      <c r="L27" s="36"/>
       <c r="M27" s="5"/>
       <c r="O27" s="17"/>
       <c r="P27" s="17"/>
@@ -4741,8 +4930,8 @@
       <c r="Y27" s="17"/>
       <c r="Z27" s="17"/>
       <c r="AA27" s="5"/>
-      <c r="AB27" s="31"/>
-      <c r="AD27" s="35"/>
+      <c r="AB27" s="55"/>
+      <c r="AD27" s="36"/>
       <c r="AE27" s="23"/>
       <c r="AF27" s="23"/>
       <c r="AG27" s="23"/>
@@ -4750,7 +4939,7 @@
       <c r="AI27" s="23"/>
       <c r="AJ27" s="23"/>
       <c r="AK27" s="23"/>
-      <c r="AL27" s="29"/>
+      <c r="AL27" s="33"/>
       <c r="AM27" s="9"/>
       <c r="AN27" s="7"/>
       <c r="AO27" s="6"/>
@@ -4758,16 +4947,16 @@
       <c r="AQ27" s="6"/>
       <c r="AR27" s="6"/>
       <c r="AS27" s="22"/>
-      <c r="AT27" s="41"/>
-      <c r="AV27" s="35"/>
-      <c r="AW27" s="29"/>
-      <c r="AX27" s="29"/>
-      <c r="AY27" s="29"/>
-      <c r="AZ27" s="29"/>
-      <c r="BA27" s="29"/>
-      <c r="BB27" s="29"/>
-      <c r="BC27" s="29"/>
-      <c r="BD27" s="29"/>
+      <c r="AT27" s="31"/>
+      <c r="AV27" s="36"/>
+      <c r="AW27" s="33"/>
+      <c r="AX27" s="33"/>
+      <c r="AY27" s="33"/>
+      <c r="AZ27" s="33"/>
+      <c r="BA27" s="33"/>
+      <c r="BB27" s="33"/>
+      <c r="BC27" s="33"/>
+      <c r="BD27" s="33"/>
       <c r="BE27" s="9"/>
       <c r="BF27" s="7"/>
       <c r="BG27" s="6"/>
@@ -4775,10 +4964,10 @@
       <c r="BI27" s="6"/>
       <c r="BJ27" s="6"/>
       <c r="BK27" s="22"/>
-      <c r="BL27" s="41"/>
+      <c r="BL27" s="31"/>
     </row>
     <row r="28" spans="12:64" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L28" s="35"/>
+      <c r="L28" s="36"/>
       <c r="M28" s="5"/>
       <c r="N28" s="17"/>
       <c r="O28" s="17"/>
@@ -4794,8 +4983,8 @@
       <c r="Y28" s="17"/>
       <c r="Z28" s="17"/>
       <c r="AA28" s="5"/>
-      <c r="AB28" s="31"/>
-      <c r="AD28" s="39"/>
+      <c r="AB28" s="55"/>
+      <c r="AD28" s="37"/>
       <c r="AE28" s="34">
         <v>6</v>
       </c>
@@ -4813,8 +5002,8 @@
       <c r="AQ28" s="34"/>
       <c r="AR28" s="34"/>
       <c r="AS28" s="34"/>
-      <c r="AT28" s="42"/>
-      <c r="AV28" s="39"/>
+      <c r="AT28" s="32"/>
+      <c r="AV28" s="37"/>
       <c r="AW28" s="34">
         <v>4</v>
       </c>
@@ -4832,10 +5021,10 @@
       <c r="BI28" s="34"/>
       <c r="BJ28" s="34"/>
       <c r="BK28" s="34"/>
-      <c r="BL28" s="42"/>
+      <c r="BL28" s="32"/>
     </row>
     <row r="29" spans="12:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L29" s="35"/>
+      <c r="L29" s="36"/>
       <c r="M29" s="9"/>
       <c r="N29" s="7"/>
       <c r="O29" s="6"/>
@@ -4851,29 +5040,29 @@
       <c r="Y29" s="6"/>
       <c r="Z29" s="6"/>
       <c r="AA29" s="22"/>
-      <c r="AB29" s="31"/>
+      <c r="AB29" s="55"/>
     </row>
     <row r="30" spans="12:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L30" s="35"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="33"/>
+      <c r="S30" s="33"/>
       <c r="T30" s="27"/>
-      <c r="U30" s="29"/>
-      <c r="V30" s="29"/>
-      <c r="W30" s="29"/>
-      <c r="X30" s="29"/>
-      <c r="Y30" s="29"/>
-      <c r="Z30" s="29"/>
-      <c r="AA30" s="29"/>
-      <c r="AB30" s="31"/>
+      <c r="U30" s="33"/>
+      <c r="V30" s="33"/>
+      <c r="W30" s="33"/>
+      <c r="X30" s="33"/>
+      <c r="Y30" s="33"/>
+      <c r="Z30" s="33"/>
+      <c r="AA30" s="33"/>
+      <c r="AB30" s="55"/>
     </row>
     <row r="31" spans="12:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L31" s="35"/>
+      <c r="L31" s="36"/>
       <c r="M31" s="8"/>
       <c r="N31" s="7"/>
       <c r="O31" s="6"/>
@@ -4889,10 +5078,10 @@
       <c r="Y31" s="6"/>
       <c r="Z31" s="6"/>
       <c r="AA31" s="16"/>
-      <c r="AB31" s="31"/>
+      <c r="AB31" s="55"/>
     </row>
     <row r="32" spans="12:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L32" s="35"/>
+      <c r="L32" s="36"/>
       <c r="M32" s="5"/>
       <c r="N32" s="17"/>
       <c r="O32" s="17"/>
@@ -4908,10 +5097,10 @@
       <c r="Y32" s="17"/>
       <c r="Z32" s="17"/>
       <c r="AA32" s="5"/>
-      <c r="AB32" s="31"/>
+      <c r="AB32" s="55"/>
     </row>
     <row r="33" spans="12:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L33" s="35"/>
+      <c r="L33" s="36"/>
       <c r="M33" s="5"/>
       <c r="N33" s="17"/>
       <c r="O33" s="17"/>
@@ -4927,10 +5116,10 @@
       <c r="Y33" s="17"/>
       <c r="Z33" s="17"/>
       <c r="AA33" s="5"/>
-      <c r="AB33" s="31"/>
+      <c r="AB33" s="55"/>
     </row>
     <row r="34" spans="12:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L34" s="35"/>
+      <c r="L34" s="36"/>
       <c r="M34" s="5"/>
       <c r="N34" s="17"/>
       <c r="O34" s="17"/>
@@ -4946,10 +5135,10 @@
       <c r="Y34" s="17"/>
       <c r="Z34" s="17"/>
       <c r="AA34" s="5"/>
-      <c r="AB34" s="31"/>
+      <c r="AB34" s="55"/>
     </row>
     <row r="35" spans="12:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L35" s="35"/>
+      <c r="L35" s="36"/>
       <c r="M35" s="5"/>
       <c r="N35" s="17"/>
       <c r="O35" s="17"/>
@@ -4965,10 +5154,10 @@
       <c r="Y35" s="17"/>
       <c r="Z35" s="17"/>
       <c r="AA35" s="5"/>
-      <c r="AB35" s="31"/>
+      <c r="AB35" s="55"/>
     </row>
     <row r="36" spans="12:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L36" s="35"/>
+      <c r="L36" s="36"/>
       <c r="M36" s="5"/>
       <c r="N36" s="17"/>
       <c r="O36" s="17"/>
@@ -4984,10 +5173,10 @@
       <c r="Y36" s="17"/>
       <c r="Z36" s="17"/>
       <c r="AA36" s="5"/>
-      <c r="AB36" s="31"/>
+      <c r="AB36" s="55"/>
     </row>
     <row r="37" spans="12:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L37" s="35"/>
+      <c r="L37" s="36"/>
       <c r="M37" s="9"/>
       <c r="N37" s="7"/>
       <c r="O37" s="6"/>
@@ -5003,10 +5192,10 @@
       <c r="Y37" s="6"/>
       <c r="Z37" s="6"/>
       <c r="AA37" s="22"/>
-      <c r="AB37" s="31"/>
+      <c r="AB37" s="55"/>
     </row>
     <row r="38" spans="12:28" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L38" s="36">
+      <c r="L38" s="52">
         <v>3</v>
       </c>
       <c r="M38" s="34"/>
@@ -5026,19 +5215,42 @@
       <c r="Y38" s="34"/>
       <c r="Z38" s="34"/>
       <c r="AA38" s="34"/>
-      <c r="AB38" s="32"/>
+      <c r="AB38" s="56"/>
     </row>
     <row r="39" spans="12:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AB39" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="AW12:BK12"/>
-    <mergeCell ref="BL12:BL28"/>
-    <mergeCell ref="AW20:BD20"/>
-    <mergeCell ref="BD21:BD27"/>
-    <mergeCell ref="BD13:BD19"/>
-    <mergeCell ref="BE20:BK20"/>
+    <mergeCell ref="AE2:AS2"/>
+    <mergeCell ref="L23:L37"/>
+    <mergeCell ref="L38:S38"/>
+    <mergeCell ref="L22:S22"/>
+    <mergeCell ref="AE28:AS28"/>
+    <mergeCell ref="AD12:AD28"/>
+    <mergeCell ref="AL13:AL19"/>
+    <mergeCell ref="AM20:AS20"/>
+    <mergeCell ref="U30:AA30"/>
+    <mergeCell ref="AB22:AB38"/>
+    <mergeCell ref="U22:AA22"/>
+    <mergeCell ref="U38:AA38"/>
+    <mergeCell ref="M30:S30"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="AW2:BK2"/>
+    <mergeCell ref="AV2:AV10"/>
+    <mergeCell ref="B3:I4"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="AE10:AS10"/>
+    <mergeCell ref="AT2:AT10"/>
+    <mergeCell ref="AD2:AD10"/>
+    <mergeCell ref="T2:T10"/>
+    <mergeCell ref="U2:AA2"/>
+    <mergeCell ref="AB2:AB10"/>
+    <mergeCell ref="U10:AA10"/>
     <mergeCell ref="BL2:BL10"/>
     <mergeCell ref="AW10:BK10"/>
     <mergeCell ref="L12:L20"/>
@@ -5055,35 +5267,12 @@
     <mergeCell ref="AT12:AT28"/>
     <mergeCell ref="AE20:AL20"/>
     <mergeCell ref="AL21:AL27"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="AW2:BK2"/>
-    <mergeCell ref="AV2:AV10"/>
-    <mergeCell ref="B3:I4"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="AE10:AS10"/>
-    <mergeCell ref="AT2:AT10"/>
-    <mergeCell ref="AD2:AD10"/>
-    <mergeCell ref="T2:T10"/>
-    <mergeCell ref="U2:AA2"/>
-    <mergeCell ref="AB2:AB10"/>
-    <mergeCell ref="U10:AA10"/>
-    <mergeCell ref="AE2:AS2"/>
-    <mergeCell ref="L23:L37"/>
-    <mergeCell ref="L38:S38"/>
-    <mergeCell ref="L22:S22"/>
-    <mergeCell ref="AE28:AS28"/>
-    <mergeCell ref="AD12:AD28"/>
-    <mergeCell ref="AL13:AL19"/>
-    <mergeCell ref="AM20:AS20"/>
-    <mergeCell ref="U30:AA30"/>
-    <mergeCell ref="AB22:AB38"/>
-    <mergeCell ref="U22:AA22"/>
-    <mergeCell ref="U38:AA38"/>
-    <mergeCell ref="M30:S30"/>
+    <mergeCell ref="AW12:BK12"/>
+    <mergeCell ref="BL12:BL28"/>
+    <mergeCell ref="AW20:BD20"/>
+    <mergeCell ref="BD21:BD27"/>
+    <mergeCell ref="BD13:BD19"/>
+    <mergeCell ref="BE20:BK20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
